--- a/excel_files/output.xlsx
+++ b/excel_files/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
   <si>
     <t>C-AAGR</t>
   </si>
@@ -199,12 +199,60 @@
     <t>trade</t>
   </si>
   <si>
+    <t>Labour 112</t>
+  </si>
+  <si>
+    <t>Labour 113</t>
+  </si>
+  <si>
+    <t>Labour 121</t>
+  </si>
+  <si>
+    <t>Labour 122</t>
+  </si>
+  <si>
+    <t>Labour 123</t>
+  </si>
+  <si>
+    <t>Labour 131</t>
+  </si>
+  <si>
+    <t>Labour 132</t>
+  </si>
+  <si>
+    <t>Labour 133</t>
+  </si>
+  <si>
+    <t>Labour 211</t>
+  </si>
+  <si>
+    <t>Labour 212</t>
+  </si>
+  <si>
+    <t>Labour 213</t>
+  </si>
+  <si>
+    <t>Labour 221</t>
+  </si>
+  <si>
+    <t>Labour 222</t>
+  </si>
+  <si>
+    <t>Labour 223</t>
+  </si>
+  <si>
+    <t>Labour 231</t>
+  </si>
+  <si>
+    <t>Labour 232</t>
+  </si>
+  <si>
+    <t>Labour 233</t>
+  </si>
+  <si>
     <t>tmarg</t>
   </si>
   <si>
-    <t>Labour</t>
-  </si>
-  <si>
     <t>Capital</t>
   </si>
   <si>
@@ -215,57 +263,6 @@
   </si>
   <si>
     <t>Labour 111</t>
-  </si>
-  <si>
-    <t>Labour 112</t>
-  </si>
-  <si>
-    <t>Labour 113</t>
-  </si>
-  <si>
-    <t>Labour 121</t>
-  </si>
-  <si>
-    <t>Labour 122</t>
-  </si>
-  <si>
-    <t>Labour 123</t>
-  </si>
-  <si>
-    <t>Labour 131</t>
-  </si>
-  <si>
-    <t>Labour 132</t>
-  </si>
-  <si>
-    <t>Labour 133</t>
-  </si>
-  <si>
-    <t>Labour 211</t>
-  </si>
-  <si>
-    <t>Labour 212</t>
-  </si>
-  <si>
-    <t>Labour 213</t>
-  </si>
-  <si>
-    <t>Labour 221</t>
-  </si>
-  <si>
-    <t>Labour 222</t>
-  </si>
-  <si>
-    <t>Labour 223</t>
-  </si>
-  <si>
-    <t>Labour 231</t>
-  </si>
-  <si>
-    <t>Labour 232</t>
-  </si>
-  <si>
-    <t>Labour 233</t>
   </si>
 </sst>
 </file>
@@ -623,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG85"/>
+  <dimension ref="A1:CE84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:85">
+    <row r="1" spans="1:83">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,14 +873,8 @@
       <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:85">
+    </row>
+    <row r="2" spans="1:83">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +966,7 @@
         <v>932.17</v>
       </c>
     </row>
-    <row r="3" spans="1:85">
+    <row r="3" spans="1:83">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1067,7 +1058,7 @@
         <v>178.78</v>
       </c>
     </row>
-    <row r="4" spans="1:85">
+    <row r="4" spans="1:83">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1150,7 @@
         <v>74302.3</v>
       </c>
     </row>
-    <row r="5" spans="1:85">
+    <row r="5" spans="1:83">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1250,11 +1241,11 @@
       <c r="BJ5">
         <v>17.91</v>
       </c>
-      <c r="BK5">
+      <c r="CB5">
         <v>3864.9</v>
       </c>
     </row>
-    <row r="6" spans="1:85">
+    <row r="6" spans="1:83">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1337,7 @@
         <v>22.91</v>
       </c>
     </row>
-    <row r="7" spans="1:85">
+    <row r="7" spans="1:83">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1429,7 @@
         <v>779.75</v>
       </c>
     </row>
-    <row r="8" spans="1:85">
+    <row r="8" spans="1:83">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1521,7 @@
         <v>863.5599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:85">
+    <row r="9" spans="1:83">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1621,11 +1612,11 @@
       <c r="BJ9">
         <v>20.63</v>
       </c>
-      <c r="BK9">
+      <c r="CB9">
         <v>12232.23</v>
       </c>
     </row>
-    <row r="10" spans="1:85">
+    <row r="10" spans="1:83">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1711,7 +1702,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="11" spans="1:85">
+    <row r="11" spans="1:83">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1802,11 +1793,11 @@
       <c r="BJ11">
         <v>1944.4</v>
       </c>
-      <c r="BK11">
+      <c r="CB11">
         <v>15632.6</v>
       </c>
     </row>
-    <row r="12" spans="1:85">
+    <row r="12" spans="1:83">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1886,7 @@
         <v>860.4400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:85">
+    <row r="13" spans="1:83">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +1978,7 @@
         <v>13353.97</v>
       </c>
     </row>
-    <row r="14" spans="1:85">
+    <row r="14" spans="1:83">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2078,11 +2069,11 @@
       <c r="BJ14">
         <v>17170.96</v>
       </c>
-      <c r="BK14">
+      <c r="CB14">
         <v>84802.46000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:85">
+    <row r="15" spans="1:83">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2173,11 +2164,11 @@
       <c r="BJ15">
         <v>348.75</v>
       </c>
-      <c r="BK15">
+      <c r="CB15">
         <v>2668.03</v>
       </c>
     </row>
-    <row r="16" spans="1:85">
+    <row r="16" spans="1:83">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2268,11 +2259,11 @@
       <c r="BJ16">
         <v>2683.26</v>
       </c>
-      <c r="BK16">
+      <c r="CB16">
         <v>8239.969999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:80">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2363,11 +2354,11 @@
       <c r="BJ17">
         <v>902.08</v>
       </c>
-      <c r="BK17">
+      <c r="CB17">
         <v>212.12</v>
       </c>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:80">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2456,7 +2447,7 @@
         <v>268.25</v>
       </c>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:80">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2548,7 +2539,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:80">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2640,7 +2631,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="21" spans="1:63">
+    <row r="21" spans="1:80">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2723,7 +2714,7 @@
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:80">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2800,7 +2791,7 @@
         <v>305.05</v>
       </c>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:80">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2892,7 +2883,7 @@
         <v>521.4400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:80">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2984,7 +2975,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:80">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3073,7 +3064,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:63">
+    <row r="26" spans="1:80">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3165,7 +3156,7 @@
         <v>886.08</v>
       </c>
     </row>
-    <row r="27" spans="1:63">
+    <row r="27" spans="1:80">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3257,7 +3248,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="28" spans="1:63">
+    <row r="28" spans="1:80">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3340,7 +3331,7 @@
         <v>36.54</v>
       </c>
     </row>
-    <row r="29" spans="1:63">
+    <row r="29" spans="1:80">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3426,7 +3417,7 @@
         <v>8314.83</v>
       </c>
     </row>
-    <row r="30" spans="1:63">
+    <row r="30" spans="1:80">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3514,11 +3505,11 @@
       <c r="BI30">
         <v>0.39</v>
       </c>
-      <c r="BK30">
+      <c r="CB30">
         <v>578.79</v>
       </c>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:80">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3609,11 +3600,11 @@
       <c r="BJ31">
         <v>64.92</v>
       </c>
-      <c r="BK31">
+      <c r="CB31">
         <v>138.26</v>
       </c>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:80">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3704,7 +3695,7 @@
       <c r="BJ32">
         <v>888.9299999999999</v>
       </c>
-      <c r="BK32">
+      <c r="CB32">
         <v>3303.91</v>
       </c>
     </row>
@@ -4520,7 +4511,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="49" spans="1:67">
+    <row r="49" spans="1:83">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -4576,7 +4567,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="50" spans="1:67">
+    <row r="50" spans="1:83">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -4632,7 +4623,7 @@
         <v>18.06</v>
       </c>
     </row>
-    <row r="51" spans="1:67">
+    <row r="51" spans="1:83">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -4688,7 +4679,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="52" spans="1:67">
+    <row r="52" spans="1:83">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -4705,7 +4696,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="53" spans="1:67">
+    <row r="53" spans="1:83">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -4722,7 +4713,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="54" spans="1:67">
+    <row r="54" spans="1:83">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -4742,7 +4733,7 @@
         <v>3418.74</v>
       </c>
     </row>
-    <row r="55" spans="1:67">
+    <row r="55" spans="1:83">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -4777,7 +4768,7 @@
         <v>36500.62</v>
       </c>
     </row>
-    <row r="56" spans="1:67">
+    <row r="56" spans="1:83">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -4809,7 +4800,7 @@
         <v>3985.92</v>
       </c>
     </row>
-    <row r="57" spans="1:67">
+    <row r="57" spans="1:83">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -4838,32 +4829,29 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:67">
+    <row r="58" spans="1:83">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BL58">
-        <v>131530.1</v>
-      </c>
-      <c r="BM58">
+      <c r="CC58">
         <v>112199.01</v>
       </c>
     </row>
-    <row r="59" spans="1:67">
+    <row r="59" spans="1:83">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="BJ59">
         <v>36958.79</v>
       </c>
-      <c r="BN59">
+      <c r="CD59">
         <v>4774.3</v>
       </c>
-      <c r="BO59">
+      <c r="CE59">
         <v>9930.33</v>
       </c>
     </row>
-    <row r="60" spans="1:67">
+    <row r="60" spans="1:83">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -4871,7 +4859,7 @@
         <v>60156.74</v>
       </c>
     </row>
-    <row r="61" spans="1:67">
+    <row r="61" spans="1:83">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -4879,7 +4867,7 @@
         <v>3839.16</v>
       </c>
     </row>
-    <row r="62" spans="1:67">
+    <row r="62" spans="1:83">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -4977,9 +4965,9 @@
         <v>51297.1</v>
       </c>
     </row>
-    <row r="63" spans="1:67">
+    <row r="63" spans="1:83">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B63">
         <v>1653.21</v>
@@ -5078,1722 +5066,1645 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="64" spans="1:67">
+    <row r="64" spans="1:83">
       <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH64">
+        <v>9.414114025598392</v>
+      </c>
+      <c r="AI64">
+        <v>4.98343871824909</v>
+      </c>
+      <c r="AJ64">
+        <v>200.4209536320157</v>
+      </c>
+      <c r="AK64">
+        <v>4.98343871824909</v>
+      </c>
+      <c r="AL64">
+        <v>200.4209536320157</v>
+      </c>
+      <c r="AN64">
+        <v>3.583830243987031</v>
+      </c>
+      <c r="AO64">
+        <v>3.583830243987031</v>
+      </c>
+      <c r="AP64">
+        <v>11.83001546522602</v>
+      </c>
+      <c r="AQ64">
+        <v>0.882314035994932</v>
+      </c>
+      <c r="AR64">
+        <v>0.882314035994932</v>
+      </c>
+      <c r="AS64">
+        <v>73.19743904368953</v>
+      </c>
+      <c r="AT64">
+        <v>192.0036300258339</v>
+      </c>
+      <c r="AU64">
+        <v>192.0036300258339</v>
+      </c>
+      <c r="AV64">
+        <v>192.0036300258339</v>
+      </c>
+      <c r="AW64">
+        <v>8.166333993524313</v>
+      </c>
+      <c r="AX64">
+        <v>22.61657591545954</v>
+      </c>
+      <c r="AY64">
+        <v>0.6143333348818123</v>
+      </c>
+      <c r="AZ64">
+        <v>38.40820165850223</v>
+      </c>
+      <c r="BA64">
+        <v>38.40820165850223</v>
+      </c>
+      <c r="BB64">
+        <v>38.40820165850223</v>
+      </c>
+      <c r="BC64">
+        <v>38.40820165850223</v>
+      </c>
+      <c r="BD64">
+        <v>38.40820165850223</v>
+      </c>
+      <c r="BE64">
+        <v>0.6143333348818123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57">
+      <c r="A65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH65">
+        <v>59.33229717329145</v>
+      </c>
+      <c r="AI65">
+        <v>52.88727739527822</v>
+      </c>
+      <c r="AJ65">
+        <v>2386.627410095036</v>
+      </c>
+      <c r="AK65">
+        <v>52.88727739527822</v>
+      </c>
+      <c r="AL65">
+        <v>2386.627410095036</v>
+      </c>
+      <c r="AN65">
+        <v>16.82216917671263</v>
+      </c>
+      <c r="AO65">
+        <v>16.82216917671263</v>
+      </c>
+      <c r="AP65">
+        <v>75.89979358144105</v>
+      </c>
+      <c r="AQ65">
+        <v>9.907512448914348</v>
+      </c>
+      <c r="AR65">
+        <v>9.907512448914348</v>
+      </c>
+      <c r="AS65">
+        <v>168.617042367179</v>
+      </c>
+      <c r="AT65">
+        <v>337.3299611688592</v>
+      </c>
+      <c r="AU65">
+        <v>337.3299611688592</v>
+      </c>
+      <c r="AV65">
+        <v>337.3299611688592</v>
+      </c>
+      <c r="AW65">
+        <v>15.90577829927206</v>
+      </c>
+      <c r="AX65">
+        <v>164.5034938763827</v>
+      </c>
+      <c r="AY65">
+        <v>2.83422336127609</v>
+      </c>
+      <c r="AZ65">
+        <v>111.1287621074915</v>
+      </c>
+      <c r="BA65">
+        <v>111.1287621074915</v>
+      </c>
+      <c r="BB65">
+        <v>111.1287621074915</v>
+      </c>
+      <c r="BC65">
+        <v>111.1287621074915</v>
+      </c>
+      <c r="BD65">
+        <v>111.1287621074915</v>
+      </c>
+      <c r="BE65">
+        <v>2.83422336127609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57">
+      <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AH64">
-        <v>606.71</v>
-      </c>
-      <c r="AI64">
-        <v>2.48</v>
-      </c>
-      <c r="AJ64">
-        <v>288.04</v>
-      </c>
-      <c r="AK64">
-        <v>1467.42</v>
-      </c>
-      <c r="AL64">
-        <v>25315.67</v>
-      </c>
-      <c r="AM64">
-        <v>496.89</v>
-      </c>
-      <c r="AN64">
-        <v>115.12</v>
-      </c>
-      <c r="AO64">
-        <v>464.11</v>
-      </c>
-      <c r="AP64">
-        <v>1077.97</v>
-      </c>
-      <c r="AQ64">
-        <v>238.76</v>
-      </c>
-      <c r="AR64">
-        <v>10.19</v>
-      </c>
-      <c r="AS64">
-        <v>6546.59</v>
-      </c>
-      <c r="AT64">
-        <v>9171.24</v>
-      </c>
-      <c r="AU64">
-        <v>16888.18</v>
-      </c>
-      <c r="AV64">
-        <v>39974.96</v>
-      </c>
-      <c r="AW64">
-        <v>350.8</v>
-      </c>
-      <c r="AX64">
-        <v>3612.7</v>
-      </c>
-      <c r="AY64">
-        <v>172.44</v>
-      </c>
-      <c r="AZ64">
-        <v>1.93</v>
-      </c>
-      <c r="BA64">
-        <v>14.36</v>
-      </c>
-      <c r="BB64">
-        <v>507.79</v>
-      </c>
-      <c r="BC64">
-        <v>23024.77</v>
-      </c>
-      <c r="BD64">
-        <v>1162.91</v>
-      </c>
-      <c r="BE64">
-        <v>18.08</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65">
-      <c r="A65" s="1" t="s">
+      <c r="AH66">
+        <v>7.205654163155705</v>
+      </c>
+      <c r="AI66">
+        <v>4.216897656582296</v>
+      </c>
+      <c r="AJ66">
+        <v>424.28795445811</v>
+      </c>
+      <c r="AK66">
+        <v>4.216897656582296</v>
+      </c>
+      <c r="AL66">
+        <v>424.28795445811</v>
+      </c>
+      <c r="AN66">
+        <v>3.524966271901503</v>
+      </c>
+      <c r="AO66">
+        <v>3.524966271901503</v>
+      </c>
+      <c r="AP66">
+        <v>14.83037091043778</v>
+      </c>
+      <c r="AQ66">
+        <v>2.587943928549066</v>
+      </c>
+      <c r="AR66">
+        <v>2.587943928549066</v>
+      </c>
+      <c r="AS66">
+        <v>15.87995030975901</v>
+      </c>
+      <c r="AT66">
+        <v>95.40936142164284</v>
+      </c>
+      <c r="AU66">
+        <v>95.40936142164284</v>
+      </c>
+      <c r="AV66">
+        <v>95.40936142164284</v>
+      </c>
+      <c r="AW66">
+        <v>4.508362703770399</v>
+      </c>
+      <c r="AX66">
+        <v>20.73699029148556</v>
+      </c>
+      <c r="AY66">
+        <v>0.6809700198937206</v>
+      </c>
+      <c r="AZ66">
+        <v>24.04094541568309</v>
+      </c>
+      <c r="BA66">
+        <v>24.04094541568309</v>
+      </c>
+      <c r="BB66">
+        <v>24.04094541568309</v>
+      </c>
+      <c r="BC66">
+        <v>24.04094541568309</v>
+      </c>
+      <c r="BD66">
+        <v>24.04094541568309</v>
+      </c>
+      <c r="BE66">
+        <v>0.6809700198937206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:57">
+      <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH65">
+      <c r="AH67">
+        <v>85.96996595606208</v>
+      </c>
+      <c r="AI67">
+        <v>45.81034803465009</v>
+      </c>
+      <c r="AJ67">
+        <v>1067.650717165209</v>
+      </c>
+      <c r="AK67">
+        <v>45.81034803465009</v>
+      </c>
+      <c r="AL67">
+        <v>1067.650717165209</v>
+      </c>
+      <c r="AN67">
+        <v>21.2452943026647</v>
+      </c>
+      <c r="AO67">
+        <v>21.2452943026647</v>
+      </c>
+      <c r="AP67">
+        <v>67.45605026192963</v>
+      </c>
+      <c r="AQ67">
+        <v>3.648380930209532</v>
+      </c>
+      <c r="AR67">
+        <v>3.648380930209532</v>
+      </c>
+      <c r="AS67">
+        <v>1017.25321948424</v>
+      </c>
+      <c r="AT67">
+        <v>2296.914724432677</v>
+      </c>
+      <c r="AU67">
+        <v>2296.914724432677</v>
+      </c>
+      <c r="AV67">
+        <v>2296.914724432677</v>
+      </c>
+      <c r="AW67">
+        <v>57.67828812599182</v>
+      </c>
+      <c r="AX67">
+        <v>253.528219165653</v>
+      </c>
+      <c r="AY67">
+        <v>6.298046703189611</v>
+      </c>
+      <c r="AZ67">
+        <v>533.8607489335537</v>
+      </c>
+      <c r="BA67">
+        <v>533.8607489335537</v>
+      </c>
+      <c r="BB67">
+        <v>533.8607489335537</v>
+      </c>
+      <c r="BC67">
+        <v>533.8607489335537</v>
+      </c>
+      <c r="BD67">
+        <v>533.8607489335537</v>
+      </c>
+      <c r="BE67">
+        <v>6.298046703189611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57">
+      <c r="A68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH68">
+        <v>210.7794315168262</v>
+      </c>
+      <c r="AI68">
+        <v>300.8081789076329</v>
+      </c>
+      <c r="AJ68">
+        <v>4553.744405761063</v>
+      </c>
+      <c r="AK68">
+        <v>300.8081789076329</v>
+      </c>
+      <c r="AL68">
+        <v>4553.744405761063</v>
+      </c>
+      <c r="AN68">
+        <v>71.71276636935771</v>
+      </c>
+      <c r="AO68">
+        <v>71.71276636935771</v>
+      </c>
+      <c r="AP68">
+        <v>425.0448387694359</v>
+      </c>
+      <c r="AQ68">
+        <v>24.91756613589823</v>
+      </c>
+      <c r="AR68">
+        <v>24.91756613589823</v>
+      </c>
+      <c r="AS68">
+        <v>1199.389830690175</v>
+      </c>
+      <c r="AT68">
+        <v>3500.822733426095</v>
+      </c>
+      <c r="AU68">
+        <v>3500.822733426095</v>
+      </c>
+      <c r="AV68">
+        <v>3500.822733426095</v>
+      </c>
+      <c r="AW68">
+        <v>55.08900470733643</v>
+      </c>
+      <c r="AX68">
+        <v>787.1122351065278</v>
+      </c>
+      <c r="AY68">
+        <v>7.304603953659534</v>
+      </c>
+      <c r="AZ68">
+        <v>521.6428579665424</v>
+      </c>
+      <c r="BA68">
+        <v>521.6428579665424</v>
+      </c>
+      <c r="BB68">
+        <v>521.6428579665424</v>
+      </c>
+      <c r="BC68">
+        <v>521.6428579665424</v>
+      </c>
+      <c r="BD68">
+        <v>521.6428579665424</v>
+      </c>
+      <c r="BE68">
+        <v>7.304603953659534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57">
+      <c r="A69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH69">
+        <v>17.85041145477444</v>
+      </c>
+      <c r="AI69">
+        <v>28.15027438197285</v>
+      </c>
+      <c r="AJ69">
+        <v>377.6822184351739</v>
+      </c>
+      <c r="AK69">
+        <v>28.15027438197285</v>
+      </c>
+      <c r="AL69">
+        <v>377.6822184351739</v>
+      </c>
+      <c r="AN69">
+        <v>4.714462637193501</v>
+      </c>
+      <c r="AO69">
+        <v>4.714462637193501</v>
+      </c>
+      <c r="AP69">
+        <v>49.16584968741984</v>
+      </c>
+      <c r="AQ69">
+        <v>2.893772782757878</v>
+      </c>
+      <c r="AR69">
+        <v>2.893772782757878</v>
+      </c>
+      <c r="AS69">
+        <v>33.3963167022774</v>
+      </c>
+      <c r="AT69">
+        <v>255.6969061620534</v>
+      </c>
+      <c r="AU69">
+        <v>255.6969061620534</v>
+      </c>
+      <c r="AV69">
+        <v>255.6969061620534</v>
+      </c>
+      <c r="AW69">
+        <v>5.374387093633413</v>
+      </c>
+      <c r="AX69">
+        <v>25.69650055831298</v>
+      </c>
+      <c r="AY69">
+        <v>0.2742241334868595</v>
+      </c>
+      <c r="AZ69">
+        <v>44.71875981566311</v>
+      </c>
+      <c r="BA69">
+        <v>44.71875981566311</v>
+      </c>
+      <c r="BB69">
+        <v>44.71875981566311</v>
+      </c>
+      <c r="BC69">
+        <v>44.71875981566311</v>
+      </c>
+      <c r="BD69">
+        <v>44.71875981566311</v>
+      </c>
+      <c r="BE69">
+        <v>0.2742241334868595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57">
+      <c r="A70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH70">
+        <v>22.72248552095145</v>
+      </c>
+      <c r="AI70">
+        <v>26.40249624270946</v>
+      </c>
+      <c r="AJ70">
+        <v>551.2811292873323</v>
+      </c>
+      <c r="AK70">
+        <v>26.40249624270946</v>
+      </c>
+      <c r="AL70">
+        <v>551.2811292873323</v>
+      </c>
+      <c r="AN70">
+        <v>4.544429623456672</v>
+      </c>
+      <c r="AO70">
+        <v>4.544429623456672</v>
+      </c>
+      <c r="AP70">
+        <v>15.6135156785883</v>
+      </c>
+      <c r="AQ70">
+        <v>1.124677603738382</v>
+      </c>
+      <c r="AR70">
+        <v>1.124677603738382</v>
+      </c>
+      <c r="AS70">
+        <v>224.3877803584561</v>
+      </c>
+      <c r="AT70">
+        <v>1211.574020833299</v>
+      </c>
+      <c r="AU70">
+        <v>1211.574020833299</v>
+      </c>
+      <c r="AV70">
+        <v>1211.574020833299</v>
+      </c>
+      <c r="AW70">
+        <v>13.75366018712521</v>
+      </c>
+      <c r="AX70">
+        <v>151.1198314923793</v>
+      </c>
+      <c r="AY70">
+        <v>4.972760506421327</v>
+      </c>
+      <c r="AZ70">
+        <v>185.2030471046567</v>
+      </c>
+      <c r="BA70">
+        <v>185.2030471046567</v>
+      </c>
+      <c r="BB70">
+        <v>185.2030471046567</v>
+      </c>
+      <c r="BC70">
+        <v>185.2030471046567</v>
+      </c>
+      <c r="BD70">
+        <v>185.2030471046567</v>
+      </c>
+      <c r="BE70">
+        <v>4.972760506421327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:57">
+      <c r="A71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH71">
+        <v>86.79474751248956</v>
+      </c>
+      <c r="AI71">
+        <v>139.8593661420047</v>
+      </c>
+      <c r="AJ71">
+        <v>1530.035279196426</v>
+      </c>
+      <c r="AK71">
+        <v>139.8593661420047</v>
+      </c>
+      <c r="AL71">
+        <v>1530.035279196426</v>
+      </c>
+      <c r="AN71">
+        <v>27.99167295109481</v>
+      </c>
+      <c r="AO71">
+        <v>27.99167295109481</v>
+      </c>
+      <c r="AP71">
+        <v>188.5514367929101</v>
+      </c>
+      <c r="AQ71">
+        <v>9.954080538451672</v>
+      </c>
+      <c r="AR71">
+        <v>9.954080538451672</v>
+      </c>
+      <c r="AS71">
+        <v>898.22598473683</v>
+      </c>
+      <c r="AT71">
+        <v>3174.076085808873</v>
+      </c>
+      <c r="AU71">
+        <v>3174.076085808873</v>
+      </c>
+      <c r="AV71">
+        <v>3174.076085808873</v>
+      </c>
+      <c r="AW71">
+        <v>25.92668635845184</v>
+      </c>
+      <c r="AX71">
+        <v>885.2735020026564</v>
+      </c>
+      <c r="AY71">
+        <v>4.723041579052805</v>
+      </c>
+      <c r="AZ71">
+        <v>223.8124471736551</v>
+      </c>
+      <c r="BA71">
+        <v>223.8124471736551</v>
+      </c>
+      <c r="BB71">
+        <v>223.8124471736551</v>
+      </c>
+      <c r="BC71">
+        <v>223.8124471736551</v>
+      </c>
+      <c r="BD71">
+        <v>223.8124471736551</v>
+      </c>
+      <c r="BE71">
+        <v>4.723041579052805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:57">
+      <c r="A72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH72">
+        <v>13.98811280122027</v>
+      </c>
+      <c r="AI72">
+        <v>15.2970779588446</v>
+      </c>
+      <c r="AJ72">
+        <v>153.0186887697224</v>
+      </c>
+      <c r="AK72">
+        <v>15.2970779588446</v>
+      </c>
+      <c r="AL72">
+        <v>153.0186887697224</v>
+      </c>
+      <c r="AN72">
+        <v>3.391067505558021</v>
+      </c>
+      <c r="AO72">
+        <v>3.391067505558021</v>
+      </c>
+      <c r="AP72">
+        <v>36.30120203226805</v>
+      </c>
+      <c r="AQ72">
+        <v>1.918124681361951</v>
+      </c>
+      <c r="AR72">
+        <v>1.918124681361951</v>
+      </c>
+      <c r="AS72">
+        <v>89.16462504421361</v>
+      </c>
+      <c r="AT72">
+        <v>210.5832067055814</v>
+      </c>
+      <c r="AU72">
+        <v>210.5832067055814</v>
+      </c>
+      <c r="AV72">
+        <v>210.5832067055814</v>
+      </c>
+      <c r="AW72">
+        <v>5.622723040729761</v>
+      </c>
+      <c r="AX72">
+        <v>36.43868462974206</v>
+      </c>
+      <c r="AY72">
+        <v>0.2696506427740678</v>
+      </c>
+      <c r="AZ72">
+        <v>61.94066436254979</v>
+      </c>
+      <c r="BA72">
+        <v>61.94066436254979</v>
+      </c>
+      <c r="BB72">
+        <v>61.94066436254979</v>
+      </c>
+      <c r="BC72">
+        <v>61.94066436254979</v>
+      </c>
+      <c r="BD72">
+        <v>61.94066436254979</v>
+      </c>
+      <c r="BE72">
+        <v>0.2696506427740678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:57">
+      <c r="A73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH73">
+        <v>20.77479004822672</v>
+      </c>
+      <c r="AI73">
+        <v>4.852747014700435</v>
+      </c>
+      <c r="AJ73">
+        <v>48.24235908871516</v>
+      </c>
+      <c r="AK73">
+        <v>4.852747014700435</v>
+      </c>
+      <c r="AL73">
+        <v>48.24235908871516</v>
+      </c>
+      <c r="AN73">
+        <v>4.100118934209458</v>
+      </c>
+      <c r="AO73">
+        <v>4.100118934209458</v>
+      </c>
+      <c r="AP73">
+        <v>5.887614787886851</v>
+      </c>
+      <c r="AQ73">
+        <v>1.975540813524276</v>
+      </c>
+      <c r="AR73">
+        <v>1.975540813524276</v>
+      </c>
+      <c r="AS73">
+        <v>94.09361228807829</v>
+      </c>
+      <c r="AT73">
+        <v>432.1870895471797</v>
+      </c>
+      <c r="AU73">
+        <v>432.1870895471797</v>
+      </c>
+      <c r="AV73">
+        <v>432.1870895471797</v>
+      </c>
+      <c r="AW73">
+        <v>7.274246802926064</v>
+      </c>
+      <c r="AX73">
+        <v>48.43849489577114</v>
+      </c>
+      <c r="AY73">
+        <v>2.568719942420721</v>
+      </c>
+      <c r="AZ73">
+        <v>96.82042559319736</v>
+      </c>
+      <c r="BA73">
+        <v>96.82042559319736</v>
+      </c>
+      <c r="BB73">
+        <v>96.82042559319736</v>
+      </c>
+      <c r="BC73">
+        <v>96.82042559319736</v>
+      </c>
+      <c r="BD73">
+        <v>96.82042559319736</v>
+      </c>
+      <c r="BE73">
+        <v>2.568719942420721</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57">
+      <c r="A74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH74">
+        <v>6.972353674806655</v>
+      </c>
+      <c r="AI74">
+        <v>12.21744870962575</v>
+      </c>
+      <c r="AJ74">
+        <v>199.71937682949</v>
+      </c>
+      <c r="AK74">
+        <v>12.21744870962575</v>
+      </c>
+      <c r="AL74">
+        <v>199.71937682949</v>
+      </c>
+      <c r="AN74">
+        <v>18.19257926173508</v>
+      </c>
+      <c r="AO74">
+        <v>18.19257926173508</v>
+      </c>
+      <c r="AP74">
+        <v>18.15562672873959</v>
+      </c>
+      <c r="AQ74">
+        <v>11.11295016352087</v>
+      </c>
+      <c r="AR74">
+        <v>11.11295016352087</v>
+      </c>
+      <c r="AS74">
+        <v>263.5501914815977</v>
+      </c>
+      <c r="AT74">
+        <v>908.7285465851427</v>
+      </c>
+      <c r="AU74">
+        <v>908.7285465851427</v>
+      </c>
+      <c r="AV74">
+        <v>908.7285465851427</v>
+      </c>
+      <c r="AW74">
+        <v>15.00309596955776</v>
+      </c>
+      <c r="AX74">
+        <v>157.2740013517439</v>
+      </c>
+      <c r="AY74">
+        <v>10.54452222824097</v>
+      </c>
+      <c r="AZ74">
+        <v>341.338813333869</v>
+      </c>
+      <c r="BA74">
+        <v>341.338813333869</v>
+      </c>
+      <c r="BB74">
+        <v>341.338813333869</v>
+      </c>
+      <c r="BC74">
+        <v>341.338813333869</v>
+      </c>
+      <c r="BD74">
+        <v>341.338813333869</v>
+      </c>
+      <c r="BE74">
+        <v>10.54452222824097</v>
+      </c>
+    </row>
+    <row r="75" spans="1:57">
+      <c r="A75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH75">
+        <v>0.5680094407271827</v>
+      </c>
+      <c r="AI75">
+        <v>0.6389008355734405</v>
+      </c>
+      <c r="AJ75">
+        <v>21.40426394213398</v>
+      </c>
+      <c r="AK75">
+        <v>0.6389008355734405</v>
+      </c>
+      <c r="AL75">
+        <v>21.40426394213398</v>
+      </c>
+      <c r="AN75">
+        <v>3.499278473271989</v>
+      </c>
+      <c r="AO75">
+        <v>3.499278473271989</v>
+      </c>
+      <c r="AP75">
+        <v>2.967877806534525</v>
+      </c>
+      <c r="AQ75">
+        <v>2.793893166305497</v>
+      </c>
+      <c r="AR75">
+        <v>2.793893166305497</v>
+      </c>
+      <c r="AS75">
+        <v>14.40585431333166</v>
+      </c>
+      <c r="AT75">
+        <v>100.455687204795</v>
+      </c>
+      <c r="AU75">
+        <v>100.455687204795</v>
+      </c>
+      <c r="AV75">
+        <v>100.455687204795</v>
+      </c>
+      <c r="AW75">
+        <v>2.471739122271538</v>
+      </c>
+      <c r="AX75">
+        <v>3.190947880822932</v>
+      </c>
+      <c r="AY75">
+        <v>0.3704864161368459</v>
+      </c>
+      <c r="AZ75">
+        <v>79.33680799412728</v>
+      </c>
+      <c r="BA75">
+        <v>79.33680799412728</v>
+      </c>
+      <c r="BB75">
+        <v>79.33680799412728</v>
+      </c>
+      <c r="BC75">
+        <v>79.33680799412728</v>
+      </c>
+      <c r="BD75">
+        <v>79.33680799412728</v>
+      </c>
+      <c r="BE75">
+        <v>0.3704864161368459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:57">
+      <c r="A76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH76">
+        <v>14.58600710416213</v>
+      </c>
+      <c r="AI76">
+        <v>20.80613398961723</v>
+      </c>
+      <c r="AJ76">
+        <v>203.2207749169506</v>
+      </c>
+      <c r="AK76">
+        <v>20.80613398961723</v>
+      </c>
+      <c r="AL76">
+        <v>203.2207749169506</v>
+      </c>
+      <c r="AN76">
+        <v>15.73506095610559</v>
+      </c>
+      <c r="AO76">
+        <v>15.73506095610559</v>
+      </c>
+      <c r="AP76">
+        <v>25.33586614327505</v>
+      </c>
+      <c r="AQ76">
+        <v>4.656144000031054</v>
+      </c>
+      <c r="AR76">
+        <v>4.656144000031054</v>
+      </c>
+      <c r="AS76">
+        <v>629.8837321466208</v>
+      </c>
+      <c r="AT76">
+        <v>2327.148932623268</v>
+      </c>
+      <c r="AU76">
+        <v>2327.148932623268</v>
+      </c>
+      <c r="AV76">
+        <v>2327.148932623268</v>
+      </c>
+      <c r="AW76">
+        <v>40.31813014149666</v>
+      </c>
+      <c r="AX76">
+        <v>221.5278009824455</v>
+      </c>
+      <c r="AY76">
+        <v>11.62228437572718</v>
+      </c>
+      <c r="AZ76">
+        <v>658.5692046878339</v>
+      </c>
+      <c r="BA76">
+        <v>658.5692046878339</v>
+      </c>
+      <c r="BB76">
+        <v>658.5692046878339</v>
+      </c>
+      <c r="BC76">
+        <v>658.5692046878339</v>
+      </c>
+      <c r="BD76">
+        <v>658.5692046878339</v>
+      </c>
+      <c r="BE76">
+        <v>11.62228437572718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:57">
+      <c r="A77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH77">
+        <v>22.16415098886937</v>
+      </c>
+      <c r="AI77">
+        <v>49.84443322978914</v>
+      </c>
+      <c r="AJ77">
+        <v>674.1897927421331</v>
+      </c>
+      <c r="AK77">
+        <v>49.84443322978914</v>
+      </c>
+      <c r="AL77">
+        <v>674.1897927421331</v>
+      </c>
+      <c r="AN77">
+        <v>58.49801138035953</v>
+      </c>
+      <c r="AO77">
+        <v>58.49801138035953</v>
+      </c>
+      <c r="AP77">
+        <v>90.24182404957712</v>
+      </c>
+      <c r="AQ77">
+        <v>24.82541301250458</v>
+      </c>
+      <c r="AR77">
+        <v>24.82541301250458</v>
+      </c>
+      <c r="AS77">
+        <v>1220.66968123287</v>
+      </c>
+      <c r="AT77">
+        <v>3909.166663952172</v>
+      </c>
+      <c r="AU77">
+        <v>3909.166663952172</v>
+      </c>
+      <c r="AV77">
+        <v>3909.166663952172</v>
+      </c>
+      <c r="AW77">
+        <v>51.75319621562958</v>
+      </c>
+      <c r="AX77">
+        <v>509.3750439479947</v>
+      </c>
+      <c r="AY77">
+        <v>25.97905255854129</v>
+      </c>
+      <c r="AZ77">
+        <v>1172.28277120328</v>
+      </c>
+      <c r="BA77">
+        <v>1172.28277120328</v>
+      </c>
+      <c r="BB77">
+        <v>1172.28277120328</v>
+      </c>
+      <c r="BC77">
+        <v>1172.28277120328</v>
+      </c>
+      <c r="BD77">
+        <v>1172.28277120328</v>
+      </c>
+      <c r="BE77">
+        <v>25.97905255854129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57">
+      <c r="A78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH78">
+        <v>0.4406759691750631</v>
+      </c>
+      <c r="AI78">
+        <v>7.213819674542174</v>
+      </c>
+      <c r="AJ78">
+        <v>74.40975860358914</v>
+      </c>
+      <c r="AK78">
+        <v>7.213819674542174</v>
+      </c>
+      <c r="AL78">
+        <v>74.40975860358914</v>
+      </c>
+      <c r="AN78">
+        <v>5.620547629725189</v>
+      </c>
+      <c r="AO78">
+        <v>5.620547629725189</v>
+      </c>
+      <c r="AP78">
+        <v>11.42237053900957</v>
+      </c>
+      <c r="AQ78">
+        <v>6.340353480260819</v>
+      </c>
+      <c r="AR78">
+        <v>6.340353480260819</v>
+      </c>
+      <c r="AS78">
+        <v>47.1778669777466</v>
+      </c>
+      <c r="AT78">
+        <v>121.1692079006415</v>
+      </c>
+      <c r="AU78">
+        <v>121.1692079006415</v>
+      </c>
+      <c r="AV78">
+        <v>121.1692079006415</v>
+      </c>
+      <c r="AW78">
+        <v>9.171287022531033</v>
+      </c>
+      <c r="AX78">
+        <v>30.8258233175613</v>
+      </c>
+      <c r="AY78">
+        <v>2.15244241643697</v>
+      </c>
+      <c r="AZ78">
+        <v>94.26668654054404</v>
+      </c>
+      <c r="BA78">
+        <v>94.26668654054404</v>
+      </c>
+      <c r="BB78">
+        <v>94.26668654054404</v>
+      </c>
+      <c r="BC78">
+        <v>94.26668654054404</v>
+      </c>
+      <c r="BD78">
+        <v>94.26668654054404</v>
+      </c>
+      <c r="BE78">
+        <v>2.15244241643697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57">
+      <c r="A79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH79">
+        <v>10.65145417792723</v>
+      </c>
+      <c r="AI79">
+        <v>4.660319383302704</v>
+      </c>
+      <c r="AJ79">
+        <v>39.81580099688144</v>
+      </c>
+      <c r="AK79">
+        <v>4.660319383302704</v>
+      </c>
+      <c r="AL79">
+        <v>39.81580099688144</v>
+      </c>
+      <c r="AN79">
+        <v>2.638983073509298</v>
+      </c>
+      <c r="AO79">
+        <v>2.638983073509298</v>
+      </c>
+      <c r="AP79">
+        <v>2.937615607588086</v>
+      </c>
+      <c r="AQ79">
+        <v>1.239205213543028</v>
+      </c>
+      <c r="AR79">
+        <v>1.239205213543028</v>
+      </c>
+      <c r="AS79">
+        <v>64.8387075754907</v>
+      </c>
+      <c r="AT79">
+        <v>415.808921625279</v>
+      </c>
+      <c r="AU79">
+        <v>415.808921625279</v>
+      </c>
+      <c r="AV79">
+        <v>415.808921625279</v>
+      </c>
+      <c r="AW79">
+        <v>7.183363182842732</v>
+      </c>
+      <c r="AX79">
+        <v>100.2953584484756</v>
+      </c>
+      <c r="AY79">
+        <v>4.522884311899542</v>
+      </c>
+      <c r="AZ79">
+        <v>203.228815502882</v>
+      </c>
+      <c r="BA79">
+        <v>203.228815502882</v>
+      </c>
+      <c r="BB79">
+        <v>203.228815502882</v>
+      </c>
+      <c r="BC79">
+        <v>203.228815502882</v>
+      </c>
+      <c r="BD79">
+        <v>203.228815502882</v>
+      </c>
+      <c r="BE79">
+        <v>4.522884311899542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57">
+      <c r="A80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH80">
+        <v>13.45798746185377</v>
+      </c>
+      <c r="AI80">
+        <v>14.08343166541308</v>
+      </c>
+      <c r="AJ80">
+        <v>243.6396059985738</v>
+      </c>
+      <c r="AK80">
+        <v>14.08343166541308</v>
+      </c>
+      <c r="AL80">
+        <v>243.6396059985738</v>
+      </c>
+      <c r="AN80">
+        <v>21.23328398842365</v>
+      </c>
+      <c r="AO80">
+        <v>21.23328398842365</v>
+      </c>
+      <c r="AP80">
+        <v>29.97947199227288</v>
+      </c>
+      <c r="AQ80">
+        <v>10.14648030120879</v>
+      </c>
+      <c r="AR80">
+        <v>10.14648030120879</v>
+      </c>
+      <c r="AS80">
+        <v>456.9800567036122</v>
+      </c>
+      <c r="AT80">
+        <v>2217.601935847849</v>
+      </c>
+      <c r="AU80">
+        <v>2217.601935847849</v>
+      </c>
+      <c r="AV80">
+        <v>2217.601935847849</v>
+      </c>
+      <c r="AW80">
+        <v>20.47749817073345</v>
+      </c>
+      <c r="AX80">
+        <v>158.8606877215207</v>
+      </c>
+      <c r="AY80">
+        <v>7.524771695435047</v>
+      </c>
+      <c r="AZ80">
+        <v>471.0361390480996</v>
+      </c>
+      <c r="BA80">
+        <v>471.0361390480996</v>
+      </c>
+      <c r="BB80">
+        <v>471.0361390480996</v>
+      </c>
+      <c r="BC80">
+        <v>471.0361390480996</v>
+      </c>
+      <c r="BD80">
+        <v>471.0361390480996</v>
+      </c>
+      <c r="BE80">
+        <v>7.524771695435047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:81">
+      <c r="A81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH81">
+        <v>3.037352387174033</v>
+      </c>
+      <c r="AI81">
+        <v>2.217408262763638</v>
+      </c>
+      <c r="AJ81">
+        <v>52.46461887568468</v>
+      </c>
+      <c r="AK81">
+        <v>2.217408262763638</v>
+      </c>
+      <c r="AL81">
+        <v>52.46461887568468</v>
+      </c>
+      <c r="AN81">
+        <v>2.566478029908613</v>
+      </c>
+      <c r="AO81">
+        <v>2.566478029908613</v>
+      </c>
+      <c r="AP81">
+        <v>6.34865314183291</v>
+      </c>
+      <c r="AQ81">
+        <v>3.550646647298708</v>
+      </c>
+      <c r="AR81">
+        <v>3.550646647298708</v>
+      </c>
+      <c r="AS81">
+        <v>35.47821828959975</v>
+      </c>
+      <c r="AT81">
+        <v>304.7823744788766</v>
+      </c>
+      <c r="AU81">
+        <v>304.7823744788766</v>
+      </c>
+      <c r="AV81">
+        <v>304.7823744788766</v>
+      </c>
+      <c r="AW81">
+        <v>5.122214941680432</v>
+      </c>
+      <c r="AX81">
+        <v>35.88583554206416</v>
+      </c>
+      <c r="AY81">
+        <v>2.002981155142188</v>
+      </c>
+      <c r="AZ81">
+        <v>80.71584402132035</v>
+      </c>
+      <c r="BA81">
+        <v>80.71584402132035</v>
+      </c>
+      <c r="BB81">
+        <v>80.71584402132035</v>
+      </c>
+      <c r="BC81">
+        <v>80.71584402132035</v>
+      </c>
+      <c r="BD81">
+        <v>80.71584402132035</v>
+      </c>
+      <c r="BE81">
+        <v>2.002981155142188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:81">
+      <c r="A82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH82">
         <v>5167.79</v>
       </c>
-      <c r="AI65">
+      <c r="AI82">
         <v>7.13</v>
       </c>
-      <c r="AJ65">
+      <c r="AJ82">
         <v>673.79</v>
       </c>
-      <c r="AK65">
+      <c r="AK82">
         <v>1611.53</v>
       </c>
-      <c r="AL65">
+      <c r="AL82">
         <v>19997.65</v>
       </c>
-      <c r="AM65">
+      <c r="AM82">
         <v>723.73</v>
       </c>
-      <c r="AN65">
+      <c r="AN82">
         <v>67.78</v>
       </c>
-      <c r="AO65">
+      <c r="AO82">
         <v>703.41</v>
       </c>
-      <c r="AP65">
+      <c r="AP82">
         <v>2397.43</v>
       </c>
-      <c r="AQ65">
+      <c r="AQ82">
         <v>79.59999999999999</v>
       </c>
-      <c r="AR65">
+      <c r="AR82">
         <v>6.37</v>
       </c>
-      <c r="AS65">
+      <c r="AS82">
         <v>5650.28</v>
       </c>
-      <c r="AT65">
+      <c r="AT82">
         <v>7547.66</v>
       </c>
-      <c r="AU65">
+      <c r="AU82">
         <v>13791.83</v>
       </c>
-      <c r="AV65">
+      <c r="AV82">
         <v>47294.49</v>
       </c>
-      <c r="AW65">
+      <c r="AW82">
         <v>941.97</v>
       </c>
-      <c r="AX65">
+      <c r="AX82">
         <v>1072.71</v>
       </c>
-      <c r="AY65">
+      <c r="AY82">
         <v>208.05</v>
       </c>
-      <c r="AZ65">
+      <c r="AZ82">
         <v>2.61</v>
       </c>
-      <c r="BA65">
+      <c r="BA82">
         <v>20.59</v>
       </c>
-      <c r="BB65">
+      <c r="BB82">
         <v>397.37</v>
       </c>
-      <c r="BC65">
+      <c r="BC82">
         <v>2884.17</v>
       </c>
-      <c r="BD65">
+      <c r="BD82">
         <v>936.51</v>
       </c>
-      <c r="BE65">
+      <c r="BE82">
         <v>14.56</v>
       </c>
     </row>
-    <row r="66" spans="1:65">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH66">
+    <row r="83" spans="1:81">
+      <c r="A83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH83">
         <v>7.28</v>
       </c>
-      <c r="AJ66">
+      <c r="AJ83">
         <v>0.16</v>
       </c>
-      <c r="AK66">
+      <c r="AK83">
         <v>50.76</v>
       </c>
-      <c r="AL66">
+      <c r="AL83">
         <v>660.9299999999999</v>
       </c>
-      <c r="AM66">
+      <c r="AM83">
         <v>15.33</v>
       </c>
-      <c r="AN66">
+      <c r="AN83">
         <v>7.13</v>
       </c>
-      <c r="AO66">
+      <c r="AO83">
         <v>30.73</v>
       </c>
-      <c r="AP66">
+      <c r="AP83">
         <v>96.58</v>
       </c>
-      <c r="AQ66">
+      <c r="AQ83">
         <v>13.3</v>
       </c>
-      <c r="AR66">
+      <c r="AR83">
         <v>0.71</v>
       </c>
-      <c r="AS66">
+      <c r="AS83">
         <v>268.63</v>
       </c>
-      <c r="AT66">
+      <c r="AT83">
         <v>397.03</v>
       </c>
-      <c r="AU66">
+      <c r="AU83">
         <v>664.72</v>
       </c>
-      <c r="AV66">
+      <c r="AV83">
         <v>1652.9</v>
       </c>
-      <c r="AZ66">
+      <c r="AZ83">
         <v>0.09</v>
       </c>
-      <c r="BA66">
+      <c r="BA83">
         <v>0.63</v>
       </c>
-      <c r="BB66">
+      <c r="BB83">
         <v>27.2</v>
       </c>
-      <c r="BC66">
+      <c r="BC83">
         <v>820.11</v>
       </c>
-      <c r="BD66">
+      <c r="BD83">
         <v>59.18</v>
       </c>
-      <c r="BE66">
+      <c r="BE83">
         <v>0.91</v>
       </c>
     </row>
-    <row r="67" spans="1:65">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67">
+    <row r="84" spans="1:81">
+      <c r="A84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
         <v>227.52</v>
       </c>
-      <c r="C67">
+      <c r="C84">
         <v>74.33</v>
       </c>
-      <c r="D67">
+      <c r="D84">
         <v>2319.47</v>
       </c>
-      <c r="E67">
+      <c r="E84">
         <v>186.97</v>
       </c>
-      <c r="F67">
+      <c r="F84">
         <v>5.96</v>
       </c>
-      <c r="G67">
+      <c r="G84">
         <v>109.87</v>
       </c>
-      <c r="H67">
+      <c r="H84">
         <v>99.19</v>
       </c>
-      <c r="I67">
+      <c r="I84">
         <v>558.99</v>
       </c>
-      <c r="J67">
+      <c r="J84">
         <v>41.54</v>
       </c>
-      <c r="K67">
+      <c r="K84">
         <v>433.29</v>
       </c>
-      <c r="L67">
+      <c r="L84">
         <v>580.78</v>
       </c>
-      <c r="M67">
+      <c r="M84">
         <v>765.54</v>
       </c>
-      <c r="N67">
+      <c r="N84">
         <v>3251.01</v>
       </c>
-      <c r="O67">
+      <c r="O84">
         <v>53.1</v>
       </c>
-      <c r="P67">
+      <c r="P84">
         <v>216.04</v>
       </c>
-      <c r="Q67">
+      <c r="Q84">
         <v>5.88</v>
       </c>
-      <c r="R67">
+      <c r="R84">
         <v>76.8</v>
       </c>
-      <c r="S67">
+      <c r="S84">
         <v>174.74</v>
       </c>
-      <c r="T67">
+      <c r="T84">
         <v>21.43</v>
       </c>
-      <c r="U67">
+      <c r="U84">
         <v>42.26</v>
       </c>
-      <c r="V67">
+      <c r="V84">
         <v>51.85</v>
       </c>
-      <c r="W67">
+      <c r="W84">
         <v>19.07</v>
       </c>
-      <c r="X67">
+      <c r="X84">
         <v>19.84</v>
       </c>
-      <c r="Y67">
+      <c r="Y84">
         <v>0.44</v>
       </c>
-      <c r="Z67">
+      <c r="Z84">
         <v>117.44</v>
       </c>
-      <c r="AA67">
+      <c r="AA84">
         <v>12.27</v>
       </c>
-      <c r="AB67">
+      <c r="AB84">
         <v>4.69</v>
       </c>
-      <c r="AC67">
+      <c r="AC84">
         <v>330.19</v>
       </c>
-      <c r="AD67">
+      <c r="AD84">
         <v>33.42</v>
       </c>
-      <c r="AE67">
+      <c r="AE84">
         <v>4.14</v>
       </c>
-      <c r="AF67">
+      <c r="AF84">
         <v>92.26000000000001</v>
       </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-      <c r="AI67">
-        <v>0</v>
-      </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
-      <c r="AN67">
-        <v>0</v>
-      </c>
-      <c r="AP67">
-        <v>0</v>
-      </c>
-      <c r="AQ67">
-        <v>0</v>
-      </c>
-      <c r="AR67">
-        <v>0</v>
-      </c>
-      <c r="AS67">
-        <v>0</v>
-      </c>
-      <c r="AU67">
-        <v>0</v>
-      </c>
-      <c r="AV67">
-        <v>0</v>
-      </c>
-      <c r="AW67">
-        <v>0</v>
-      </c>
-      <c r="AX67">
-        <v>0</v>
-      </c>
-      <c r="BB67">
-        <v>0</v>
-      </c>
-      <c r="BD67">
-        <v>0</v>
-      </c>
-      <c r="BE67">
-        <v>0</v>
-      </c>
-      <c r="BF67">
-        <v>0</v>
-      </c>
-      <c r="BG67">
-        <v>0</v>
-      </c>
-      <c r="BH67">
-        <v>0</v>
-      </c>
-      <c r="BI67">
-        <v>0</v>
-      </c>
-      <c r="BJ67">
-        <v>0</v>
-      </c>
-      <c r="BK67">
-        <v>0</v>
-      </c>
-      <c r="BM67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:65">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH68">
-        <v>9.414114025598392</v>
-      </c>
-      <c r="AI68">
-        <v>4.98343871824909</v>
-      </c>
-      <c r="AJ68">
-        <v>200.4209536320157</v>
-      </c>
-      <c r="AK68">
-        <v>4.98343871824909</v>
-      </c>
-      <c r="AL68">
-        <v>200.4209536320157</v>
-      </c>
-      <c r="AN68">
-        <v>3.583830243987031</v>
-      </c>
-      <c r="AO68">
-        <v>3.583830243987031</v>
-      </c>
-      <c r="AP68">
-        <v>11.83001546522602</v>
-      </c>
-      <c r="AQ68">
-        <v>0.882314035994932</v>
-      </c>
-      <c r="AR68">
-        <v>0.882314035994932</v>
-      </c>
-      <c r="AS68">
-        <v>73.19743904368953</v>
-      </c>
-      <c r="AT68">
-        <v>192.0036300258339</v>
-      </c>
-      <c r="AU68">
-        <v>192.0036300258339</v>
-      </c>
-      <c r="AV68">
-        <v>192.0036300258339</v>
-      </c>
-      <c r="AW68">
-        <v>8.166333993524313</v>
-      </c>
-      <c r="AX68">
-        <v>22.61657591545954</v>
-      </c>
-      <c r="AY68">
-        <v>0.6143333348818123</v>
-      </c>
-      <c r="AZ68">
-        <v>38.40820165850223</v>
-      </c>
-      <c r="BA68">
-        <v>38.40820165850223</v>
-      </c>
-      <c r="BB68">
-        <v>38.40820165850223</v>
-      </c>
-      <c r="BC68">
-        <v>38.40820165850223</v>
-      </c>
-      <c r="BD68">
-        <v>38.40820165850223</v>
-      </c>
-      <c r="BE68">
-        <v>0.6143333348818123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:65">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH69">
-        <v>59.33229717329145</v>
-      </c>
-      <c r="AI69">
-        <v>52.88727739527822</v>
-      </c>
-      <c r="AJ69">
-        <v>2386.627410095036</v>
-      </c>
-      <c r="AK69">
-        <v>52.88727739527822</v>
-      </c>
-      <c r="AL69">
-        <v>2386.627410095036</v>
-      </c>
-      <c r="AN69">
-        <v>16.82216917671263</v>
-      </c>
-      <c r="AO69">
-        <v>16.82216917671263</v>
-      </c>
-      <c r="AP69">
-        <v>75.89979358144105</v>
-      </c>
-      <c r="AQ69">
-        <v>9.907512448914348</v>
-      </c>
-      <c r="AR69">
-        <v>9.907512448914348</v>
-      </c>
-      <c r="AS69">
-        <v>168.617042367179</v>
-      </c>
-      <c r="AT69">
-        <v>337.3299611688592</v>
-      </c>
-      <c r="AU69">
-        <v>337.3299611688592</v>
-      </c>
-      <c r="AV69">
-        <v>337.3299611688592</v>
-      </c>
-      <c r="AW69">
-        <v>15.90577829927206</v>
-      </c>
-      <c r="AX69">
-        <v>164.5034938763827</v>
-      </c>
-      <c r="AY69">
-        <v>2.83422336127609</v>
-      </c>
-      <c r="AZ69">
-        <v>111.1287621074915</v>
-      </c>
-      <c r="BA69">
-        <v>111.1287621074915</v>
-      </c>
-      <c r="BB69">
-        <v>111.1287621074915</v>
-      </c>
-      <c r="BC69">
-        <v>111.1287621074915</v>
-      </c>
-      <c r="BD69">
-        <v>111.1287621074915</v>
-      </c>
-      <c r="BE69">
-        <v>2.83422336127609</v>
-      </c>
-    </row>
-    <row r="70" spans="1:65">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH70">
-        <v>7.205654163155705</v>
-      </c>
-      <c r="AI70">
-        <v>4.216897656582296</v>
-      </c>
-      <c r="AJ70">
-        <v>424.28795445811</v>
-      </c>
-      <c r="AK70">
-        <v>4.216897656582296</v>
-      </c>
-      <c r="AL70">
-        <v>424.28795445811</v>
-      </c>
-      <c r="AN70">
-        <v>3.524966271901503</v>
-      </c>
-      <c r="AO70">
-        <v>3.524966271901503</v>
-      </c>
-      <c r="AP70">
-        <v>14.83037091043778</v>
-      </c>
-      <c r="AQ70">
-        <v>2.587943928549066</v>
-      </c>
-      <c r="AR70">
-        <v>2.587943928549066</v>
-      </c>
-      <c r="AS70">
-        <v>15.87995030975901</v>
-      </c>
-      <c r="AT70">
-        <v>95.40936142164284</v>
-      </c>
-      <c r="AU70">
-        <v>95.40936142164284</v>
-      </c>
-      <c r="AV70">
-        <v>95.40936142164284</v>
-      </c>
-      <c r="AW70">
-        <v>4.508362703770399</v>
-      </c>
-      <c r="AX70">
-        <v>20.73699029148556</v>
-      </c>
-      <c r="AY70">
-        <v>0.6809700198937206</v>
-      </c>
-      <c r="AZ70">
-        <v>24.04094541568309</v>
-      </c>
-      <c r="BA70">
-        <v>24.04094541568309</v>
-      </c>
-      <c r="BB70">
-        <v>24.04094541568309</v>
-      </c>
-      <c r="BC70">
-        <v>24.04094541568309</v>
-      </c>
-      <c r="BD70">
-        <v>24.04094541568309</v>
-      </c>
-      <c r="BE70">
-        <v>0.6809700198937206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:65">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH71">
-        <v>85.96996595606208</v>
-      </c>
-      <c r="AI71">
-        <v>45.81034803465009</v>
-      </c>
-      <c r="AJ71">
-        <v>1067.650717165209</v>
-      </c>
-      <c r="AK71">
-        <v>45.81034803465009</v>
-      </c>
-      <c r="AL71">
-        <v>1067.650717165209</v>
-      </c>
-      <c r="AN71">
-        <v>21.2452943026647</v>
-      </c>
-      <c r="AO71">
-        <v>21.2452943026647</v>
-      </c>
-      <c r="AP71">
-        <v>67.45605026192963</v>
-      </c>
-      <c r="AQ71">
-        <v>3.648380930209532</v>
-      </c>
-      <c r="AR71">
-        <v>3.648380930209532</v>
-      </c>
-      <c r="AS71">
-        <v>1017.25321948424</v>
-      </c>
-      <c r="AT71">
-        <v>2296.914724432677</v>
-      </c>
-      <c r="AU71">
-        <v>2296.914724432677</v>
-      </c>
-      <c r="AV71">
-        <v>2296.914724432677</v>
-      </c>
-      <c r="AW71">
-        <v>57.67828812599182</v>
-      </c>
-      <c r="AX71">
-        <v>253.528219165653</v>
-      </c>
-      <c r="AY71">
-        <v>6.298046703189611</v>
-      </c>
-      <c r="AZ71">
-        <v>533.8607489335537</v>
-      </c>
-      <c r="BA71">
-        <v>533.8607489335537</v>
-      </c>
-      <c r="BB71">
-        <v>533.8607489335537</v>
-      </c>
-      <c r="BC71">
-        <v>533.8607489335537</v>
-      </c>
-      <c r="BD71">
-        <v>533.8607489335537</v>
-      </c>
-      <c r="BE71">
-        <v>6.298046703189611</v>
-      </c>
-    </row>
-    <row r="72" spans="1:65">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH72">
-        <v>210.7794315168262</v>
-      </c>
-      <c r="AI72">
-        <v>300.8081789076329</v>
-      </c>
-      <c r="AJ72">
-        <v>4553.744405761063</v>
-      </c>
-      <c r="AK72">
-        <v>300.8081789076329</v>
-      </c>
-      <c r="AL72">
-        <v>4553.744405761063</v>
-      </c>
-      <c r="AN72">
-        <v>71.71276636935771</v>
-      </c>
-      <c r="AO72">
-        <v>71.71276636935771</v>
-      </c>
-      <c r="AP72">
-        <v>425.0448387694359</v>
-      </c>
-      <c r="AQ72">
-        <v>24.91756613589823</v>
-      </c>
-      <c r="AR72">
-        <v>24.91756613589823</v>
-      </c>
-      <c r="AS72">
-        <v>1199.389830690175</v>
-      </c>
-      <c r="AT72">
-        <v>3500.822733426095</v>
-      </c>
-      <c r="AU72">
-        <v>3500.822733426095</v>
-      </c>
-      <c r="AV72">
-        <v>3500.822733426095</v>
-      </c>
-      <c r="AW72">
-        <v>55.08900470733643</v>
-      </c>
-      <c r="AX72">
-        <v>787.1122351065278</v>
-      </c>
-      <c r="AY72">
-        <v>7.304603953659534</v>
-      </c>
-      <c r="AZ72">
-        <v>521.6428579665424</v>
-      </c>
-      <c r="BA72">
-        <v>521.6428579665424</v>
-      </c>
-      <c r="BB72">
-        <v>521.6428579665424</v>
-      </c>
-      <c r="BC72">
-        <v>521.6428579665424</v>
-      </c>
-      <c r="BD72">
-        <v>521.6428579665424</v>
-      </c>
-      <c r="BE72">
-        <v>7.304603953659534</v>
-      </c>
-    </row>
-    <row r="73" spans="1:65">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH73">
-        <v>17.85041145477444</v>
-      </c>
-      <c r="AI73">
-        <v>28.15027438197285</v>
-      </c>
-      <c r="AJ73">
-        <v>377.6822184351739</v>
-      </c>
-      <c r="AK73">
-        <v>28.15027438197285</v>
-      </c>
-      <c r="AL73">
-        <v>377.6822184351739</v>
-      </c>
-      <c r="AN73">
-        <v>4.714462637193501</v>
-      </c>
-      <c r="AO73">
-        <v>4.714462637193501</v>
-      </c>
-      <c r="AP73">
-        <v>49.16584968741984</v>
-      </c>
-      <c r="AQ73">
-        <v>2.893772782757878</v>
-      </c>
-      <c r="AR73">
-        <v>2.893772782757878</v>
-      </c>
-      <c r="AS73">
-        <v>33.3963167022774</v>
-      </c>
-      <c r="AT73">
-        <v>255.6969061620534</v>
-      </c>
-      <c r="AU73">
-        <v>255.6969061620534</v>
-      </c>
-      <c r="AV73">
-        <v>255.6969061620534</v>
-      </c>
-      <c r="AW73">
-        <v>5.374387093633413</v>
-      </c>
-      <c r="AX73">
-        <v>25.69650055831298</v>
-      </c>
-      <c r="AY73">
-        <v>0.2742241334868595</v>
-      </c>
-      <c r="AZ73">
-        <v>44.71875981566311</v>
-      </c>
-      <c r="BA73">
-        <v>44.71875981566311</v>
-      </c>
-      <c r="BB73">
-        <v>44.71875981566311</v>
-      </c>
-      <c r="BC73">
-        <v>44.71875981566311</v>
-      </c>
-      <c r="BD73">
-        <v>44.71875981566311</v>
-      </c>
-      <c r="BE73">
-        <v>0.2742241334868595</v>
-      </c>
-    </row>
-    <row r="74" spans="1:65">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH74">
-        <v>22.72248552095145</v>
-      </c>
-      <c r="AI74">
-        <v>26.40249624270946</v>
-      </c>
-      <c r="AJ74">
-        <v>551.2811292873323</v>
-      </c>
-      <c r="AK74">
-        <v>26.40249624270946</v>
-      </c>
-      <c r="AL74">
-        <v>551.2811292873323</v>
-      </c>
-      <c r="AN74">
-        <v>4.544429623456672</v>
-      </c>
-      <c r="AO74">
-        <v>4.544429623456672</v>
-      </c>
-      <c r="AP74">
-        <v>15.6135156785883</v>
-      </c>
-      <c r="AQ74">
-        <v>1.124677603738382</v>
-      </c>
-      <c r="AR74">
-        <v>1.124677603738382</v>
-      </c>
-      <c r="AS74">
-        <v>224.3877803584561</v>
-      </c>
-      <c r="AT74">
-        <v>1211.574020833299</v>
-      </c>
-      <c r="AU74">
-        <v>1211.574020833299</v>
-      </c>
-      <c r="AV74">
-        <v>1211.574020833299</v>
-      </c>
-      <c r="AW74">
-        <v>13.75366018712521</v>
-      </c>
-      <c r="AX74">
-        <v>151.1198314923793</v>
-      </c>
-      <c r="AY74">
-        <v>4.972760506421327</v>
-      </c>
-      <c r="AZ74">
-        <v>185.2030471046567</v>
-      </c>
-      <c r="BA74">
-        <v>185.2030471046567</v>
-      </c>
-      <c r="BB74">
-        <v>185.2030471046567</v>
-      </c>
-      <c r="BC74">
-        <v>185.2030471046567</v>
-      </c>
-      <c r="BD74">
-        <v>185.2030471046567</v>
-      </c>
-      <c r="BE74">
-        <v>4.972760506421327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:65">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH75">
-        <v>86.79474751248956</v>
-      </c>
-      <c r="AI75">
-        <v>139.8593661420047</v>
-      </c>
-      <c r="AJ75">
-        <v>1530.035279196426</v>
-      </c>
-      <c r="AK75">
-        <v>139.8593661420047</v>
-      </c>
-      <c r="AL75">
-        <v>1530.035279196426</v>
-      </c>
-      <c r="AN75">
-        <v>27.99167295109481</v>
-      </c>
-      <c r="AO75">
-        <v>27.99167295109481</v>
-      </c>
-      <c r="AP75">
-        <v>188.5514367929101</v>
-      </c>
-      <c r="AQ75">
-        <v>9.954080538451672</v>
-      </c>
-      <c r="AR75">
-        <v>9.954080538451672</v>
-      </c>
-      <c r="AS75">
-        <v>898.22598473683</v>
-      </c>
-      <c r="AT75">
-        <v>3174.076085808873</v>
-      </c>
-      <c r="AU75">
-        <v>3174.076085808873</v>
-      </c>
-      <c r="AV75">
-        <v>3174.076085808873</v>
-      </c>
-      <c r="AW75">
-        <v>25.92668635845184</v>
-      </c>
-      <c r="AX75">
-        <v>885.2735020026564</v>
-      </c>
-      <c r="AY75">
-        <v>4.723041579052805</v>
-      </c>
-      <c r="AZ75">
-        <v>223.8124471736551</v>
-      </c>
-      <c r="BA75">
-        <v>223.8124471736551</v>
-      </c>
-      <c r="BB75">
-        <v>223.8124471736551</v>
-      </c>
-      <c r="BC75">
-        <v>223.8124471736551</v>
-      </c>
-      <c r="BD75">
-        <v>223.8124471736551</v>
-      </c>
-      <c r="BE75">
-        <v>4.723041579052805</v>
-      </c>
-    </row>
-    <row r="76" spans="1:65">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH76">
-        <v>13.98811280122027</v>
-      </c>
-      <c r="AI76">
-        <v>15.2970779588446</v>
-      </c>
-      <c r="AJ76">
-        <v>153.0186887697224</v>
-      </c>
-      <c r="AK76">
-        <v>15.2970779588446</v>
-      </c>
-      <c r="AL76">
-        <v>153.0186887697224</v>
-      </c>
-      <c r="AN76">
-        <v>3.391067505558021</v>
-      </c>
-      <c r="AO76">
-        <v>3.391067505558021</v>
-      </c>
-      <c r="AP76">
-        <v>36.30120203226805</v>
-      </c>
-      <c r="AQ76">
-        <v>1.918124681361951</v>
-      </c>
-      <c r="AR76">
-        <v>1.918124681361951</v>
-      </c>
-      <c r="AS76">
-        <v>89.16462504421361</v>
-      </c>
-      <c r="AT76">
-        <v>210.5832067055814</v>
-      </c>
-      <c r="AU76">
-        <v>210.5832067055814</v>
-      </c>
-      <c r="AV76">
-        <v>210.5832067055814</v>
-      </c>
-      <c r="AW76">
-        <v>5.622723040729761</v>
-      </c>
-      <c r="AX76">
-        <v>36.43868462974206</v>
-      </c>
-      <c r="AY76">
-        <v>0.2696506427740678</v>
-      </c>
-      <c r="AZ76">
-        <v>61.94066436254979</v>
-      </c>
-      <c r="BA76">
-        <v>61.94066436254979</v>
-      </c>
-      <c r="BB76">
-        <v>61.94066436254979</v>
-      </c>
-      <c r="BC76">
-        <v>61.94066436254979</v>
-      </c>
-      <c r="BD76">
-        <v>61.94066436254979</v>
-      </c>
-      <c r="BE76">
-        <v>0.2696506427740678</v>
-      </c>
-    </row>
-    <row r="77" spans="1:65">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH77">
-        <v>20.77479004822672</v>
-      </c>
-      <c r="AI77">
-        <v>4.852747014700435</v>
-      </c>
-      <c r="AJ77">
-        <v>48.24235908871516</v>
-      </c>
-      <c r="AK77">
-        <v>4.852747014700435</v>
-      </c>
-      <c r="AL77">
-        <v>48.24235908871516</v>
-      </c>
-      <c r="AN77">
-        <v>4.100118934209458</v>
-      </c>
-      <c r="AO77">
-        <v>4.100118934209458</v>
-      </c>
-      <c r="AP77">
-        <v>5.887614787886851</v>
-      </c>
-      <c r="AQ77">
-        <v>1.975540813524276</v>
-      </c>
-      <c r="AR77">
-        <v>1.975540813524276</v>
-      </c>
-      <c r="AS77">
-        <v>94.09361228807829</v>
-      </c>
-      <c r="AT77">
-        <v>432.1870895471797</v>
-      </c>
-      <c r="AU77">
-        <v>432.1870895471797</v>
-      </c>
-      <c r="AV77">
-        <v>432.1870895471797</v>
-      </c>
-      <c r="AW77">
-        <v>7.274246802926064</v>
-      </c>
-      <c r="AX77">
-        <v>48.43849489577114</v>
-      </c>
-      <c r="AY77">
-        <v>2.568719942420721</v>
-      </c>
-      <c r="AZ77">
-        <v>96.82042559319736</v>
-      </c>
-      <c r="BA77">
-        <v>96.82042559319736</v>
-      </c>
-      <c r="BB77">
-        <v>96.82042559319736</v>
-      </c>
-      <c r="BC77">
-        <v>96.82042559319736</v>
-      </c>
-      <c r="BD77">
-        <v>96.82042559319736</v>
-      </c>
-      <c r="BE77">
-        <v>2.568719942420721</v>
-      </c>
-    </row>
-    <row r="78" spans="1:65">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH78">
-        <v>6.972353674806655</v>
-      </c>
-      <c r="AI78">
-        <v>12.21744870962575</v>
-      </c>
-      <c r="AJ78">
-        <v>199.71937682949</v>
-      </c>
-      <c r="AK78">
-        <v>12.21744870962575</v>
-      </c>
-      <c r="AL78">
-        <v>199.71937682949</v>
-      </c>
-      <c r="AN78">
-        <v>18.19257926173508</v>
-      </c>
-      <c r="AO78">
-        <v>18.19257926173508</v>
-      </c>
-      <c r="AP78">
-        <v>18.15562672873959</v>
-      </c>
-      <c r="AQ78">
-        <v>11.11295016352087</v>
-      </c>
-      <c r="AR78">
-        <v>11.11295016352087</v>
-      </c>
-      <c r="AS78">
-        <v>263.5501914815977</v>
-      </c>
-      <c r="AT78">
-        <v>908.7285465851427</v>
-      </c>
-      <c r="AU78">
-        <v>908.7285465851427</v>
-      </c>
-      <c r="AV78">
-        <v>908.7285465851427</v>
-      </c>
-      <c r="AW78">
-        <v>15.00309596955776</v>
-      </c>
-      <c r="AX78">
-        <v>157.2740013517439</v>
-      </c>
-      <c r="AY78">
-        <v>10.54452222824097</v>
-      </c>
-      <c r="AZ78">
-        <v>341.338813333869</v>
-      </c>
-      <c r="BA78">
-        <v>341.338813333869</v>
-      </c>
-      <c r="BB78">
-        <v>341.338813333869</v>
-      </c>
-      <c r="BC78">
-        <v>341.338813333869</v>
-      </c>
-      <c r="BD78">
-        <v>341.338813333869</v>
-      </c>
-      <c r="BE78">
-        <v>10.54452222824097</v>
-      </c>
-    </row>
-    <row r="79" spans="1:65">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH79">
-        <v>0.5680094407271827</v>
-      </c>
-      <c r="AI79">
-        <v>0.6389008355734405</v>
-      </c>
-      <c r="AJ79">
-        <v>21.40426394213398</v>
-      </c>
-      <c r="AK79">
-        <v>0.6389008355734405</v>
-      </c>
-      <c r="AL79">
-        <v>21.40426394213398</v>
-      </c>
-      <c r="AN79">
-        <v>3.499278473271989</v>
-      </c>
-      <c r="AO79">
-        <v>3.499278473271989</v>
-      </c>
-      <c r="AP79">
-        <v>2.967877806534525</v>
-      </c>
-      <c r="AQ79">
-        <v>2.793893166305497</v>
-      </c>
-      <c r="AR79">
-        <v>2.793893166305497</v>
-      </c>
-      <c r="AS79">
-        <v>14.40585431333166</v>
-      </c>
-      <c r="AT79">
-        <v>100.455687204795</v>
-      </c>
-      <c r="AU79">
-        <v>100.455687204795</v>
-      </c>
-      <c r="AV79">
-        <v>100.455687204795</v>
-      </c>
-      <c r="AW79">
-        <v>2.471739122271538</v>
-      </c>
-      <c r="AX79">
-        <v>3.190947880822932</v>
-      </c>
-      <c r="AY79">
-        <v>0.3704864161368459</v>
-      </c>
-      <c r="AZ79">
-        <v>79.33680799412728</v>
-      </c>
-      <c r="BA79">
-        <v>79.33680799412728</v>
-      </c>
-      <c r="BB79">
-        <v>79.33680799412728</v>
-      </c>
-      <c r="BC79">
-        <v>79.33680799412728</v>
-      </c>
-      <c r="BD79">
-        <v>79.33680799412728</v>
-      </c>
-      <c r="BE79">
-        <v>0.3704864161368459</v>
-      </c>
-    </row>
-    <row r="80" spans="1:65">
-      <c r="A80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH80">
-        <v>14.58600710416213</v>
-      </c>
-      <c r="AI80">
-        <v>20.80613398961723</v>
-      </c>
-      <c r="AJ80">
-        <v>203.2207749169506</v>
-      </c>
-      <c r="AK80">
-        <v>20.80613398961723</v>
-      </c>
-      <c r="AL80">
-        <v>203.2207749169506</v>
-      </c>
-      <c r="AN80">
-        <v>15.73506095610559</v>
-      </c>
-      <c r="AO80">
-        <v>15.73506095610559</v>
-      </c>
-      <c r="AP80">
-        <v>25.33586614327505</v>
-      </c>
-      <c r="AQ80">
-        <v>4.656144000031054</v>
-      </c>
-      <c r="AR80">
-        <v>4.656144000031054</v>
-      </c>
-      <c r="AS80">
-        <v>629.8837321466208</v>
-      </c>
-      <c r="AT80">
-        <v>2327.148932623268</v>
-      </c>
-      <c r="AU80">
-        <v>2327.148932623268</v>
-      </c>
-      <c r="AV80">
-        <v>2327.148932623268</v>
-      </c>
-      <c r="AW80">
-        <v>40.31813014149666</v>
-      </c>
-      <c r="AX80">
-        <v>221.5278009824455</v>
-      </c>
-      <c r="AY80">
-        <v>11.62228437572718</v>
-      </c>
-      <c r="AZ80">
-        <v>658.5692046878339</v>
-      </c>
-      <c r="BA80">
-        <v>658.5692046878339</v>
-      </c>
-      <c r="BB80">
-        <v>658.5692046878339</v>
-      </c>
-      <c r="BC80">
-        <v>658.5692046878339</v>
-      </c>
-      <c r="BD80">
-        <v>658.5692046878339</v>
-      </c>
-      <c r="BE80">
-        <v>11.62228437572718</v>
-      </c>
-    </row>
-    <row r="81" spans="1:57">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH81">
-        <v>22.16415098886937</v>
-      </c>
-      <c r="AI81">
-        <v>49.84443322978914</v>
-      </c>
-      <c r="AJ81">
-        <v>674.1897927421331</v>
-      </c>
-      <c r="AK81">
-        <v>49.84443322978914</v>
-      </c>
-      <c r="AL81">
-        <v>674.1897927421331</v>
-      </c>
-      <c r="AN81">
-        <v>58.49801138035953</v>
-      </c>
-      <c r="AO81">
-        <v>58.49801138035953</v>
-      </c>
-      <c r="AP81">
-        <v>90.24182404957712</v>
-      </c>
-      <c r="AQ81">
-        <v>24.82541301250458</v>
-      </c>
-      <c r="AR81">
-        <v>24.82541301250458</v>
-      </c>
-      <c r="AS81">
-        <v>1220.66968123287</v>
-      </c>
-      <c r="AT81">
-        <v>3909.166663952172</v>
-      </c>
-      <c r="AU81">
-        <v>3909.166663952172</v>
-      </c>
-      <c r="AV81">
-        <v>3909.166663952172</v>
-      </c>
-      <c r="AW81">
-        <v>51.75319621562958</v>
-      </c>
-      <c r="AX81">
-        <v>509.3750439479947</v>
-      </c>
-      <c r="AY81">
-        <v>25.97905255854129</v>
-      </c>
-      <c r="AZ81">
-        <v>1172.28277120328</v>
-      </c>
-      <c r="BA81">
-        <v>1172.28277120328</v>
-      </c>
-      <c r="BB81">
-        <v>1172.28277120328</v>
-      </c>
-      <c r="BC81">
-        <v>1172.28277120328</v>
-      </c>
-      <c r="BD81">
-        <v>1172.28277120328</v>
-      </c>
-      <c r="BE81">
-        <v>25.97905255854129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:57">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH82">
-        <v>0.4406759691750631</v>
-      </c>
-      <c r="AI82">
-        <v>7.213819674542174</v>
-      </c>
-      <c r="AJ82">
-        <v>74.40975860358914</v>
-      </c>
-      <c r="AK82">
-        <v>7.213819674542174</v>
-      </c>
-      <c r="AL82">
-        <v>74.40975860358914</v>
-      </c>
-      <c r="AN82">
-        <v>5.620547629725189</v>
-      </c>
-      <c r="AO82">
-        <v>5.620547629725189</v>
-      </c>
-      <c r="AP82">
-        <v>11.42237053900957</v>
-      </c>
-      <c r="AQ82">
-        <v>6.340353480260819</v>
-      </c>
-      <c r="AR82">
-        <v>6.340353480260819</v>
-      </c>
-      <c r="AS82">
-        <v>47.1778669777466</v>
-      </c>
-      <c r="AT82">
-        <v>121.1692079006415</v>
-      </c>
-      <c r="AU82">
-        <v>121.1692079006415</v>
-      </c>
-      <c r="AV82">
-        <v>121.1692079006415</v>
-      </c>
-      <c r="AW82">
-        <v>9.171287022531033</v>
-      </c>
-      <c r="AX82">
-        <v>30.8258233175613</v>
-      </c>
-      <c r="AY82">
-        <v>2.15244241643697</v>
-      </c>
-      <c r="AZ82">
-        <v>94.26668654054404</v>
-      </c>
-      <c r="BA82">
-        <v>94.26668654054404</v>
-      </c>
-      <c r="BB82">
-        <v>94.26668654054404</v>
-      </c>
-      <c r="BC82">
-        <v>94.26668654054404</v>
-      </c>
-      <c r="BD82">
-        <v>94.26668654054404</v>
-      </c>
-      <c r="BE82">
-        <v>2.15244241643697</v>
-      </c>
-    </row>
-    <row r="83" spans="1:57">
-      <c r="A83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH83">
-        <v>10.65145417792723</v>
-      </c>
-      <c r="AI83">
-        <v>4.660319383302704</v>
-      </c>
-      <c r="AJ83">
-        <v>39.81580099688144</v>
-      </c>
-      <c r="AK83">
-        <v>4.660319383302704</v>
-      </c>
-      <c r="AL83">
-        <v>39.81580099688144</v>
-      </c>
-      <c r="AN83">
-        <v>2.638983073509298</v>
-      </c>
-      <c r="AO83">
-        <v>2.638983073509298</v>
-      </c>
-      <c r="AP83">
-        <v>2.937615607588086</v>
-      </c>
-      <c r="AQ83">
-        <v>1.239205213543028</v>
-      </c>
-      <c r="AR83">
-        <v>1.239205213543028</v>
-      </c>
-      <c r="AS83">
-        <v>64.8387075754907</v>
-      </c>
-      <c r="AT83">
-        <v>415.808921625279</v>
-      </c>
-      <c r="AU83">
-        <v>415.808921625279</v>
-      </c>
-      <c r="AV83">
-        <v>415.808921625279</v>
-      </c>
-      <c r="AW83">
-        <v>7.183363182842732</v>
-      </c>
-      <c r="AX83">
-        <v>100.2953584484756</v>
-      </c>
-      <c r="AY83">
-        <v>4.522884311899542</v>
-      </c>
-      <c r="AZ83">
-        <v>203.228815502882</v>
-      </c>
-      <c r="BA83">
-        <v>203.228815502882</v>
-      </c>
-      <c r="BB83">
-        <v>203.228815502882</v>
-      </c>
-      <c r="BC83">
-        <v>203.228815502882</v>
-      </c>
-      <c r="BD83">
-        <v>203.228815502882</v>
-      </c>
-      <c r="BE83">
-        <v>4.522884311899542</v>
-      </c>
-    </row>
-    <row r="84" spans="1:57">
-      <c r="A84" s="1" t="s">
-        <v>82</v>
+      <c r="AG84">
+        <v>0</v>
       </c>
       <c r="AH84">
-        <v>13.45798746185377</v>
+        <v>0</v>
       </c>
       <c r="AI84">
-        <v>14.08343166541308</v>
+        <v>0</v>
       </c>
       <c r="AJ84">
-        <v>243.6396059985738</v>
-      </c>
-      <c r="AK84">
-        <v>14.08343166541308</v>
-      </c>
-      <c r="AL84">
-        <v>243.6396059985738</v>
+        <v>0</v>
       </c>
       <c r="AN84">
-        <v>21.23328398842365</v>
-      </c>
-      <c r="AO84">
-        <v>21.23328398842365</v>
+        <v>0</v>
       </c>
       <c r="AP84">
-        <v>29.97947199227288</v>
+        <v>0</v>
       </c>
       <c r="AQ84">
-        <v>10.14648030120879</v>
+        <v>0</v>
       </c>
       <c r="AR84">
-        <v>10.14648030120879</v>
+        <v>0</v>
       </c>
       <c r="AS84">
-        <v>456.9800567036122</v>
-      </c>
-      <c r="AT84">
-        <v>2217.601935847849</v>
+        <v>0</v>
       </c>
       <c r="AU84">
-        <v>2217.601935847849</v>
+        <v>0</v>
       </c>
       <c r="AV84">
-        <v>2217.601935847849</v>
+        <v>0</v>
       </c>
       <c r="AW84">
-        <v>20.47749817073345</v>
+        <v>0</v>
       </c>
       <c r="AX84">
-        <v>158.8606877215207</v>
-      </c>
-      <c r="AY84">
-        <v>7.524771695435047</v>
-      </c>
-      <c r="AZ84">
-        <v>471.0361390480996</v>
-      </c>
-      <c r="BA84">
-        <v>471.0361390480996</v>
+        <v>0</v>
       </c>
       <c r="BB84">
-        <v>471.0361390480996</v>
-      </c>
-      <c r="BC84">
-        <v>471.0361390480996</v>
+        <v>0</v>
       </c>
       <c r="BD84">
-        <v>471.0361390480996</v>
+        <v>0</v>
       </c>
       <c r="BE84">
-        <v>7.524771695435047</v>
-      </c>
-    </row>
-    <row r="85" spans="1:57">
-      <c r="A85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH85">
-        <v>3.037352387174033</v>
-      </c>
-      <c r="AI85">
-        <v>2.217408262763638</v>
-      </c>
-      <c r="AJ85">
-        <v>52.46461887568468</v>
-      </c>
-      <c r="AK85">
-        <v>2.217408262763638</v>
-      </c>
-      <c r="AL85">
-        <v>52.46461887568468</v>
-      </c>
-      <c r="AN85">
-        <v>2.566478029908613</v>
-      </c>
-      <c r="AO85">
-        <v>2.566478029908613</v>
-      </c>
-      <c r="AP85">
-        <v>6.34865314183291</v>
-      </c>
-      <c r="AQ85">
-        <v>3.550646647298708</v>
-      </c>
-      <c r="AR85">
-        <v>3.550646647298708</v>
-      </c>
-      <c r="AS85">
-        <v>35.47821828959975</v>
-      </c>
-      <c r="AT85">
-        <v>304.7823744788766</v>
-      </c>
-      <c r="AU85">
-        <v>304.7823744788766</v>
-      </c>
-      <c r="AV85">
-        <v>304.7823744788766</v>
-      </c>
-      <c r="AW85">
-        <v>5.122214941680432</v>
-      </c>
-      <c r="AX85">
-        <v>35.88583554206416</v>
-      </c>
-      <c r="AY85">
-        <v>2.002981155142188</v>
-      </c>
-      <c r="AZ85">
-        <v>80.71584402132035</v>
-      </c>
-      <c r="BA85">
-        <v>80.71584402132035</v>
-      </c>
-      <c r="BB85">
-        <v>80.71584402132035</v>
-      </c>
-      <c r="BC85">
-        <v>80.71584402132035</v>
-      </c>
-      <c r="BD85">
-        <v>80.71584402132035</v>
-      </c>
-      <c r="BE85">
-        <v>2.002981155142188</v>
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="CB84">
+        <v>0</v>
+      </c>
+      <c r="CC84">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/output.xlsx
+++ b/excel_files/output.xlsx
@@ -5139,8 +5139,11 @@
       <c r="BE64">
         <v>0.6143333348818123</v>
       </c>
-    </row>
-    <row r="65" spans="1:57">
+      <c r="BF64">
+        <v>1314.246116743768</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58">
       <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
@@ -5213,8 +5216,11 @@
       <c r="BE65">
         <v>2.83422336127609</v>
       </c>
-    </row>
-    <row r="66" spans="1:57">
+      <c r="BF65">
+        <v>6990.049284296037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
@@ -5287,8 +5293,11 @@
       <c r="BE66">
         <v>0.6809700198937206</v>
       </c>
-    </row>
-    <row r="67" spans="1:57">
+      <c r="BF66">
+        <v>1340.191604392026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
@@ -5361,8 +5370,11 @@
       <c r="BE67">
         <v>6.298046703189611</v>
       </c>
-    </row>
-    <row r="68" spans="1:57">
+      <c r="BF67">
+        <v>13331.23923523152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
@@ -5435,8 +5447,11 @@
       <c r="BE68">
         <v>7.304603953659534</v>
       </c>
-    </row>
-    <row r="69" spans="1:57">
+      <c r="BF68">
+        <v>25705.07287315651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58">
       <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
@@ -5509,8 +5524,11 @@
       <c r="BE69">
         <v>0.2742241334868595</v>
       </c>
-    </row>
-    <row r="70" spans="1:57">
+      <c r="BF69">
+        <v>1949.597887802064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
@@ -5583,8 +5601,11 @@
       <c r="BE70">
         <v>4.972760506421327</v>
       </c>
-    </row>
-    <row r="71" spans="1:57">
+      <c r="BF70">
+        <v>6164.985557787995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,8 +5678,11 @@
       <c r="BE71">
         <v>4.723041579052805</v>
       </c>
-    </row>
-    <row r="72" spans="1:57">
+      <c r="BF71">
+        <v>16151.1897315123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
@@ -5731,8 +5755,11 @@
       <c r="BE72">
         <v>0.2696506427740678</v>
       </c>
-    </row>
-    <row r="73" spans="1:57">
+      <c r="BF72">
+        <v>1470.757508594189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -5805,8 +5832,11 @@
       <c r="BE73">
         <v>2.568719942420721</v>
       </c>
-    </row>
-    <row r="74" spans="1:57">
+      <c r="BF73">
+        <v>2080.611127017555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
@@ -5879,8 +5909,11 @@
       <c r="BE74">
         <v>10.54452222824097</v>
       </c>
-    </row>
-    <row r="75" spans="1:57">
+      <c r="BF74">
+        <v>5397.408730016446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
@@ -5953,8 +5986,11 @@
       <c r="BE75">
         <v>0.3704864161368459</v>
       </c>
-    </row>
-    <row r="76" spans="1:57">
+      <c r="BF75">
+        <v>779.0691758155526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -6027,8 +6063,11 @@
       <c r="BE76">
         <v>11.62228437572718</v>
       </c>
-    </row>
-    <row r="77" spans="1:57">
+      <c r="BF76">
+        <v>11718.02515430384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -6101,8 +6140,11 @@
       <c r="BE77">
         <v>25.97905255854129</v>
       </c>
-    </row>
-    <row r="78" spans="1:57">
+      <c r="BF77">
+        <v>21149.79115015452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -6175,8 +6217,11 @@
       <c r="BE78">
         <v>2.15244241643697</v>
       </c>
-    </row>
-    <row r="79" spans="1:57">
+      <c r="BF78">
+        <v>1125.352923839777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58">
       <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
@@ -6249,8 +6294,11 @@
       <c r="BE79">
         <v>4.522884311899542</v>
       </c>
-    </row>
-    <row r="80" spans="1:57">
+      <c r="BF79">
+        <v>2555.231727340843</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58">
       <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
@@ -6322,6 +6370,9 @@
       </c>
       <c r="BE80">
         <v>7.524771695435047</v>
+      </c>
+      <c r="BF80">
+        <v>10280.99735213215</v>
       </c>
     </row>
     <row r="81" spans="1:81">
@@ -6396,6 +6447,9 @@
       </c>
       <c r="BE81">
         <v>2.002981155142188</v>
+      </c>
+      <c r="BF81">
+        <v>1529.402883787179</v>
       </c>
     </row>
     <row r="82" spans="1:81">

--- a/excel_files/output.xlsx
+++ b/excel_files/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>C-AAGR</t>
   </si>
@@ -620,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE84"/>
+  <dimension ref="A1:CF84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:84">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,8 +873,11 @@
       <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:83">
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +969,7 @@
         <v>932.17</v>
       </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:84">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>178.78</v>
       </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:84">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>74302.3</v>
       </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:84">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>3864.9</v>
       </c>
     </row>
-    <row r="6" spans="1:83">
+    <row r="6" spans="1:84">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>22.91</v>
       </c>
     </row>
-    <row r="7" spans="1:83">
+    <row r="7" spans="1:84">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>779.75</v>
       </c>
     </row>
-    <row r="8" spans="1:83">
+    <row r="8" spans="1:84">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>863.5599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:83">
+    <row r="9" spans="1:84">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>12232.23</v>
       </c>
     </row>
-    <row r="10" spans="1:83">
+    <row r="10" spans="1:84">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="11" spans="1:83">
+    <row r="11" spans="1:84">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>15632.6</v>
       </c>
     </row>
-    <row r="12" spans="1:83">
+    <row r="12" spans="1:84">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>860.4400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:83">
+    <row r="13" spans="1:84">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>13353.97</v>
       </c>
     </row>
-    <row r="14" spans="1:83">
+    <row r="14" spans="1:84">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>84802.46000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:83">
+    <row r="15" spans="1:84">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>2668.03</v>
       </c>
     </row>
-    <row r="16" spans="1:83">
+    <row r="16" spans="1:84">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="49" spans="1:83">
+    <row r="49" spans="1:84">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -4567,7 +4570,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="50" spans="1:83">
+    <row r="50" spans="1:84">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>18.06</v>
       </c>
     </row>
-    <row r="51" spans="1:83">
+    <row r="51" spans="1:84">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="52" spans="1:83">
+    <row r="52" spans="1:84">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="53" spans="1:83">
+    <row r="53" spans="1:84">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -4713,7 +4716,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="54" spans="1:83">
+    <row r="54" spans="1:84">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>3418.74</v>
       </c>
     </row>
-    <row r="55" spans="1:83">
+    <row r="55" spans="1:84">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>36500.62</v>
       </c>
     </row>
-    <row r="56" spans="1:83">
+    <row r="56" spans="1:84">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>3985.92</v>
       </c>
     </row>
-    <row r="57" spans="1:83">
+    <row r="57" spans="1:84">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -4829,15 +4832,69 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:83">
+    <row r="58" spans="1:84">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BK58">
+        <v>6990.049284296037</v>
+      </c>
+      <c r="BL58">
+        <v>1340.191604392026</v>
+      </c>
+      <c r="BM58">
+        <v>13331.23923523152</v>
+      </c>
+      <c r="BN58">
+        <v>25705.07287315651</v>
+      </c>
+      <c r="BO58">
+        <v>1949.597887802064</v>
+      </c>
+      <c r="BP58">
+        <v>6164.985557787995</v>
+      </c>
+      <c r="BQ58">
+        <v>16151.1897315123</v>
+      </c>
+      <c r="BR58">
+        <v>1470.757508594189</v>
+      </c>
+      <c r="BS58">
+        <v>2080.611127017555</v>
+      </c>
+      <c r="BT58">
+        <v>5397.408730016446</v>
+      </c>
+      <c r="BU58">
+        <v>779.0691758155526</v>
+      </c>
+      <c r="BV58">
+        <v>11718.02515430384</v>
+      </c>
+      <c r="BW58">
+        <v>21149.79115015452</v>
+      </c>
+      <c r="BX58">
+        <v>1125.352923839777</v>
+      </c>
+      <c r="BY58">
+        <v>2555.231727340843</v>
+      </c>
+      <c r="BZ58">
+        <v>10280.99735213215</v>
+      </c>
+      <c r="CA58">
+        <v>1529.402883787179</v>
+      </c>
       <c r="CC58">
         <v>112199.01</v>
       </c>
-    </row>
-    <row r="59" spans="1:83">
+      <c r="CF58">
+        <v>1314.246116743768</v>
+      </c>
+    </row>
+    <row r="59" spans="1:84">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -4851,7 +4908,7 @@
         <v>9930.33</v>
       </c>
     </row>
-    <row r="60" spans="1:83">
+    <row r="60" spans="1:84">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -4859,7 +4916,7 @@
         <v>60156.74</v>
       </c>
     </row>
-    <row r="61" spans="1:83">
+    <row r="61" spans="1:84">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -4867,7 +4924,7 @@
         <v>3839.16</v>
       </c>
     </row>
-    <row r="62" spans="1:83">
+    <row r="62" spans="1:84">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -4965,7 +5022,7 @@
         <v>51297.1</v>
       </c>
     </row>
-    <row r="63" spans="1:83">
+    <row r="63" spans="1:84">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
@@ -5066,7 +5123,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="64" spans="1:83">
+    <row r="64" spans="1:84">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -5139,11 +5196,8 @@
       <c r="BE64">
         <v>0.6143333348818123</v>
       </c>
-      <c r="BF64">
-        <v>1314.246116743768</v>
-      </c>
-    </row>
-    <row r="65" spans="1:58">
+    </row>
+    <row r="65" spans="1:57">
       <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
@@ -5216,11 +5270,8 @@
       <c r="BE65">
         <v>2.83422336127609</v>
       </c>
-      <c r="BF65">
-        <v>6990.049284296037</v>
-      </c>
-    </row>
-    <row r="66" spans="1:58">
+    </row>
+    <row r="66" spans="1:57">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
@@ -5293,11 +5344,8 @@
       <c r="BE66">
         <v>0.6809700198937206</v>
       </c>
-      <c r="BF66">
-        <v>1340.191604392026</v>
-      </c>
-    </row>
-    <row r="67" spans="1:58">
+    </row>
+    <row r="67" spans="1:57">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
@@ -5370,11 +5418,8 @@
       <c r="BE67">
         <v>6.298046703189611</v>
       </c>
-      <c r="BF67">
-        <v>13331.23923523152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:58">
+    </row>
+    <row r="68" spans="1:57">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
@@ -5447,11 +5492,8 @@
       <c r="BE68">
         <v>7.304603953659534</v>
       </c>
-      <c r="BF68">
-        <v>25705.07287315651</v>
-      </c>
-    </row>
-    <row r="69" spans="1:58">
+    </row>
+    <row r="69" spans="1:57">
       <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
@@ -5524,11 +5566,8 @@
       <c r="BE69">
         <v>0.2742241334868595</v>
       </c>
-      <c r="BF69">
-        <v>1949.597887802064</v>
-      </c>
-    </row>
-    <row r="70" spans="1:58">
+    </row>
+    <row r="70" spans="1:57">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
@@ -5601,11 +5640,8 @@
       <c r="BE70">
         <v>4.972760506421327</v>
       </c>
-      <c r="BF70">
-        <v>6164.985557787995</v>
-      </c>
-    </row>
-    <row r="71" spans="1:58">
+    </row>
+    <row r="71" spans="1:57">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -5678,11 +5714,8 @@
       <c r="BE71">
         <v>4.723041579052805</v>
       </c>
-      <c r="BF71">
-        <v>16151.1897315123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:58">
+    </row>
+    <row r="72" spans="1:57">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
@@ -5755,11 +5788,8 @@
       <c r="BE72">
         <v>0.2696506427740678</v>
       </c>
-      <c r="BF72">
-        <v>1470.757508594189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:58">
+    </row>
+    <row r="73" spans="1:57">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -5832,11 +5862,8 @@
       <c r="BE73">
         <v>2.568719942420721</v>
       </c>
-      <c r="BF73">
-        <v>2080.611127017555</v>
-      </c>
-    </row>
-    <row r="74" spans="1:58">
+    </row>
+    <row r="74" spans="1:57">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
@@ -5909,11 +5936,8 @@
       <c r="BE74">
         <v>10.54452222824097</v>
       </c>
-      <c r="BF74">
-        <v>5397.408730016446</v>
-      </c>
-    </row>
-    <row r="75" spans="1:58">
+    </row>
+    <row r="75" spans="1:57">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
@@ -5986,11 +6010,8 @@
       <c r="BE75">
         <v>0.3704864161368459</v>
       </c>
-      <c r="BF75">
-        <v>779.0691758155526</v>
-      </c>
-    </row>
-    <row r="76" spans="1:58">
+    </row>
+    <row r="76" spans="1:57">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -6063,11 +6084,8 @@
       <c r="BE76">
         <v>11.62228437572718</v>
       </c>
-      <c r="BF76">
-        <v>11718.02515430384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:58">
+    </row>
+    <row r="77" spans="1:57">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -6140,11 +6158,8 @@
       <c r="BE77">
         <v>25.97905255854129</v>
       </c>
-      <c r="BF77">
-        <v>21149.79115015452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:58">
+    </row>
+    <row r="78" spans="1:57">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -6217,11 +6232,8 @@
       <c r="BE78">
         <v>2.15244241643697</v>
       </c>
-      <c r="BF78">
-        <v>1125.352923839777</v>
-      </c>
-    </row>
-    <row r="79" spans="1:58">
+    </row>
+    <row r="79" spans="1:57">
       <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
@@ -6294,11 +6306,8 @@
       <c r="BE79">
         <v>4.522884311899542</v>
       </c>
-      <c r="BF79">
-        <v>2555.231727340843</v>
-      </c>
-    </row>
-    <row r="80" spans="1:58">
+    </row>
+    <row r="80" spans="1:57">
       <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
@@ -6370,9 +6379,6 @@
       </c>
       <c r="BE80">
         <v>7.524771695435047</v>
-      </c>
-      <c r="BF80">
-        <v>10280.99735213215</v>
       </c>
     </row>
     <row r="81" spans="1:81">
@@ -6447,9 +6453,6 @@
       </c>
       <c r="BE81">
         <v>2.002981155142188</v>
-      </c>
-      <c r="BF81">
-        <v>1529.402883787179</v>
       </c>
     </row>
     <row r="82" spans="1:81">

--- a/excel_files/output.xlsx
+++ b/excel_files/output.xlsx
@@ -4837,61 +4837,61 @@
         <v>56</v>
       </c>
       <c r="BK58">
-        <v>6990.049284296037</v>
+        <v>7078.174746093063</v>
       </c>
       <c r="BL58">
-        <v>1340.191604392026</v>
+        <v>1444.393869164158</v>
       </c>
       <c r="BM58">
-        <v>13331.23923523152</v>
+        <v>12838.60618591949</v>
       </c>
       <c r="BN58">
-        <v>25705.07287315651</v>
+        <v>25756.04642876922</v>
       </c>
       <c r="BO58">
-        <v>1949.597887802064</v>
+        <v>1995.628295730427</v>
       </c>
       <c r="BP58">
-        <v>6164.985557787995</v>
+        <v>5869.649075423349</v>
       </c>
       <c r="BQ58">
-        <v>16151.1897315123</v>
+        <v>15978.87289030425</v>
       </c>
       <c r="BR58">
-        <v>1470.757508594189</v>
+        <v>1723.667646666086</v>
       </c>
       <c r="BS58">
-        <v>2080.611127017555</v>
+        <v>1949.314980610249</v>
       </c>
       <c r="BT58">
-        <v>5397.408730016446</v>
+        <v>5630.730755461873</v>
       </c>
       <c r="BU58">
-        <v>779.0691758155526</v>
+        <v>764.6444049755133</v>
       </c>
       <c r="BV58">
-        <v>11718.02515430384</v>
+        <v>10806.28559654408</v>
       </c>
       <c r="BW58">
-        <v>21149.79115015452</v>
+        <v>22094.55055163287</v>
       </c>
       <c r="BX58">
-        <v>1125.352923839777</v>
+        <v>1261.475488687794</v>
       </c>
       <c r="BY58">
-        <v>2555.231727340843</v>
+        <v>2425.322495755267</v>
       </c>
       <c r="BZ58">
-        <v>10280.99735213215</v>
+        <v>10659.60169516933</v>
       </c>
       <c r="CA58">
-        <v>1529.402883787179</v>
+        <v>1524.323987165695</v>
       </c>
       <c r="CC58">
         <v>112199.01</v>
       </c>
       <c r="CF58">
-        <v>1314.246116743768</v>
+        <v>1231.931639694078</v>
       </c>
     </row>
     <row r="59" spans="1:84">
@@ -5128,73 +5128,73 @@
         <v>82</v>
       </c>
       <c r="AH64">
-        <v>9.414114025598392</v>
+        <v>10.32749597553164</v>
       </c>
       <c r="AI64">
-        <v>4.98343871824909</v>
+        <v>4.572988519864158</v>
       </c>
       <c r="AJ64">
-        <v>200.4209536320157</v>
+        <v>181.3535974402819</v>
       </c>
       <c r="AK64">
-        <v>4.98343871824909</v>
+        <v>4.572988519864158</v>
       </c>
       <c r="AL64">
-        <v>200.4209536320157</v>
+        <v>181.3535974402819</v>
       </c>
       <c r="AN64">
-        <v>3.583830243987031</v>
+        <v>3.242894353428856</v>
       </c>
       <c r="AO64">
-        <v>3.583830243987031</v>
+        <v>3.242894353428856</v>
       </c>
       <c r="AP64">
-        <v>11.83001546522602</v>
+        <v>10.59236898211762</v>
       </c>
       <c r="AQ64">
-        <v>0.882314035994932</v>
+        <v>0.8428759983042254</v>
       </c>
       <c r="AR64">
-        <v>0.882314035994932</v>
+        <v>0.8428759983042254</v>
       </c>
       <c r="AS64">
-        <v>73.19743904368953</v>
+        <v>67.1392593125347</v>
       </c>
       <c r="AT64">
-        <v>192.0036300258339</v>
+        <v>187.1088795390912</v>
       </c>
       <c r="AU64">
-        <v>192.0036300258339</v>
+        <v>187.1088795390912</v>
       </c>
       <c r="AV64">
-        <v>192.0036300258339</v>
+        <v>187.1088795390912</v>
       </c>
       <c r="AW64">
-        <v>8.166333993524313</v>
+        <v>7.32389857172966</v>
       </c>
       <c r="AX64">
-        <v>22.61657591545954</v>
+        <v>21.63126105456613</v>
       </c>
       <c r="AY64">
-        <v>0.6143333348818123</v>
+        <v>0.576311818435788</v>
       </c>
       <c r="AZ64">
-        <v>38.40820165850223</v>
+        <v>34.48267618393898</v>
       </c>
       <c r="BA64">
-        <v>38.40820165850223</v>
+        <v>34.48267618393898</v>
       </c>
       <c r="BB64">
-        <v>38.40820165850223</v>
+        <v>34.48267618393898</v>
       </c>
       <c r="BC64">
-        <v>38.40820165850223</v>
+        <v>34.48267618393898</v>
       </c>
       <c r="BD64">
-        <v>38.40820165850223</v>
+        <v>34.48267618393898</v>
       </c>
       <c r="BE64">
-        <v>0.6143333348818123</v>
+        <v>0.576311818435788</v>
       </c>
     </row>
     <row r="65" spans="1:57">
@@ -5202,73 +5202,73 @@
         <v>61</v>
       </c>
       <c r="AH65">
-        <v>59.33229717329145</v>
+        <v>55.62435575969518</v>
       </c>
       <c r="AI65">
-        <v>52.88727739527822</v>
+        <v>51.37581306248904</v>
       </c>
       <c r="AJ65">
-        <v>2386.627410095036</v>
+        <v>2374.258369275034</v>
       </c>
       <c r="AK65">
-        <v>52.88727739527822</v>
+        <v>51.37581306248904</v>
       </c>
       <c r="AL65">
-        <v>2386.627410095036</v>
+        <v>2374.258369275034</v>
       </c>
       <c r="AN65">
-        <v>16.82216917671263</v>
+        <v>17.37251496220007</v>
       </c>
       <c r="AO65">
-        <v>16.82216917671263</v>
+        <v>17.37251496220007</v>
       </c>
       <c r="AP65">
-        <v>75.89979358144105</v>
+        <v>76.32228273190559</v>
       </c>
       <c r="AQ65">
-        <v>9.907512448914348</v>
+        <v>10.02416591662914</v>
       </c>
       <c r="AR65">
-        <v>9.907512448914348</v>
+        <v>10.02416591662914</v>
       </c>
       <c r="AS65">
-        <v>168.617042367179</v>
+        <v>189.7119347106106</v>
       </c>
       <c r="AT65">
-        <v>337.3299611688592</v>
+        <v>383.2473745921999</v>
       </c>
       <c r="AU65">
-        <v>337.3299611688592</v>
+        <v>383.2473745921999</v>
       </c>
       <c r="AV65">
-        <v>337.3299611688592</v>
+        <v>383.2473745921999</v>
       </c>
       <c r="AW65">
-        <v>15.90577829927206</v>
+        <v>16.16081960052252</v>
       </c>
       <c r="AX65">
-        <v>164.5034938763827</v>
+        <v>159.3026870578528</v>
       </c>
       <c r="AY65">
-        <v>2.83422336127609</v>
+        <v>2.813445122912526</v>
       </c>
       <c r="AZ65">
-        <v>111.1287621074915</v>
+        <v>103.9243851554692</v>
       </c>
       <c r="BA65">
-        <v>111.1287621074915</v>
+        <v>103.9243851554692</v>
       </c>
       <c r="BB65">
-        <v>111.1287621074915</v>
+        <v>103.9243851554692</v>
       </c>
       <c r="BC65">
-        <v>111.1287621074915</v>
+        <v>103.9243851554692</v>
       </c>
       <c r="BD65">
-        <v>111.1287621074915</v>
+        <v>103.9243851554692</v>
       </c>
       <c r="BE65">
-        <v>2.83422336127609</v>
+        <v>2.813445122912526</v>
       </c>
     </row>
     <row r="66" spans="1:57">
@@ -5276,73 +5276,73 @@
         <v>62</v>
       </c>
       <c r="AH66">
-        <v>7.205654163155705</v>
+        <v>7.047710597058758</v>
       </c>
       <c r="AI66">
-        <v>4.216897656582296</v>
+        <v>3.990203469153494</v>
       </c>
       <c r="AJ66">
-        <v>424.28795445811</v>
+        <v>458.6134734524042</v>
       </c>
       <c r="AK66">
-        <v>4.216897656582296</v>
+        <v>3.990203469153494</v>
       </c>
       <c r="AL66">
-        <v>424.28795445811</v>
+        <v>458.6134734524042</v>
       </c>
       <c r="AN66">
-        <v>3.524966271901503</v>
+        <v>3.954541075909511</v>
       </c>
       <c r="AO66">
-        <v>3.524966271901503</v>
+        <v>3.954541075909511</v>
       </c>
       <c r="AP66">
-        <v>14.83037091043778</v>
+        <v>15.17512013768777</v>
       </c>
       <c r="AQ66">
-        <v>2.587943928549066</v>
+        <v>2.719587604282424</v>
       </c>
       <c r="AR66">
-        <v>2.587943928549066</v>
+        <v>2.719587604282424</v>
       </c>
       <c r="AS66">
-        <v>15.87995030975901</v>
+        <v>15.26135000328533</v>
       </c>
       <c r="AT66">
-        <v>95.40936142164284</v>
+        <v>104.1169870545808</v>
       </c>
       <c r="AU66">
-        <v>95.40936142164284</v>
+        <v>104.1169870545808</v>
       </c>
       <c r="AV66">
-        <v>95.40936142164284</v>
+        <v>104.1169870545808</v>
       </c>
       <c r="AW66">
-        <v>4.508362703770399</v>
+        <v>4.574907561019063</v>
       </c>
       <c r="AX66">
-        <v>20.73699029148556</v>
+        <v>22.23482795781456</v>
       </c>
       <c r="AY66">
-        <v>0.6809700198937206</v>
+        <v>0.7343764872662722</v>
       </c>
       <c r="AZ66">
-        <v>24.04094541568309</v>
+        <v>25.54492551310361</v>
       </c>
       <c r="BA66">
-        <v>24.04094541568309</v>
+        <v>25.54492551310361</v>
       </c>
       <c r="BB66">
-        <v>24.04094541568309</v>
+        <v>25.54492551310361</v>
       </c>
       <c r="BC66">
-        <v>24.04094541568309</v>
+        <v>25.54492551310361</v>
       </c>
       <c r="BD66">
-        <v>24.04094541568309</v>
+        <v>25.54492551310361</v>
       </c>
       <c r="BE66">
-        <v>0.6809700198937206</v>
+        <v>0.7343764872662722</v>
       </c>
     </row>
     <row r="67" spans="1:57">
@@ -5350,73 +5350,73 @@
         <v>63</v>
       </c>
       <c r="AH67">
-        <v>85.96996595606208</v>
+        <v>88.13898866191506</v>
       </c>
       <c r="AI67">
-        <v>45.81034803465009</v>
+        <v>46.80938113369048</v>
       </c>
       <c r="AJ67">
-        <v>1067.650717165209</v>
+        <v>1055.319351939931</v>
       </c>
       <c r="AK67">
-        <v>45.81034803465009</v>
+        <v>46.80938113369048</v>
       </c>
       <c r="AL67">
-        <v>1067.650717165209</v>
+        <v>1055.319351939931</v>
       </c>
       <c r="AN67">
-        <v>21.2452943026647</v>
+        <v>20.47571496848017</v>
       </c>
       <c r="AO67">
-        <v>21.2452943026647</v>
+        <v>20.47571496848017</v>
       </c>
       <c r="AP67">
-        <v>67.45605026192963</v>
+        <v>64.813621731475</v>
       </c>
       <c r="AQ67">
-        <v>3.648380930209532</v>
+        <v>3.584853507205844</v>
       </c>
       <c r="AR67">
-        <v>3.648380930209532</v>
+        <v>3.584853507205844</v>
       </c>
       <c r="AS67">
-        <v>1017.25321948424</v>
+        <v>983.8413402225077</v>
       </c>
       <c r="AT67">
-        <v>2296.914724432677</v>
+        <v>2134.991636324525</v>
       </c>
       <c r="AU67">
-        <v>2296.914724432677</v>
+        <v>2134.991636324525</v>
       </c>
       <c r="AV67">
-        <v>2296.914724432677</v>
+        <v>2134.991636324525</v>
       </c>
       <c r="AW67">
-        <v>57.67828812599182</v>
+        <v>56.55622662901879</v>
       </c>
       <c r="AX67">
-        <v>253.528219165653</v>
+        <v>256.5261487729848</v>
       </c>
       <c r="AY67">
-        <v>6.298046703189611</v>
+        <v>6.381567758470773</v>
       </c>
       <c r="AZ67">
-        <v>533.8607489335537</v>
+        <v>543.7226424624921</v>
       </c>
       <c r="BA67">
-        <v>533.8607489335537</v>
+        <v>543.7226424624921</v>
       </c>
       <c r="BB67">
-        <v>533.8607489335537</v>
+        <v>543.7226424624921</v>
       </c>
       <c r="BC67">
-        <v>533.8607489335537</v>
+        <v>543.7226424624921</v>
       </c>
       <c r="BD67">
-        <v>533.8607489335537</v>
+        <v>543.7226424624921</v>
       </c>
       <c r="BE67">
-        <v>6.298046703189611</v>
+        <v>6.381567758470773</v>
       </c>
     </row>
     <row r="68" spans="1:57">
@@ -5424,73 +5424,73 @@
         <v>64</v>
       </c>
       <c r="AH68">
-        <v>210.7794315168262</v>
+        <v>219.239612736702</v>
       </c>
       <c r="AI68">
-        <v>300.8081789076329</v>
+        <v>307.289012221992</v>
       </c>
       <c r="AJ68">
-        <v>4553.744405761063</v>
+        <v>4580.026900641024</v>
       </c>
       <c r="AK68">
-        <v>300.8081789076329</v>
+        <v>307.289012221992</v>
       </c>
       <c r="AL68">
-        <v>4553.744405761063</v>
+        <v>4580.026900641024</v>
       </c>
       <c r="AN68">
-        <v>71.71276636935771</v>
+        <v>71.96046021983028</v>
       </c>
       <c r="AO68">
-        <v>71.71276636935771</v>
+        <v>71.96046021983028</v>
       </c>
       <c r="AP68">
-        <v>425.0448387694359</v>
+        <v>427.6999570736289</v>
       </c>
       <c r="AQ68">
-        <v>24.91756613589823</v>
+        <v>24.70265532545745</v>
       </c>
       <c r="AR68">
-        <v>24.91756613589823</v>
+        <v>24.70265532545745</v>
       </c>
       <c r="AS68">
-        <v>1199.389830690175</v>
+        <v>1274.942523638755</v>
       </c>
       <c r="AT68">
-        <v>3500.822733426095</v>
+        <v>3465.241693329811</v>
       </c>
       <c r="AU68">
-        <v>3500.822733426095</v>
+        <v>3465.241693329811</v>
       </c>
       <c r="AV68">
-        <v>3500.822733426095</v>
+        <v>3465.241693329811</v>
       </c>
       <c r="AW68">
-        <v>55.08900470733643</v>
+        <v>55.81736481785774</v>
       </c>
       <c r="AX68">
-        <v>787.1122351065278</v>
+        <v>815.0322411715983</v>
       </c>
       <c r="AY68">
-        <v>7.304603953659534</v>
+        <v>7.278745202422141</v>
       </c>
       <c r="AZ68">
-        <v>521.6428579665424</v>
+        <v>517.0148204239607</v>
       </c>
       <c r="BA68">
-        <v>521.6428579665424</v>
+        <v>517.0148204239607</v>
       </c>
       <c r="BB68">
-        <v>521.6428579665424</v>
+        <v>517.0148204239607</v>
       </c>
       <c r="BC68">
-        <v>521.6428579665424</v>
+        <v>517.0148204239607</v>
       </c>
       <c r="BD68">
-        <v>521.6428579665424</v>
+        <v>517.0148204239607</v>
       </c>
       <c r="BE68">
-        <v>7.304603953659534</v>
+        <v>7.278745202422141</v>
       </c>
     </row>
     <row r="69" spans="1:57">
@@ -5498,73 +5498,73 @@
         <v>65</v>
       </c>
       <c r="AH69">
-        <v>17.85041145477444</v>
+        <v>18.53883464202285</v>
       </c>
       <c r="AI69">
-        <v>28.15027438197285</v>
+        <v>29.33736850079149</v>
       </c>
       <c r="AJ69">
-        <v>377.6822184351739</v>
+        <v>418.786363815777</v>
       </c>
       <c r="AK69">
-        <v>28.15027438197285</v>
+        <v>29.33736850079149</v>
       </c>
       <c r="AL69">
-        <v>377.6822184351739</v>
+        <v>418.786363815777</v>
       </c>
       <c r="AN69">
-        <v>4.714462637193501</v>
+        <v>4.858426191443577</v>
       </c>
       <c r="AO69">
-        <v>4.714462637193501</v>
+        <v>4.858426191443577</v>
       </c>
       <c r="AP69">
-        <v>49.16584968741984</v>
+        <v>50.61843925260008</v>
       </c>
       <c r="AQ69">
-        <v>2.893772782757878</v>
+        <v>2.979895184142515</v>
       </c>
       <c r="AR69">
-        <v>2.893772782757878</v>
+        <v>2.979895184142515</v>
       </c>
       <c r="AS69">
-        <v>33.3963167022774</v>
+        <v>36.33592108886689</v>
       </c>
       <c r="AT69">
-        <v>255.6969061620534</v>
+        <v>240.4236348219589</v>
       </c>
       <c r="AU69">
-        <v>255.6969061620534</v>
+        <v>240.4236348219589</v>
       </c>
       <c r="AV69">
-        <v>255.6969061620534</v>
+        <v>240.4236348219589</v>
       </c>
       <c r="AW69">
-        <v>5.374387093633413</v>
+        <v>5.169273956120015</v>
       </c>
       <c r="AX69">
-        <v>25.69650055831298</v>
+        <v>27.46067404816858</v>
       </c>
       <c r="AY69">
-        <v>0.2742241334868595</v>
+        <v>0.2682642942527309</v>
       </c>
       <c r="AZ69">
-        <v>44.71875981566311</v>
+        <v>44.75472246079148</v>
       </c>
       <c r="BA69">
-        <v>44.71875981566311</v>
+        <v>44.75472246079148</v>
       </c>
       <c r="BB69">
-        <v>44.71875981566311</v>
+        <v>44.75472246079148</v>
       </c>
       <c r="BC69">
-        <v>44.71875981566311</v>
+        <v>44.75472246079148</v>
       </c>
       <c r="BD69">
-        <v>44.71875981566311</v>
+        <v>44.75472246079148</v>
       </c>
       <c r="BE69">
-        <v>0.2742241334868595</v>
+        <v>0.2682642942527309</v>
       </c>
     </row>
     <row r="70" spans="1:57">
@@ -5572,73 +5572,73 @@
         <v>66</v>
       </c>
       <c r="AH70">
-        <v>22.72248552095145</v>
+        <v>19.97223727237433</v>
       </c>
       <c r="AI70">
-        <v>26.40249624270946</v>
+        <v>25.96263036634773</v>
       </c>
       <c r="AJ70">
-        <v>551.2811292873323</v>
+        <v>526.1549890216626</v>
       </c>
       <c r="AK70">
-        <v>26.40249624270946</v>
+        <v>25.96263036634773</v>
       </c>
       <c r="AL70">
-        <v>551.2811292873323</v>
+        <v>526.1549890216626</v>
       </c>
       <c r="AN70">
-        <v>4.544429623456672</v>
+        <v>4.432074601035565</v>
       </c>
       <c r="AO70">
-        <v>4.544429623456672</v>
+        <v>4.432074601035565</v>
       </c>
       <c r="AP70">
-        <v>15.6135156785883</v>
+        <v>14.37950947392732</v>
       </c>
       <c r="AQ70">
-        <v>1.124677603738382</v>
+        <v>1.066733890632168</v>
       </c>
       <c r="AR70">
-        <v>1.124677603738382</v>
+        <v>1.066733890632168</v>
       </c>
       <c r="AS70">
-        <v>224.3877803584561</v>
+        <v>208.6571391646564</v>
       </c>
       <c r="AT70">
-        <v>1211.574020833299</v>
+        <v>1132.170541267768</v>
       </c>
       <c r="AU70">
-        <v>1211.574020833299</v>
+        <v>1132.170541267768</v>
       </c>
       <c r="AV70">
-        <v>1211.574020833299</v>
+        <v>1132.170541267768</v>
       </c>
       <c r="AW70">
-        <v>13.75366018712521</v>
+        <v>13.81265972405672</v>
       </c>
       <c r="AX70">
-        <v>151.1198314923793</v>
+        <v>150.4025145620108</v>
       </c>
       <c r="AY70">
-        <v>4.972760506421327</v>
+        <v>5.01814355880022</v>
       </c>
       <c r="AZ70">
-        <v>185.2030471046567</v>
+        <v>188.1288497092128</v>
       </c>
       <c r="BA70">
-        <v>185.2030471046567</v>
+        <v>188.1288497092128</v>
       </c>
       <c r="BB70">
-        <v>185.2030471046567</v>
+        <v>188.1288497092128</v>
       </c>
       <c r="BC70">
-        <v>185.2030471046567</v>
+        <v>188.1288497092128</v>
       </c>
       <c r="BD70">
-        <v>185.2030471046567</v>
+        <v>188.1288497092128</v>
       </c>
       <c r="BE70">
-        <v>4.972760506421327</v>
+        <v>5.01814355880022</v>
       </c>
     </row>
     <row r="71" spans="1:57">
@@ -5646,73 +5646,73 @@
         <v>67</v>
       </c>
       <c r="AH71">
-        <v>86.79474751248956</v>
+        <v>82.58001702383162</v>
       </c>
       <c r="AI71">
-        <v>139.8593661420047</v>
+        <v>127.9566214829683</v>
       </c>
       <c r="AJ71">
-        <v>1530.035279196426</v>
+        <v>1489.914490683451</v>
       </c>
       <c r="AK71">
-        <v>139.8593661420047</v>
+        <v>127.9566214829683</v>
       </c>
       <c r="AL71">
-        <v>1530.035279196426</v>
+        <v>1489.914490683451</v>
       </c>
       <c r="AN71">
-        <v>27.99167295109481</v>
+        <v>27.35663459844887</v>
       </c>
       <c r="AO71">
-        <v>27.99167295109481</v>
+        <v>27.35663459844887</v>
       </c>
       <c r="AP71">
-        <v>188.5514367929101</v>
+        <v>182.8487649159133</v>
       </c>
       <c r="AQ71">
-        <v>9.954080538451672</v>
+        <v>9.322926331870258</v>
       </c>
       <c r="AR71">
-        <v>9.954080538451672</v>
+        <v>9.322926331870258</v>
       </c>
       <c r="AS71">
-        <v>898.22598473683</v>
+        <v>908.189632204175</v>
       </c>
       <c r="AT71">
-        <v>3174.076085808873</v>
+        <v>3165.645268564821</v>
       </c>
       <c r="AU71">
-        <v>3174.076085808873</v>
+        <v>3165.645268564821</v>
       </c>
       <c r="AV71">
-        <v>3174.076085808873</v>
+        <v>3165.645268564821</v>
       </c>
       <c r="AW71">
-        <v>25.92668635845184</v>
+        <v>25.104587200284</v>
       </c>
       <c r="AX71">
-        <v>885.2735020026564</v>
+        <v>860.8514303967356</v>
       </c>
       <c r="AY71">
-        <v>4.723041579052805</v>
+        <v>4.486814143210649</v>
       </c>
       <c r="AZ71">
-        <v>223.8124471736551</v>
+        <v>220.8575356777907</v>
       </c>
       <c r="BA71">
-        <v>223.8124471736551</v>
+        <v>220.8575356777907</v>
       </c>
       <c r="BB71">
-        <v>223.8124471736551</v>
+        <v>220.8575356777907</v>
       </c>
       <c r="BC71">
-        <v>223.8124471736551</v>
+        <v>220.8575356777907</v>
       </c>
       <c r="BD71">
-        <v>223.8124471736551</v>
+        <v>220.8575356777907</v>
       </c>
       <c r="BE71">
-        <v>4.723041579052805</v>
+        <v>4.486814143210649</v>
       </c>
     </row>
     <row r="72" spans="1:57">
@@ -5720,73 +5720,73 @@
         <v>68</v>
       </c>
       <c r="AH72">
-        <v>13.98811280122027</v>
+        <v>12.12657052198425</v>
       </c>
       <c r="AI72">
-        <v>15.2970779588446</v>
+        <v>16.9015228160657</v>
       </c>
       <c r="AJ72">
-        <v>153.0186887697224</v>
+        <v>159.946241059103</v>
       </c>
       <c r="AK72">
-        <v>15.2970779588446</v>
+        <v>16.9015228160657</v>
       </c>
       <c r="AL72">
-        <v>153.0186887697224</v>
+        <v>159.946241059103</v>
       </c>
       <c r="AN72">
-        <v>3.391067505558021</v>
+        <v>3.432808256540448</v>
       </c>
       <c r="AO72">
-        <v>3.391067505558021</v>
+        <v>3.432808256540448</v>
       </c>
       <c r="AP72">
-        <v>36.30120203226805</v>
+        <v>38.0822760284692</v>
       </c>
       <c r="AQ72">
-        <v>1.918124681361951</v>
+        <v>1.902591010485776</v>
       </c>
       <c r="AR72">
-        <v>1.918124681361951</v>
+        <v>1.902591010485776</v>
       </c>
       <c r="AS72">
-        <v>89.16462504421361</v>
+        <v>94.14558300572448</v>
       </c>
       <c r="AT72">
-        <v>210.5832067055814</v>
+        <v>284.2840808640421</v>
       </c>
       <c r="AU72">
-        <v>210.5832067055814</v>
+        <v>284.2840808640421</v>
       </c>
       <c r="AV72">
-        <v>210.5832067055814</v>
+        <v>284.2840808640421</v>
       </c>
       <c r="AW72">
-        <v>5.622723040729761</v>
+        <v>5.659491407871246</v>
       </c>
       <c r="AX72">
-        <v>36.43868462974206</v>
+        <v>37.07372726369649</v>
       </c>
       <c r="AY72">
-        <v>0.2696506427740678</v>
+        <v>0.2551628283038735</v>
       </c>
       <c r="AZ72">
-        <v>61.94066436254979</v>
+        <v>63.77022078104318</v>
       </c>
       <c r="BA72">
-        <v>61.94066436254979</v>
+        <v>63.77022078104318</v>
       </c>
       <c r="BB72">
-        <v>61.94066436254979</v>
+        <v>63.77022078104318</v>
       </c>
       <c r="BC72">
-        <v>61.94066436254979</v>
+        <v>63.77022078104318</v>
       </c>
       <c r="BD72">
-        <v>61.94066436254979</v>
+        <v>63.77022078104318</v>
       </c>
       <c r="BE72">
-        <v>0.2696506427740678</v>
+        <v>0.2551628283038735</v>
       </c>
     </row>
     <row r="73" spans="1:57">
@@ -5794,73 +5794,73 @@
         <v>69</v>
       </c>
       <c r="AH73">
-        <v>20.77479004822672</v>
+        <v>20.19569584663957</v>
       </c>
       <c r="AI73">
-        <v>4.852747014700435</v>
+        <v>4.658376157283783</v>
       </c>
       <c r="AJ73">
-        <v>48.24235908871516</v>
+        <v>45.04365638662479</v>
       </c>
       <c r="AK73">
-        <v>4.852747014700435</v>
+        <v>4.658376157283783</v>
       </c>
       <c r="AL73">
-        <v>48.24235908871516</v>
+        <v>45.04365638662479</v>
       </c>
       <c r="AN73">
-        <v>4.100118934209458</v>
+        <v>3.658679197728634</v>
       </c>
       <c r="AO73">
-        <v>4.100118934209458</v>
+        <v>3.658679197728634</v>
       </c>
       <c r="AP73">
-        <v>5.887614787886851</v>
+        <v>5.007552876747213</v>
       </c>
       <c r="AQ73">
-        <v>1.975540813524276</v>
+        <v>1.805033399374224</v>
       </c>
       <c r="AR73">
-        <v>1.975540813524276</v>
+        <v>1.805033399374224</v>
       </c>
       <c r="AS73">
-        <v>94.09361228807829</v>
+        <v>86.93084141239524</v>
       </c>
       <c r="AT73">
-        <v>432.1870895471797</v>
+        <v>404.7909514588491</v>
       </c>
       <c r="AU73">
-        <v>432.1870895471797</v>
+        <v>404.7909514588491</v>
       </c>
       <c r="AV73">
-        <v>432.1870895471797</v>
+        <v>404.7909514588491</v>
       </c>
       <c r="AW73">
-        <v>7.274246802926064</v>
+        <v>6.744798259437085</v>
       </c>
       <c r="AX73">
-        <v>48.43849489577114</v>
+        <v>43.96498101418837</v>
       </c>
       <c r="AY73">
-        <v>2.568719942420721</v>
+        <v>2.483003831617534</v>
       </c>
       <c r="AZ73">
-        <v>96.82042559319736</v>
+        <v>91.36015177580715</v>
       </c>
       <c r="BA73">
-        <v>96.82042559319736</v>
+        <v>91.36015177580715</v>
       </c>
       <c r="BB73">
-        <v>96.82042559319736</v>
+        <v>91.36015177580715</v>
       </c>
       <c r="BC73">
-        <v>96.82042559319736</v>
+        <v>91.36015177580715</v>
       </c>
       <c r="BD73">
-        <v>96.82042559319736</v>
+        <v>91.36015177580715</v>
       </c>
       <c r="BE73">
-        <v>2.568719942420721</v>
+        <v>2.483003831617534</v>
       </c>
     </row>
     <row r="74" spans="1:57">
@@ -5868,73 +5868,73 @@
         <v>70</v>
       </c>
       <c r="AH74">
-        <v>6.972353674806655</v>
+        <v>7.307339250911028</v>
       </c>
       <c r="AI74">
-        <v>12.21744870962575</v>
+        <v>13.69840459926054</v>
       </c>
       <c r="AJ74">
-        <v>199.71937682949</v>
+        <v>199.3395090688811</v>
       </c>
       <c r="AK74">
-        <v>12.21744870962575</v>
+        <v>13.69840459926054</v>
       </c>
       <c r="AL74">
-        <v>199.71937682949</v>
+        <v>199.3395090688811</v>
       </c>
       <c r="AN74">
-        <v>18.19257926173508</v>
+        <v>18.56679355151951</v>
       </c>
       <c r="AO74">
-        <v>18.19257926173508</v>
+        <v>18.56679355151951</v>
       </c>
       <c r="AP74">
-        <v>18.15562672873959</v>
+        <v>21.40766636753455</v>
       </c>
       <c r="AQ74">
-        <v>11.11295016352087</v>
+        <v>11.34297313652933</v>
       </c>
       <c r="AR74">
-        <v>11.11295016352087</v>
+        <v>11.34297313652933</v>
       </c>
       <c r="AS74">
-        <v>263.5501914815977</v>
+        <v>256.3085316904262</v>
       </c>
       <c r="AT74">
-        <v>908.7285465851427</v>
+        <v>968.3056329841913</v>
       </c>
       <c r="AU74">
-        <v>908.7285465851427</v>
+        <v>968.3056329841913</v>
       </c>
       <c r="AV74">
-        <v>908.7285465851427</v>
+        <v>968.3056329841913</v>
       </c>
       <c r="AW74">
-        <v>15.00309596955776</v>
+        <v>15.95331169366837</v>
       </c>
       <c r="AX74">
-        <v>157.2740013517439</v>
+        <v>162.2239578679204</v>
       </c>
       <c r="AY74">
-        <v>10.54452222824097</v>
+        <v>10.75007495641708</v>
       </c>
       <c r="AZ74">
-        <v>341.338813333869</v>
+        <v>351.0435078027249</v>
       </c>
       <c r="BA74">
-        <v>341.338813333869</v>
+        <v>351.0435078027249</v>
       </c>
       <c r="BB74">
-        <v>341.338813333869</v>
+        <v>351.0435078027249</v>
       </c>
       <c r="BC74">
-        <v>341.338813333869</v>
+        <v>351.0435078027249</v>
       </c>
       <c r="BD74">
-        <v>341.338813333869</v>
+        <v>351.0435078027249</v>
       </c>
       <c r="BE74">
-        <v>10.54452222824097</v>
+        <v>10.75007495641708</v>
       </c>
     </row>
     <row r="75" spans="1:57">
@@ -5942,73 +5942,73 @@
         <v>71</v>
       </c>
       <c r="AH75">
-        <v>0.5680094407271827</v>
+        <v>0.601618711395422</v>
       </c>
       <c r="AI75">
-        <v>0.6389008355734405</v>
+        <v>0.9516931460180786</v>
       </c>
       <c r="AJ75">
-        <v>21.40426394213398</v>
+        <v>23.80405625421961</v>
       </c>
       <c r="AK75">
-        <v>0.6389008355734405</v>
+        <v>0.9516931460180786</v>
       </c>
       <c r="AL75">
-        <v>21.40426394213398</v>
+        <v>23.80405625421961</v>
       </c>
       <c r="AN75">
-        <v>3.499278473271989</v>
+        <v>3.727963994704187</v>
       </c>
       <c r="AO75">
-        <v>3.499278473271989</v>
+        <v>3.727963994704187</v>
       </c>
       <c r="AP75">
-        <v>2.967877806534525</v>
+        <v>3.160279473278206</v>
       </c>
       <c r="AQ75">
-        <v>2.793893166305497</v>
+        <v>2.963227289589122</v>
       </c>
       <c r="AR75">
-        <v>2.793893166305497</v>
+        <v>2.963227289589122</v>
       </c>
       <c r="AS75">
-        <v>14.40585431333166</v>
+        <v>12.93711299578426</v>
       </c>
       <c r="AT75">
-        <v>100.455687204795</v>
+        <v>87.0773120675143</v>
       </c>
       <c r="AU75">
-        <v>100.455687204795</v>
+        <v>87.0773120675143</v>
       </c>
       <c r="AV75">
-        <v>100.455687204795</v>
+        <v>87.0773120675143</v>
       </c>
       <c r="AW75">
-        <v>2.471739122271538</v>
+        <v>2.609629156813026</v>
       </c>
       <c r="AX75">
-        <v>3.190947880822932</v>
+        <v>3.462290843739174</v>
       </c>
       <c r="AY75">
-        <v>0.3704864161368459</v>
+        <v>0.3762618554476648</v>
       </c>
       <c r="AZ75">
-        <v>79.33680799412728</v>
+        <v>83.39902650240064</v>
       </c>
       <c r="BA75">
-        <v>79.33680799412728</v>
+        <v>83.39902650240064</v>
       </c>
       <c r="BB75">
-        <v>79.33680799412728</v>
+        <v>83.39902650240064</v>
       </c>
       <c r="BC75">
-        <v>79.33680799412728</v>
+        <v>83.39902650240064</v>
       </c>
       <c r="BD75">
-        <v>79.33680799412728</v>
+        <v>83.39902650240064</v>
       </c>
       <c r="BE75">
-        <v>0.3704864161368459</v>
+        <v>0.3762618554476648</v>
       </c>
     </row>
     <row r="76" spans="1:57">
@@ -6016,73 +6016,73 @@
         <v>72</v>
       </c>
       <c r="AH76">
-        <v>14.58600710416213</v>
+        <v>13.85764443734661</v>
       </c>
       <c r="AI76">
-        <v>20.80613398961723</v>
+        <v>19.95056011611596</v>
       </c>
       <c r="AJ76">
-        <v>203.2207749169506</v>
+        <v>188.1883556936681</v>
       </c>
       <c r="AK76">
-        <v>20.80613398961723</v>
+        <v>19.95056011611596</v>
       </c>
       <c r="AL76">
-        <v>203.2207749169506</v>
+        <v>188.1883556936681</v>
       </c>
       <c r="AN76">
-        <v>15.73506095610559</v>
+        <v>15.05556329432875</v>
       </c>
       <c r="AO76">
-        <v>15.73506095610559</v>
+        <v>15.05556329432875</v>
       </c>
       <c r="AP76">
-        <v>25.33586614327505</v>
+        <v>24.46613073630258</v>
       </c>
       <c r="AQ76">
-        <v>4.656144000031054</v>
+        <v>4.449329024087637</v>
       </c>
       <c r="AR76">
-        <v>4.656144000031054</v>
+        <v>4.449329024087637</v>
       </c>
       <c r="AS76">
-        <v>629.8837321466208</v>
+        <v>597.0477011181414</v>
       </c>
       <c r="AT76">
-        <v>2327.148932623268</v>
+        <v>2071.345427659303</v>
       </c>
       <c r="AU76">
-        <v>2327.148932623268</v>
+        <v>2071.345427659303</v>
       </c>
       <c r="AV76">
-        <v>2327.148932623268</v>
+        <v>2071.345427659303</v>
       </c>
       <c r="AW76">
-        <v>40.31813014149666</v>
+        <v>38.93565626442432</v>
       </c>
       <c r="AX76">
-        <v>221.5278009824455</v>
+        <v>208.2552911628038</v>
       </c>
       <c r="AY76">
-        <v>11.62228437572718</v>
+        <v>11.39214546427131</v>
       </c>
       <c r="AZ76">
-        <v>658.5692046878339</v>
+        <v>646.3229965324402</v>
       </c>
       <c r="BA76">
-        <v>658.5692046878339</v>
+        <v>646.3229965324402</v>
       </c>
       <c r="BB76">
-        <v>658.5692046878339</v>
+        <v>646.3229965324402</v>
       </c>
       <c r="BC76">
-        <v>658.5692046878339</v>
+        <v>646.3229965324402</v>
       </c>
       <c r="BD76">
-        <v>658.5692046878339</v>
+        <v>646.3229965324402</v>
       </c>
       <c r="BE76">
-        <v>11.62228437572718</v>
+        <v>11.39214546427131</v>
       </c>
     </row>
     <row r="77" spans="1:57">
@@ -6090,73 +6090,73 @@
         <v>73</v>
       </c>
       <c r="AH77">
-        <v>22.16415098886937</v>
+        <v>24.5903088150546</v>
       </c>
       <c r="AI77">
-        <v>49.84443322978914</v>
+        <v>52.28643382675946</v>
       </c>
       <c r="AJ77">
-        <v>674.1897927421331</v>
+        <v>694.5457258093916</v>
       </c>
       <c r="AK77">
-        <v>49.84443322978914</v>
+        <v>52.28643382675946</v>
       </c>
       <c r="AL77">
-        <v>674.1897927421331</v>
+        <v>694.5457258093916</v>
       </c>
       <c r="AN77">
-        <v>58.49801138035953</v>
+        <v>59.48494589842856</v>
       </c>
       <c r="AO77">
-        <v>58.49801138035953</v>
+        <v>59.48494589842856</v>
       </c>
       <c r="AP77">
-        <v>90.24182404957712</v>
+        <v>92.52750127643347</v>
       </c>
       <c r="AQ77">
-        <v>24.82541301250458</v>
+        <v>25.27276641130447</v>
       </c>
       <c r="AR77">
-        <v>24.82541301250458</v>
+        <v>25.27276641130447</v>
       </c>
       <c r="AS77">
-        <v>1220.66968123287</v>
+        <v>1224.262318660319</v>
       </c>
       <c r="AT77">
-        <v>3909.166663952172</v>
+        <v>4145.115404068531</v>
       </c>
       <c r="AU77">
-        <v>3909.166663952172</v>
+        <v>4145.115404068531</v>
       </c>
       <c r="AV77">
-        <v>3909.166663952172</v>
+        <v>4145.115404068531</v>
       </c>
       <c r="AW77">
-        <v>51.75319621562958</v>
+        <v>53.81576367616653</v>
       </c>
       <c r="AX77">
-        <v>509.3750439479947</v>
+        <v>526.0701887235045</v>
       </c>
       <c r="AY77">
-        <v>25.97905255854129</v>
+        <v>26.64478800415992</v>
       </c>
       <c r="AZ77">
-        <v>1172.28277120328</v>
+        <v>1204.293787675143</v>
       </c>
       <c r="BA77">
-        <v>1172.28277120328</v>
+        <v>1204.293787675143</v>
       </c>
       <c r="BB77">
-        <v>1172.28277120328</v>
+        <v>1204.293787675143</v>
       </c>
       <c r="BC77">
-        <v>1172.28277120328</v>
+        <v>1204.293787675143</v>
       </c>
       <c r="BD77">
-        <v>1172.28277120328</v>
+        <v>1204.293787675143</v>
       </c>
       <c r="BE77">
-        <v>25.97905255854129</v>
+        <v>26.64478800415992</v>
       </c>
     </row>
     <row r="78" spans="1:57">
@@ -6164,73 +6164,73 @@
         <v>74</v>
       </c>
       <c r="AH78">
-        <v>0.4406759691750631</v>
+        <v>0.4497678949945839</v>
       </c>
       <c r="AI78">
-        <v>7.213819674542174</v>
+        <v>9.127329872967676</v>
       </c>
       <c r="AJ78">
-        <v>74.40975860358914</v>
+        <v>80.82700926961144</v>
       </c>
       <c r="AK78">
-        <v>7.213819674542174</v>
+        <v>9.127329872967676</v>
       </c>
       <c r="AL78">
-        <v>74.40975860358914</v>
+        <v>80.82700926961144</v>
       </c>
       <c r="AN78">
-        <v>5.620547629725189</v>
+        <v>5.766370668038726</v>
       </c>
       <c r="AO78">
-        <v>5.620547629725189</v>
+        <v>5.766370668038726</v>
       </c>
       <c r="AP78">
-        <v>11.42237053900957</v>
+        <v>12.42110090942122</v>
       </c>
       <c r="AQ78">
-        <v>6.340353480260819</v>
+        <v>6.67573219994083</v>
       </c>
       <c r="AR78">
-        <v>6.340353480260819</v>
+        <v>6.67573219994083</v>
       </c>
       <c r="AS78">
-        <v>47.1778669777466</v>
+        <v>42.51490652150475</v>
       </c>
       <c r="AT78">
-        <v>121.1692079006415</v>
+        <v>151.1782363720797</v>
       </c>
       <c r="AU78">
-        <v>121.1692079006415</v>
+        <v>151.1782363720797</v>
       </c>
       <c r="AV78">
-        <v>121.1692079006415</v>
+        <v>151.1782363720797</v>
       </c>
       <c r="AW78">
-        <v>9.171287022531033</v>
+        <v>9.796898133307696</v>
       </c>
       <c r="AX78">
-        <v>30.8258233175613</v>
+        <v>31.67221261365339</v>
       </c>
       <c r="AY78">
-        <v>2.15244241643697</v>
+        <v>2.20512321665883</v>
       </c>
       <c r="AZ78">
-        <v>94.26668654054404</v>
+        <v>100.3765526088476</v>
       </c>
       <c r="BA78">
-        <v>94.26668654054404</v>
+        <v>100.3765526088476</v>
       </c>
       <c r="BB78">
-        <v>94.26668654054404</v>
+        <v>100.3765526088476</v>
       </c>
       <c r="BC78">
-        <v>94.26668654054404</v>
+        <v>100.3765526088476</v>
       </c>
       <c r="BD78">
-        <v>94.26668654054404</v>
+        <v>100.3765526088476</v>
       </c>
       <c r="BE78">
-        <v>2.15244241643697</v>
+        <v>2.20512321665883</v>
       </c>
     </row>
     <row r="79" spans="1:57">
@@ -6238,73 +6238,73 @@
         <v>75</v>
       </c>
       <c r="AH79">
-        <v>10.65145417792723</v>
+        <v>11.2832838165015</v>
       </c>
       <c r="AI79">
-        <v>4.660319383302704</v>
+        <v>4.088546174857766</v>
       </c>
       <c r="AJ79">
-        <v>39.81580099688144</v>
+        <v>37.01303481577663</v>
       </c>
       <c r="AK79">
-        <v>4.660319383302704</v>
+        <v>4.088546174857766</v>
       </c>
       <c r="AL79">
-        <v>39.81580099688144</v>
+        <v>37.01303481577663</v>
       </c>
       <c r="AN79">
-        <v>2.638983073509298</v>
+        <v>2.479228200144135</v>
       </c>
       <c r="AO79">
-        <v>2.638983073509298</v>
+        <v>2.479228200144135</v>
       </c>
       <c r="AP79">
-        <v>2.937615607588086</v>
+        <v>2.493765170674306</v>
       </c>
       <c r="AQ79">
-        <v>1.239205213543028</v>
+        <v>1.196790882037021</v>
       </c>
       <c r="AR79">
-        <v>1.239205213543028</v>
+        <v>1.196790882037021</v>
       </c>
       <c r="AS79">
-        <v>64.8387075754907</v>
+        <v>57.29072296076454</v>
       </c>
       <c r="AT79">
-        <v>415.808921625279</v>
+        <v>382.648740320392</v>
       </c>
       <c r="AU79">
-        <v>415.808921625279</v>
+        <v>382.648740320392</v>
       </c>
       <c r="AV79">
-        <v>415.808921625279</v>
+        <v>382.648740320392</v>
       </c>
       <c r="AW79">
-        <v>7.183363182842732</v>
+        <v>6.730584502965212</v>
       </c>
       <c r="AX79">
-        <v>100.2953584484756</v>
+        <v>95.32857898697256</v>
       </c>
       <c r="AY79">
-        <v>4.522884311899542</v>
+        <v>4.416727090328932</v>
       </c>
       <c r="AZ79">
-        <v>203.228815502882</v>
+        <v>201.1721370059848</v>
       </c>
       <c r="BA79">
-        <v>203.228815502882</v>
+        <v>201.1721370059848</v>
       </c>
       <c r="BB79">
-        <v>203.228815502882</v>
+        <v>201.1721370059848</v>
       </c>
       <c r="BC79">
-        <v>203.228815502882</v>
+        <v>201.1721370059848</v>
       </c>
       <c r="BD79">
-        <v>203.228815502882</v>
+        <v>201.1721370059848</v>
       </c>
       <c r="BE79">
-        <v>4.522884311899542</v>
+        <v>4.416727090328932</v>
       </c>
     </row>
     <row r="80" spans="1:57">
@@ -6312,73 +6312,73 @@
         <v>76</v>
       </c>
       <c r="AH80">
-        <v>13.45798746185377</v>
+        <v>12.11434977805242</v>
       </c>
       <c r="AI80">
-        <v>14.08343166541308</v>
+        <v>13.48438005382195</v>
       </c>
       <c r="AJ80">
-        <v>243.6396059985738</v>
+        <v>238.3949724503886</v>
       </c>
       <c r="AK80">
-        <v>14.08343166541308</v>
+        <v>13.48438005382195</v>
       </c>
       <c r="AL80">
-        <v>243.6396059985738</v>
+        <v>238.3949724503886</v>
       </c>
       <c r="AN80">
-        <v>21.23328398842365</v>
+        <v>21.09457629527897</v>
       </c>
       <c r="AO80">
-        <v>21.23328398842365</v>
+        <v>21.09457629527897</v>
       </c>
       <c r="AP80">
-        <v>29.97947199227288</v>
+        <v>29.99180235628039</v>
       </c>
       <c r="AQ80">
-        <v>10.14648030120879</v>
+        <v>10.00633736718446</v>
       </c>
       <c r="AR80">
-        <v>10.14648030120879</v>
+        <v>10.00633736718446</v>
       </c>
       <c r="AS80">
-        <v>456.9800567036122</v>
+        <v>453.513553744331</v>
       </c>
       <c r="AT80">
-        <v>2217.601935847849</v>
+        <v>2402.161853535325</v>
       </c>
       <c r="AU80">
-        <v>2217.601935847849</v>
+        <v>2402.161853535325</v>
       </c>
       <c r="AV80">
-        <v>2217.601935847849</v>
+        <v>2402.161853535325</v>
       </c>
       <c r="AW80">
-        <v>20.47749817073345</v>
+        <v>20.51861240714788</v>
       </c>
       <c r="AX80">
-        <v>158.8606877215207</v>
+        <v>153.9303804054856</v>
       </c>
       <c r="AY80">
-        <v>7.524771695435047</v>
+        <v>7.195476815402507</v>
       </c>
       <c r="AZ80">
-        <v>471.0361390480996</v>
+        <v>440.5391899815799</v>
       </c>
       <c r="BA80">
-        <v>471.0361390480996</v>
+        <v>440.5391899815799</v>
       </c>
       <c r="BB80">
-        <v>471.0361390480996</v>
+        <v>440.5391899815799</v>
       </c>
       <c r="BC80">
-        <v>471.0361390480996</v>
+        <v>440.5391899815799</v>
       </c>
       <c r="BD80">
-        <v>471.0361390480996</v>
+        <v>440.5391899815799</v>
       </c>
       <c r="BE80">
-        <v>7.524771695435047</v>
+        <v>7.195476815402507</v>
       </c>
     </row>
     <row r="81" spans="1:81">
@@ -6386,73 +6386,73 @@
         <v>77</v>
       </c>
       <c r="AH81">
-        <v>3.037352387174033</v>
+        <v>2.714177616508678</v>
       </c>
       <c r="AI81">
-        <v>2.217408262763638</v>
+        <v>2.50873473623069</v>
       </c>
       <c r="AJ81">
-        <v>52.46461887568468</v>
+        <v>50.32512200158322</v>
       </c>
       <c r="AK81">
-        <v>2.217408262763638</v>
+        <v>2.50873473623069</v>
       </c>
       <c r="AL81">
-        <v>52.46461887568468</v>
+        <v>50.32512200158322</v>
       </c>
       <c r="AN81">
-        <v>2.566478029908613</v>
+        <v>2.694804817461409</v>
       </c>
       <c r="AO81">
-        <v>2.566478029908613</v>
+        <v>2.694804817461409</v>
       </c>
       <c r="AP81">
-        <v>6.34865314183291</v>
+        <v>5.961855987883173</v>
       </c>
       <c r="AQ81">
-        <v>3.550646647298708</v>
+        <v>3.61652621650137</v>
       </c>
       <c r="AR81">
-        <v>3.550646647298708</v>
+        <v>3.61652621650137</v>
       </c>
       <c r="AS81">
-        <v>35.47821828959975</v>
+        <v>37.5595741965808</v>
       </c>
       <c r="AT81">
-        <v>304.7823744788766</v>
+        <v>301.6063246752508</v>
       </c>
       <c r="AU81">
-        <v>304.7823744788766</v>
+        <v>301.6063246752508</v>
       </c>
       <c r="AV81">
-        <v>304.7823744788766</v>
+        <v>301.6063246752508</v>
       </c>
       <c r="AW81">
-        <v>5.122214941680432</v>
+        <v>5.515517091006041</v>
       </c>
       <c r="AX81">
-        <v>35.88583554206416</v>
+        <v>37.27662544269115</v>
       </c>
       <c r="AY81">
-        <v>2.002981155142188</v>
+        <v>1.983568638414144</v>
       </c>
       <c r="AZ81">
-        <v>80.71584402132035</v>
+        <v>81.64394999697805</v>
       </c>
       <c r="BA81">
-        <v>80.71584402132035</v>
+        <v>81.64394999697805</v>
       </c>
       <c r="BB81">
-        <v>80.71584402132035</v>
+        <v>81.64394999697805</v>
       </c>
       <c r="BC81">
-        <v>80.71584402132035</v>
+        <v>81.64394999697805</v>
       </c>
       <c r="BD81">
-        <v>80.71584402132035</v>
+        <v>81.64394999697805</v>
       </c>
       <c r="BE81">
-        <v>2.002981155142188</v>
+        <v>1.983568638414144</v>
       </c>
     </row>
     <row r="82" spans="1:81">

--- a/excel_files/output.xlsx
+++ b/excel_files/output.xlsx
@@ -4837,61 +4837,61 @@
         <v>56</v>
       </c>
       <c r="BK58">
-        <v>7078.174746093063</v>
+        <v>6990.049284296037</v>
       </c>
       <c r="BL58">
-        <v>1444.393869164158</v>
+        <v>1340.191604392026</v>
       </c>
       <c r="BM58">
-        <v>12838.60618591949</v>
+        <v>13331.23923523152</v>
       </c>
       <c r="BN58">
-        <v>25756.04642876922</v>
+        <v>25705.07287315651</v>
       </c>
       <c r="BO58">
-        <v>1995.628295730427</v>
+        <v>1949.597887802064</v>
       </c>
       <c r="BP58">
-        <v>5869.649075423349</v>
+        <v>6164.985557787995</v>
       </c>
       <c r="BQ58">
-        <v>15978.87289030425</v>
+        <v>16151.1897315123</v>
       </c>
       <c r="BR58">
-        <v>1723.667646666086</v>
+        <v>1470.757508594189</v>
       </c>
       <c r="BS58">
-        <v>1949.314980610249</v>
+        <v>2080.611127017555</v>
       </c>
       <c r="BT58">
-        <v>5630.730755461873</v>
+        <v>5397.408730016446</v>
       </c>
       <c r="BU58">
-        <v>764.6444049755133</v>
+        <v>779.0691758155526</v>
       </c>
       <c r="BV58">
-        <v>10806.28559654408</v>
+        <v>11718.02515430384</v>
       </c>
       <c r="BW58">
-        <v>22094.55055163287</v>
+        <v>21149.79115015452</v>
       </c>
       <c r="BX58">
-        <v>1261.475488687794</v>
+        <v>1125.352923839777</v>
       </c>
       <c r="BY58">
-        <v>2425.322495755267</v>
+        <v>2555.231727340843</v>
       </c>
       <c r="BZ58">
-        <v>10659.60169516933</v>
+        <v>10280.99735213215</v>
       </c>
       <c r="CA58">
-        <v>1524.323987165695</v>
+        <v>1529.402883787179</v>
       </c>
       <c r="CC58">
         <v>112199.01</v>
       </c>
       <c r="CF58">
-        <v>1231.931639694078</v>
+        <v>1314.246116743768</v>
       </c>
     </row>
     <row r="59" spans="1:84">
@@ -5128,73 +5128,73 @@
         <v>82</v>
       </c>
       <c r="AH64">
-        <v>10.32749597553164</v>
+        <v>9.414114025598392</v>
       </c>
       <c r="AI64">
-        <v>4.572988519864158</v>
+        <v>4.98343871824909</v>
       </c>
       <c r="AJ64">
-        <v>181.3535974402819</v>
+        <v>200.4209536320157</v>
       </c>
       <c r="AK64">
-        <v>4.572988519864158</v>
+        <v>4.98343871824909</v>
       </c>
       <c r="AL64">
-        <v>181.3535974402819</v>
+        <v>200.4209536320157</v>
       </c>
       <c r="AN64">
-        <v>3.242894353428856</v>
+        <v>3.583830243987031</v>
       </c>
       <c r="AO64">
-        <v>3.242894353428856</v>
+        <v>3.583830243987031</v>
       </c>
       <c r="AP64">
-        <v>10.59236898211762</v>
+        <v>11.83001546522602</v>
       </c>
       <c r="AQ64">
-        <v>0.8428759983042254</v>
+        <v>0.882314035994932</v>
       </c>
       <c r="AR64">
-        <v>0.8428759983042254</v>
+        <v>0.882314035994932</v>
       </c>
       <c r="AS64">
-        <v>67.1392593125347</v>
+        <v>73.19743904368953</v>
       </c>
       <c r="AT64">
-        <v>187.1088795390912</v>
+        <v>192.0036300258339</v>
       </c>
       <c r="AU64">
-        <v>187.1088795390912</v>
+        <v>192.0036300258339</v>
       </c>
       <c r="AV64">
-        <v>187.1088795390912</v>
+        <v>192.0036300258339</v>
       </c>
       <c r="AW64">
-        <v>7.32389857172966</v>
+        <v>8.166333993524313</v>
       </c>
       <c r="AX64">
-        <v>21.63126105456613</v>
+        <v>22.61657591545954</v>
       </c>
       <c r="AY64">
-        <v>0.576311818435788</v>
+        <v>0.6143333348818123</v>
       </c>
       <c r="AZ64">
-        <v>34.48267618393898</v>
+        <v>38.40820165850223</v>
       </c>
       <c r="BA64">
-        <v>34.48267618393898</v>
+        <v>38.40820165850223</v>
       </c>
       <c r="BB64">
-        <v>34.48267618393898</v>
+        <v>38.40820165850223</v>
       </c>
       <c r="BC64">
-        <v>34.48267618393898</v>
+        <v>38.40820165850223</v>
       </c>
       <c r="BD64">
-        <v>34.48267618393898</v>
+        <v>38.40820165850223</v>
       </c>
       <c r="BE64">
-        <v>0.576311818435788</v>
+        <v>0.6143333348818123</v>
       </c>
     </row>
     <row r="65" spans="1:57">
@@ -5202,73 +5202,73 @@
         <v>61</v>
       </c>
       <c r="AH65">
-        <v>55.62435575969518</v>
+        <v>59.33229717329145</v>
       </c>
       <c r="AI65">
-        <v>51.37581306248904</v>
+        <v>52.88727739527822</v>
       </c>
       <c r="AJ65">
-        <v>2374.258369275034</v>
+        <v>2386.627410095036</v>
       </c>
       <c r="AK65">
-        <v>51.37581306248904</v>
+        <v>52.88727739527822</v>
       </c>
       <c r="AL65">
-        <v>2374.258369275034</v>
+        <v>2386.627410095036</v>
       </c>
       <c r="AN65">
-        <v>17.37251496220007</v>
+        <v>16.82216917671263</v>
       </c>
       <c r="AO65">
-        <v>17.37251496220007</v>
+        <v>16.82216917671263</v>
       </c>
       <c r="AP65">
-        <v>76.32228273190559</v>
+        <v>75.89979358144105</v>
       </c>
       <c r="AQ65">
-        <v>10.02416591662914</v>
+        <v>9.907512448914348</v>
       </c>
       <c r="AR65">
-        <v>10.02416591662914</v>
+        <v>9.907512448914348</v>
       </c>
       <c r="AS65">
-        <v>189.7119347106106</v>
+        <v>168.617042367179</v>
       </c>
       <c r="AT65">
-        <v>383.2473745921999</v>
+        <v>337.3299611688592</v>
       </c>
       <c r="AU65">
-        <v>383.2473745921999</v>
+        <v>337.3299611688592</v>
       </c>
       <c r="AV65">
-        <v>383.2473745921999</v>
+        <v>337.3299611688592</v>
       </c>
       <c r="AW65">
-        <v>16.16081960052252</v>
+        <v>15.90577829927206</v>
       </c>
       <c r="AX65">
-        <v>159.3026870578528</v>
+        <v>164.5034938763827</v>
       </c>
       <c r="AY65">
-        <v>2.813445122912526</v>
+        <v>2.83422336127609</v>
       </c>
       <c r="AZ65">
-        <v>103.9243851554692</v>
+        <v>111.1287621074915</v>
       </c>
       <c r="BA65">
-        <v>103.9243851554692</v>
+        <v>111.1287621074915</v>
       </c>
       <c r="BB65">
-        <v>103.9243851554692</v>
+        <v>111.1287621074915</v>
       </c>
       <c r="BC65">
-        <v>103.9243851554692</v>
+        <v>111.1287621074915</v>
       </c>
       <c r="BD65">
-        <v>103.9243851554692</v>
+        <v>111.1287621074915</v>
       </c>
       <c r="BE65">
-        <v>2.813445122912526</v>
+        <v>2.83422336127609</v>
       </c>
     </row>
     <row r="66" spans="1:57">
@@ -5276,73 +5276,73 @@
         <v>62</v>
       </c>
       <c r="AH66">
-        <v>7.047710597058758</v>
+        <v>7.205654163155705</v>
       </c>
       <c r="AI66">
-        <v>3.990203469153494</v>
+        <v>4.216897656582296</v>
       </c>
       <c r="AJ66">
-        <v>458.6134734524042</v>
+        <v>424.28795445811</v>
       </c>
       <c r="AK66">
-        <v>3.990203469153494</v>
+        <v>4.216897656582296</v>
       </c>
       <c r="AL66">
-        <v>458.6134734524042</v>
+        <v>424.28795445811</v>
       </c>
       <c r="AN66">
-        <v>3.954541075909511</v>
+        <v>3.524966271901503</v>
       </c>
       <c r="AO66">
-        <v>3.954541075909511</v>
+        <v>3.524966271901503</v>
       </c>
       <c r="AP66">
-        <v>15.17512013768777</v>
+        <v>14.83037091043778</v>
       </c>
       <c r="AQ66">
-        <v>2.719587604282424</v>
+        <v>2.587943928549066</v>
       </c>
       <c r="AR66">
-        <v>2.719587604282424</v>
+        <v>2.587943928549066</v>
       </c>
       <c r="AS66">
-        <v>15.26135000328533</v>
+        <v>15.87995030975901</v>
       </c>
       <c r="AT66">
-        <v>104.1169870545808</v>
+        <v>95.40936142164284</v>
       </c>
       <c r="AU66">
-        <v>104.1169870545808</v>
+        <v>95.40936142164284</v>
       </c>
       <c r="AV66">
-        <v>104.1169870545808</v>
+        <v>95.40936142164284</v>
       </c>
       <c r="AW66">
-        <v>4.574907561019063</v>
+        <v>4.508362703770399</v>
       </c>
       <c r="AX66">
-        <v>22.23482795781456</v>
+        <v>20.73699029148556</v>
       </c>
       <c r="AY66">
-        <v>0.7343764872662722</v>
+        <v>0.6809700198937206</v>
       </c>
       <c r="AZ66">
-        <v>25.54492551310361</v>
+        <v>24.04094541568309</v>
       </c>
       <c r="BA66">
-        <v>25.54492551310361</v>
+        <v>24.04094541568309</v>
       </c>
       <c r="BB66">
-        <v>25.54492551310361</v>
+        <v>24.04094541568309</v>
       </c>
       <c r="BC66">
-        <v>25.54492551310361</v>
+        <v>24.04094541568309</v>
       </c>
       <c r="BD66">
-        <v>25.54492551310361</v>
+        <v>24.04094541568309</v>
       </c>
       <c r="BE66">
-        <v>0.7343764872662722</v>
+        <v>0.6809700198937206</v>
       </c>
     </row>
     <row r="67" spans="1:57">
@@ -5350,73 +5350,73 @@
         <v>63</v>
       </c>
       <c r="AH67">
-        <v>88.13898866191506</v>
+        <v>85.96996595606208</v>
       </c>
       <c r="AI67">
-        <v>46.80938113369048</v>
+        <v>45.81034803465009</v>
       </c>
       <c r="AJ67">
-        <v>1055.319351939931</v>
+        <v>1067.650717165209</v>
       </c>
       <c r="AK67">
-        <v>46.80938113369048</v>
+        <v>45.81034803465009</v>
       </c>
       <c r="AL67">
-        <v>1055.319351939931</v>
+        <v>1067.650717165209</v>
       </c>
       <c r="AN67">
-        <v>20.47571496848017</v>
+        <v>21.2452943026647</v>
       </c>
       <c r="AO67">
-        <v>20.47571496848017</v>
+        <v>21.2452943026647</v>
       </c>
       <c r="AP67">
-        <v>64.813621731475</v>
+        <v>67.45605026192963</v>
       </c>
       <c r="AQ67">
-        <v>3.584853507205844</v>
+        <v>3.648380930209532</v>
       </c>
       <c r="AR67">
-        <v>3.584853507205844</v>
+        <v>3.648380930209532</v>
       </c>
       <c r="AS67">
-        <v>983.8413402225077</v>
+        <v>1017.25321948424</v>
       </c>
       <c r="AT67">
-        <v>2134.991636324525</v>
+        <v>2296.914724432677</v>
       </c>
       <c r="AU67">
-        <v>2134.991636324525</v>
+        <v>2296.914724432677</v>
       </c>
       <c r="AV67">
-        <v>2134.991636324525</v>
+        <v>2296.914724432677</v>
       </c>
       <c r="AW67">
-        <v>56.55622662901879</v>
+        <v>57.67828812599182</v>
       </c>
       <c r="AX67">
-        <v>256.5261487729848</v>
+        <v>253.528219165653</v>
       </c>
       <c r="AY67">
-        <v>6.381567758470773</v>
+        <v>6.298046703189611</v>
       </c>
       <c r="AZ67">
-        <v>543.7226424624921</v>
+        <v>533.8607489335537</v>
       </c>
       <c r="BA67">
-        <v>543.7226424624921</v>
+        <v>533.8607489335537</v>
       </c>
       <c r="BB67">
-        <v>543.7226424624921</v>
+        <v>533.8607489335537</v>
       </c>
       <c r="BC67">
-        <v>543.7226424624921</v>
+        <v>533.8607489335537</v>
       </c>
       <c r="BD67">
-        <v>543.7226424624921</v>
+        <v>533.8607489335537</v>
       </c>
       <c r="BE67">
-        <v>6.381567758470773</v>
+        <v>6.298046703189611</v>
       </c>
     </row>
     <row r="68" spans="1:57">
@@ -5424,73 +5424,73 @@
         <v>64</v>
       </c>
       <c r="AH68">
-        <v>219.239612736702</v>
+        <v>210.7794315168262</v>
       </c>
       <c r="AI68">
-        <v>307.289012221992</v>
+        <v>300.8081789076329</v>
       </c>
       <c r="AJ68">
-        <v>4580.026900641024</v>
+        <v>4553.744405761063</v>
       </c>
       <c r="AK68">
-        <v>307.289012221992</v>
+        <v>300.8081789076329</v>
       </c>
       <c r="AL68">
-        <v>4580.026900641024</v>
+        <v>4553.744405761063</v>
       </c>
       <c r="AN68">
-        <v>71.96046021983028</v>
+        <v>71.71276636935771</v>
       </c>
       <c r="AO68">
-        <v>71.96046021983028</v>
+        <v>71.71276636935771</v>
       </c>
       <c r="AP68">
-        <v>427.6999570736289</v>
+        <v>425.0448387694359</v>
       </c>
       <c r="AQ68">
-        <v>24.70265532545745</v>
+        <v>24.91756613589823</v>
       </c>
       <c r="AR68">
-        <v>24.70265532545745</v>
+        <v>24.91756613589823</v>
       </c>
       <c r="AS68">
-        <v>1274.942523638755</v>
+        <v>1199.389830690175</v>
       </c>
       <c r="AT68">
-        <v>3465.241693329811</v>
+        <v>3500.822733426095</v>
       </c>
       <c r="AU68">
-        <v>3465.241693329811</v>
+        <v>3500.822733426095</v>
       </c>
       <c r="AV68">
-        <v>3465.241693329811</v>
+        <v>3500.822733426095</v>
       </c>
       <c r="AW68">
-        <v>55.81736481785774</v>
+        <v>55.08900470733643</v>
       </c>
       <c r="AX68">
-        <v>815.0322411715983</v>
+        <v>787.1122351065278</v>
       </c>
       <c r="AY68">
-        <v>7.278745202422141</v>
+        <v>7.304603953659534</v>
       </c>
       <c r="AZ68">
-        <v>517.0148204239607</v>
+        <v>521.6428579665424</v>
       </c>
       <c r="BA68">
-        <v>517.0148204239607</v>
+        <v>521.6428579665424</v>
       </c>
       <c r="BB68">
-        <v>517.0148204239607</v>
+        <v>521.6428579665424</v>
       </c>
       <c r="BC68">
-        <v>517.0148204239607</v>
+        <v>521.6428579665424</v>
       </c>
       <c r="BD68">
-        <v>517.0148204239607</v>
+        <v>521.6428579665424</v>
       </c>
       <c r="BE68">
-        <v>7.278745202422141</v>
+        <v>7.304603953659534</v>
       </c>
     </row>
     <row r="69" spans="1:57">
@@ -5498,73 +5498,73 @@
         <v>65</v>
       </c>
       <c r="AH69">
-        <v>18.53883464202285</v>
+        <v>17.85041145477444</v>
       </c>
       <c r="AI69">
-        <v>29.33736850079149</v>
+        <v>28.15027438197285</v>
       </c>
       <c r="AJ69">
-        <v>418.786363815777</v>
+        <v>377.6822184351739</v>
       </c>
       <c r="AK69">
-        <v>29.33736850079149</v>
+        <v>28.15027438197285</v>
       </c>
       <c r="AL69">
-        <v>418.786363815777</v>
+        <v>377.6822184351739</v>
       </c>
       <c r="AN69">
-        <v>4.858426191443577</v>
+        <v>4.714462637193501</v>
       </c>
       <c r="AO69">
-        <v>4.858426191443577</v>
+        <v>4.714462637193501</v>
       </c>
       <c r="AP69">
-        <v>50.61843925260008</v>
+        <v>49.16584968741984</v>
       </c>
       <c r="AQ69">
-        <v>2.979895184142515</v>
+        <v>2.893772782757878</v>
       </c>
       <c r="AR69">
-        <v>2.979895184142515</v>
+        <v>2.893772782757878</v>
       </c>
       <c r="AS69">
-        <v>36.33592108886689</v>
+        <v>33.3963167022774</v>
       </c>
       <c r="AT69">
-        <v>240.4236348219589</v>
+        <v>255.6969061620534</v>
       </c>
       <c r="AU69">
-        <v>240.4236348219589</v>
+        <v>255.6969061620534</v>
       </c>
       <c r="AV69">
-        <v>240.4236348219589</v>
+        <v>255.6969061620534</v>
       </c>
       <c r="AW69">
-        <v>5.169273956120015</v>
+        <v>5.374387093633413</v>
       </c>
       <c r="AX69">
-        <v>27.46067404816858</v>
+        <v>25.69650055831298</v>
       </c>
       <c r="AY69">
-        <v>0.2682642942527309</v>
+        <v>0.2742241334868595</v>
       </c>
       <c r="AZ69">
-        <v>44.75472246079148</v>
+        <v>44.71875981566311</v>
       </c>
       <c r="BA69">
-        <v>44.75472246079148</v>
+        <v>44.71875981566311</v>
       </c>
       <c r="BB69">
-        <v>44.75472246079148</v>
+        <v>44.71875981566311</v>
       </c>
       <c r="BC69">
-        <v>44.75472246079148</v>
+        <v>44.71875981566311</v>
       </c>
       <c r="BD69">
-        <v>44.75472246079148</v>
+        <v>44.71875981566311</v>
       </c>
       <c r="BE69">
-        <v>0.2682642942527309</v>
+        <v>0.2742241334868595</v>
       </c>
     </row>
     <row r="70" spans="1:57">
@@ -5572,73 +5572,73 @@
         <v>66</v>
       </c>
       <c r="AH70">
-        <v>19.97223727237433</v>
+        <v>22.72248552095145</v>
       </c>
       <c r="AI70">
-        <v>25.96263036634773</v>
+        <v>26.40249624270946</v>
       </c>
       <c r="AJ70">
-        <v>526.1549890216626</v>
+        <v>551.2811292873323</v>
       </c>
       <c r="AK70">
-        <v>25.96263036634773</v>
+        <v>26.40249624270946</v>
       </c>
       <c r="AL70">
-        <v>526.1549890216626</v>
+        <v>551.2811292873323</v>
       </c>
       <c r="AN70">
-        <v>4.432074601035565</v>
+        <v>4.544429623456672</v>
       </c>
       <c r="AO70">
-        <v>4.432074601035565</v>
+        <v>4.544429623456672</v>
       </c>
       <c r="AP70">
-        <v>14.37950947392732</v>
+        <v>15.6135156785883</v>
       </c>
       <c r="AQ70">
-        <v>1.066733890632168</v>
+        <v>1.124677603738382</v>
       </c>
       <c r="AR70">
-        <v>1.066733890632168</v>
+        <v>1.124677603738382</v>
       </c>
       <c r="AS70">
-        <v>208.6571391646564</v>
+        <v>224.3877803584561</v>
       </c>
       <c r="AT70">
-        <v>1132.170541267768</v>
+        <v>1211.574020833299</v>
       </c>
       <c r="AU70">
-        <v>1132.170541267768</v>
+        <v>1211.574020833299</v>
       </c>
       <c r="AV70">
-        <v>1132.170541267768</v>
+        <v>1211.574020833299</v>
       </c>
       <c r="AW70">
-        <v>13.81265972405672</v>
+        <v>13.75366018712521</v>
       </c>
       <c r="AX70">
-        <v>150.4025145620108</v>
+        <v>151.1198314923793</v>
       </c>
       <c r="AY70">
-        <v>5.01814355880022</v>
+        <v>4.972760506421327</v>
       </c>
       <c r="AZ70">
-        <v>188.1288497092128</v>
+        <v>185.2030471046567</v>
       </c>
       <c r="BA70">
-        <v>188.1288497092128</v>
+        <v>185.2030471046567</v>
       </c>
       <c r="BB70">
-        <v>188.1288497092128</v>
+        <v>185.2030471046567</v>
       </c>
       <c r="BC70">
-        <v>188.1288497092128</v>
+        <v>185.2030471046567</v>
       </c>
       <c r="BD70">
-        <v>188.1288497092128</v>
+        <v>185.2030471046567</v>
       </c>
       <c r="BE70">
-        <v>5.01814355880022</v>
+        <v>4.972760506421327</v>
       </c>
     </row>
     <row r="71" spans="1:57">
@@ -5646,73 +5646,73 @@
         <v>67</v>
       </c>
       <c r="AH71">
-        <v>82.58001702383162</v>
+        <v>86.79474751248956</v>
       </c>
       <c r="AI71">
-        <v>127.9566214829683</v>
+        <v>139.8593661420047</v>
       </c>
       <c r="AJ71">
-        <v>1489.914490683451</v>
+        <v>1530.035279196426</v>
       </c>
       <c r="AK71">
-        <v>127.9566214829683</v>
+        <v>139.8593661420047</v>
       </c>
       <c r="AL71">
-        <v>1489.914490683451</v>
+        <v>1530.035279196426</v>
       </c>
       <c r="AN71">
-        <v>27.35663459844887</v>
+        <v>27.99167295109481</v>
       </c>
       <c r="AO71">
-        <v>27.35663459844887</v>
+        <v>27.99167295109481</v>
       </c>
       <c r="AP71">
-        <v>182.8487649159133</v>
+        <v>188.5514367929101</v>
       </c>
       <c r="AQ71">
-        <v>9.322926331870258</v>
+        <v>9.954080538451672</v>
       </c>
       <c r="AR71">
-        <v>9.322926331870258</v>
+        <v>9.954080538451672</v>
       </c>
       <c r="AS71">
-        <v>908.189632204175</v>
+        <v>898.22598473683</v>
       </c>
       <c r="AT71">
-        <v>3165.645268564821</v>
+        <v>3174.076085808873</v>
       </c>
       <c r="AU71">
-        <v>3165.645268564821</v>
+        <v>3174.076085808873</v>
       </c>
       <c r="AV71">
-        <v>3165.645268564821</v>
+        <v>3174.076085808873</v>
       </c>
       <c r="AW71">
-        <v>25.104587200284</v>
+        <v>25.92668635845184</v>
       </c>
       <c r="AX71">
-        <v>860.8514303967356</v>
+        <v>885.2735020026564</v>
       </c>
       <c r="AY71">
-        <v>4.486814143210649</v>
+        <v>4.723041579052805</v>
       </c>
       <c r="AZ71">
-        <v>220.8575356777907</v>
+        <v>223.8124471736551</v>
       </c>
       <c r="BA71">
-        <v>220.8575356777907</v>
+        <v>223.8124471736551</v>
       </c>
       <c r="BB71">
-        <v>220.8575356777907</v>
+        <v>223.8124471736551</v>
       </c>
       <c r="BC71">
-        <v>220.8575356777907</v>
+        <v>223.8124471736551</v>
       </c>
       <c r="BD71">
-        <v>220.8575356777907</v>
+        <v>223.8124471736551</v>
       </c>
       <c r="BE71">
-        <v>4.486814143210649</v>
+        <v>4.723041579052805</v>
       </c>
     </row>
     <row r="72" spans="1:57">
@@ -5720,73 +5720,73 @@
         <v>68</v>
       </c>
       <c r="AH72">
-        <v>12.12657052198425</v>
+        <v>13.98811280122027</v>
       </c>
       <c r="AI72">
-        <v>16.9015228160657</v>
+        <v>15.2970779588446</v>
       </c>
       <c r="AJ72">
-        <v>159.946241059103</v>
+        <v>153.0186887697224</v>
       </c>
       <c r="AK72">
-        <v>16.9015228160657</v>
+        <v>15.2970779588446</v>
       </c>
       <c r="AL72">
-        <v>159.946241059103</v>
+        <v>153.0186887697224</v>
       </c>
       <c r="AN72">
-        <v>3.432808256540448</v>
+        <v>3.391067505558021</v>
       </c>
       <c r="AO72">
-        <v>3.432808256540448</v>
+        <v>3.391067505558021</v>
       </c>
       <c r="AP72">
-        <v>38.0822760284692</v>
+        <v>36.30120203226805</v>
       </c>
       <c r="AQ72">
-        <v>1.902591010485776</v>
+        <v>1.918124681361951</v>
       </c>
       <c r="AR72">
-        <v>1.902591010485776</v>
+        <v>1.918124681361951</v>
       </c>
       <c r="AS72">
-        <v>94.14558300572448</v>
+        <v>89.16462504421361</v>
       </c>
       <c r="AT72">
-        <v>284.2840808640421</v>
+        <v>210.5832067055814</v>
       </c>
       <c r="AU72">
-        <v>284.2840808640421</v>
+        <v>210.5832067055814</v>
       </c>
       <c r="AV72">
-        <v>284.2840808640421</v>
+        <v>210.5832067055814</v>
       </c>
       <c r="AW72">
-        <v>5.659491407871246</v>
+        <v>5.622723040729761</v>
       </c>
       <c r="AX72">
-        <v>37.07372726369649</v>
+        <v>36.43868462974206</v>
       </c>
       <c r="AY72">
-        <v>0.2551628283038735</v>
+        <v>0.2696506427740678</v>
       </c>
       <c r="AZ72">
-        <v>63.77022078104318</v>
+        <v>61.94066436254979</v>
       </c>
       <c r="BA72">
-        <v>63.77022078104318</v>
+        <v>61.94066436254979</v>
       </c>
       <c r="BB72">
-        <v>63.77022078104318</v>
+        <v>61.94066436254979</v>
       </c>
       <c r="BC72">
-        <v>63.77022078104318</v>
+        <v>61.94066436254979</v>
       </c>
       <c r="BD72">
-        <v>63.77022078104318</v>
+        <v>61.94066436254979</v>
       </c>
       <c r="BE72">
-        <v>0.2551628283038735</v>
+        <v>0.2696506427740678</v>
       </c>
     </row>
     <row r="73" spans="1:57">
@@ -5794,73 +5794,73 @@
         <v>69</v>
       </c>
       <c r="AH73">
-        <v>20.19569584663957</v>
+        <v>20.77479004822672</v>
       </c>
       <c r="AI73">
-        <v>4.658376157283783</v>
+        <v>4.852747014700435</v>
       </c>
       <c r="AJ73">
-        <v>45.04365638662479</v>
+        <v>48.24235908871516</v>
       </c>
       <c r="AK73">
-        <v>4.658376157283783</v>
+        <v>4.852747014700435</v>
       </c>
       <c r="AL73">
-        <v>45.04365638662479</v>
+        <v>48.24235908871516</v>
       </c>
       <c r="AN73">
-        <v>3.658679197728634</v>
+        <v>4.100118934209458</v>
       </c>
       <c r="AO73">
-        <v>3.658679197728634</v>
+        <v>4.100118934209458</v>
       </c>
       <c r="AP73">
-        <v>5.007552876747213</v>
+        <v>5.887614787886851</v>
       </c>
       <c r="AQ73">
-        <v>1.805033399374224</v>
+        <v>1.975540813524276</v>
       </c>
       <c r="AR73">
-        <v>1.805033399374224</v>
+        <v>1.975540813524276</v>
       </c>
       <c r="AS73">
-        <v>86.93084141239524</v>
+        <v>94.09361228807829</v>
       </c>
       <c r="AT73">
-        <v>404.7909514588491</v>
+        <v>432.1870895471797</v>
       </c>
       <c r="AU73">
-        <v>404.7909514588491</v>
+        <v>432.1870895471797</v>
       </c>
       <c r="AV73">
-        <v>404.7909514588491</v>
+        <v>432.1870895471797</v>
       </c>
       <c r="AW73">
-        <v>6.744798259437085</v>
+        <v>7.274246802926064</v>
       </c>
       <c r="AX73">
-        <v>43.96498101418837</v>
+        <v>48.43849489577114</v>
       </c>
       <c r="AY73">
-        <v>2.483003831617534</v>
+        <v>2.568719942420721</v>
       </c>
       <c r="AZ73">
-        <v>91.36015177580715</v>
+        <v>96.82042559319736</v>
       </c>
       <c r="BA73">
-        <v>91.36015177580715</v>
+        <v>96.82042559319736</v>
       </c>
       <c r="BB73">
-        <v>91.36015177580715</v>
+        <v>96.82042559319736</v>
       </c>
       <c r="BC73">
-        <v>91.36015177580715</v>
+        <v>96.82042559319736</v>
       </c>
       <c r="BD73">
-        <v>91.36015177580715</v>
+        <v>96.82042559319736</v>
       </c>
       <c r="BE73">
-        <v>2.483003831617534</v>
+        <v>2.568719942420721</v>
       </c>
     </row>
     <row r="74" spans="1:57">
@@ -5868,73 +5868,73 @@
         <v>70</v>
       </c>
       <c r="AH74">
-        <v>7.307339250911028</v>
+        <v>6.972353674806655</v>
       </c>
       <c r="AI74">
-        <v>13.69840459926054</v>
+        <v>12.21744870962575</v>
       </c>
       <c r="AJ74">
-        <v>199.3395090688811</v>
+        <v>199.71937682949</v>
       </c>
       <c r="AK74">
-        <v>13.69840459926054</v>
+        <v>12.21744870962575</v>
       </c>
       <c r="AL74">
-        <v>199.3395090688811</v>
+        <v>199.71937682949</v>
       </c>
       <c r="AN74">
-        <v>18.56679355151951</v>
+        <v>18.19257926173508</v>
       </c>
       <c r="AO74">
-        <v>18.56679355151951</v>
+        <v>18.19257926173508</v>
       </c>
       <c r="AP74">
-        <v>21.40766636753455</v>
+        <v>18.15562672873959</v>
       </c>
       <c r="AQ74">
-        <v>11.34297313652933</v>
+        <v>11.11295016352087</v>
       </c>
       <c r="AR74">
-        <v>11.34297313652933</v>
+        <v>11.11295016352087</v>
       </c>
       <c r="AS74">
-        <v>256.3085316904262</v>
+        <v>263.5501914815977</v>
       </c>
       <c r="AT74">
-        <v>968.3056329841913</v>
+        <v>908.7285465851427</v>
       </c>
       <c r="AU74">
-        <v>968.3056329841913</v>
+        <v>908.7285465851427</v>
       </c>
       <c r="AV74">
-        <v>968.3056329841913</v>
+        <v>908.7285465851427</v>
       </c>
       <c r="AW74">
-        <v>15.95331169366837</v>
+        <v>15.00309596955776</v>
       </c>
       <c r="AX74">
-        <v>162.2239578679204</v>
+        <v>157.2740013517439</v>
       </c>
       <c r="AY74">
-        <v>10.75007495641708</v>
+        <v>10.54452222824097</v>
       </c>
       <c r="AZ74">
-        <v>351.0435078027249</v>
+        <v>341.338813333869</v>
       </c>
       <c r="BA74">
-        <v>351.0435078027249</v>
+        <v>341.338813333869</v>
       </c>
       <c r="BB74">
-        <v>351.0435078027249</v>
+        <v>341.338813333869</v>
       </c>
       <c r="BC74">
-        <v>351.0435078027249</v>
+        <v>341.338813333869</v>
       </c>
       <c r="BD74">
-        <v>351.0435078027249</v>
+        <v>341.338813333869</v>
       </c>
       <c r="BE74">
-        <v>10.75007495641708</v>
+        <v>10.54452222824097</v>
       </c>
     </row>
     <row r="75" spans="1:57">
@@ -5942,73 +5942,73 @@
         <v>71</v>
       </c>
       <c r="AH75">
-        <v>0.601618711395422</v>
+        <v>0.5680094407271827</v>
       </c>
       <c r="AI75">
-        <v>0.9516931460180786</v>
+        <v>0.6389008355734405</v>
       </c>
       <c r="AJ75">
-        <v>23.80405625421961</v>
+        <v>21.40426394213398</v>
       </c>
       <c r="AK75">
-        <v>0.9516931460180786</v>
+        <v>0.6389008355734405</v>
       </c>
       <c r="AL75">
-        <v>23.80405625421961</v>
+        <v>21.40426394213398</v>
       </c>
       <c r="AN75">
-        <v>3.727963994704187</v>
+        <v>3.499278473271989</v>
       </c>
       <c r="AO75">
-        <v>3.727963994704187</v>
+        <v>3.499278473271989</v>
       </c>
       <c r="AP75">
-        <v>3.160279473278206</v>
+        <v>2.967877806534525</v>
       </c>
       <c r="AQ75">
-        <v>2.963227289589122</v>
+        <v>2.793893166305497</v>
       </c>
       <c r="AR75">
-        <v>2.963227289589122</v>
+        <v>2.793893166305497</v>
       </c>
       <c r="AS75">
-        <v>12.93711299578426</v>
+        <v>14.40585431333166</v>
       </c>
       <c r="AT75">
-        <v>87.0773120675143</v>
+        <v>100.455687204795</v>
       </c>
       <c r="AU75">
-        <v>87.0773120675143</v>
+        <v>100.455687204795</v>
       </c>
       <c r="AV75">
-        <v>87.0773120675143</v>
+        <v>100.455687204795</v>
       </c>
       <c r="AW75">
-        <v>2.609629156813026</v>
+        <v>2.471739122271538</v>
       </c>
       <c r="AX75">
-        <v>3.462290843739174</v>
+        <v>3.190947880822932</v>
       </c>
       <c r="AY75">
-        <v>0.3762618554476648</v>
+        <v>0.3704864161368459</v>
       </c>
       <c r="AZ75">
-        <v>83.39902650240064</v>
+        <v>79.33680799412728</v>
       </c>
       <c r="BA75">
-        <v>83.39902650240064</v>
+        <v>79.33680799412728</v>
       </c>
       <c r="BB75">
-        <v>83.39902650240064</v>
+        <v>79.33680799412728</v>
       </c>
       <c r="BC75">
-        <v>83.39902650240064</v>
+        <v>79.33680799412728</v>
       </c>
       <c r="BD75">
-        <v>83.39902650240064</v>
+        <v>79.33680799412728</v>
       </c>
       <c r="BE75">
-        <v>0.3762618554476648</v>
+        <v>0.3704864161368459</v>
       </c>
     </row>
     <row r="76" spans="1:57">
@@ -6016,73 +6016,73 @@
         <v>72</v>
       </c>
       <c r="AH76">
-        <v>13.85764443734661</v>
+        <v>14.58600710416213</v>
       </c>
       <c r="AI76">
-        <v>19.95056011611596</v>
+        <v>20.80613398961723</v>
       </c>
       <c r="AJ76">
-        <v>188.1883556936681</v>
+        <v>203.2207749169506</v>
       </c>
       <c r="AK76">
-        <v>19.95056011611596</v>
+        <v>20.80613398961723</v>
       </c>
       <c r="AL76">
-        <v>188.1883556936681</v>
+        <v>203.2207749169506</v>
       </c>
       <c r="AN76">
-        <v>15.05556329432875</v>
+        <v>15.73506095610559</v>
       </c>
       <c r="AO76">
-        <v>15.05556329432875</v>
+        <v>15.73506095610559</v>
       </c>
       <c r="AP76">
-        <v>24.46613073630258</v>
+        <v>25.33586614327505</v>
       </c>
       <c r="AQ76">
-        <v>4.449329024087637</v>
+        <v>4.656144000031054</v>
       </c>
       <c r="AR76">
-        <v>4.449329024087637</v>
+        <v>4.656144000031054</v>
       </c>
       <c r="AS76">
-        <v>597.0477011181414</v>
+        <v>629.8837321466208</v>
       </c>
       <c r="AT76">
-        <v>2071.345427659303</v>
+        <v>2327.148932623268</v>
       </c>
       <c r="AU76">
-        <v>2071.345427659303</v>
+        <v>2327.148932623268</v>
       </c>
       <c r="AV76">
-        <v>2071.345427659303</v>
+        <v>2327.148932623268</v>
       </c>
       <c r="AW76">
-        <v>38.93565626442432</v>
+        <v>40.31813014149666</v>
       </c>
       <c r="AX76">
-        <v>208.2552911628038</v>
+        <v>221.5278009824455</v>
       </c>
       <c r="AY76">
-        <v>11.39214546427131</v>
+        <v>11.62228437572718</v>
       </c>
       <c r="AZ76">
-        <v>646.3229965324402</v>
+        <v>658.5692046878339</v>
       </c>
       <c r="BA76">
-        <v>646.3229965324402</v>
+        <v>658.5692046878339</v>
       </c>
       <c r="BB76">
-        <v>646.3229965324402</v>
+        <v>658.5692046878339</v>
       </c>
       <c r="BC76">
-        <v>646.3229965324402</v>
+        <v>658.5692046878339</v>
       </c>
       <c r="BD76">
-        <v>646.3229965324402</v>
+        <v>658.5692046878339</v>
       </c>
       <c r="BE76">
-        <v>11.39214546427131</v>
+        <v>11.62228437572718</v>
       </c>
     </row>
     <row r="77" spans="1:57">
@@ -6090,73 +6090,73 @@
         <v>73</v>
       </c>
       <c r="AH77">
-        <v>24.5903088150546</v>
+        <v>22.16415098886937</v>
       </c>
       <c r="AI77">
-        <v>52.28643382675946</v>
+        <v>49.84443322978914</v>
       </c>
       <c r="AJ77">
-        <v>694.5457258093916</v>
+        <v>674.1897927421331</v>
       </c>
       <c r="AK77">
-        <v>52.28643382675946</v>
+        <v>49.84443322978914</v>
       </c>
       <c r="AL77">
-        <v>694.5457258093916</v>
+        <v>674.1897927421331</v>
       </c>
       <c r="AN77">
-        <v>59.48494589842856</v>
+        <v>58.49801138035953</v>
       </c>
       <c r="AO77">
-        <v>59.48494589842856</v>
+        <v>58.49801138035953</v>
       </c>
       <c r="AP77">
-        <v>92.52750127643347</v>
+        <v>90.24182404957712</v>
       </c>
       <c r="AQ77">
-        <v>25.27276641130447</v>
+        <v>24.82541301250458</v>
       </c>
       <c r="AR77">
-        <v>25.27276641130447</v>
+        <v>24.82541301250458</v>
       </c>
       <c r="AS77">
-        <v>1224.262318660319</v>
+        <v>1220.66968123287</v>
       </c>
       <c r="AT77">
-        <v>4145.115404068531</v>
+        <v>3909.166663952172</v>
       </c>
       <c r="AU77">
-        <v>4145.115404068531</v>
+        <v>3909.166663952172</v>
       </c>
       <c r="AV77">
-        <v>4145.115404068531</v>
+        <v>3909.166663952172</v>
       </c>
       <c r="AW77">
-        <v>53.81576367616653</v>
+        <v>51.75319621562958</v>
       </c>
       <c r="AX77">
-        <v>526.0701887235045</v>
+        <v>509.3750439479947</v>
       </c>
       <c r="AY77">
-        <v>26.64478800415992</v>
+        <v>25.97905255854129</v>
       </c>
       <c r="AZ77">
-        <v>1204.293787675143</v>
+        <v>1172.28277120328</v>
       </c>
       <c r="BA77">
-        <v>1204.293787675143</v>
+        <v>1172.28277120328</v>
       </c>
       <c r="BB77">
-        <v>1204.293787675143</v>
+        <v>1172.28277120328</v>
       </c>
       <c r="BC77">
-        <v>1204.293787675143</v>
+        <v>1172.28277120328</v>
       </c>
       <c r="BD77">
-        <v>1204.293787675143</v>
+        <v>1172.28277120328</v>
       </c>
       <c r="BE77">
-        <v>26.64478800415992</v>
+        <v>25.97905255854129</v>
       </c>
     </row>
     <row r="78" spans="1:57">
@@ -6164,73 +6164,73 @@
         <v>74</v>
       </c>
       <c r="AH78">
-        <v>0.4497678949945839</v>
+        <v>0.4406759691750631</v>
       </c>
       <c r="AI78">
-        <v>9.127329872967676</v>
+        <v>7.213819674542174</v>
       </c>
       <c r="AJ78">
-        <v>80.82700926961144</v>
+        <v>74.40975860358914</v>
       </c>
       <c r="AK78">
-        <v>9.127329872967676</v>
+        <v>7.213819674542174</v>
       </c>
       <c r="AL78">
-        <v>80.82700926961144</v>
+        <v>74.40975860358914</v>
       </c>
       <c r="AN78">
-        <v>5.766370668038726</v>
+        <v>5.620547629725189</v>
       </c>
       <c r="AO78">
-        <v>5.766370668038726</v>
+        <v>5.620547629725189</v>
       </c>
       <c r="AP78">
-        <v>12.42110090942122</v>
+        <v>11.42237053900957</v>
       </c>
       <c r="AQ78">
-        <v>6.67573219994083</v>
+        <v>6.340353480260819</v>
       </c>
       <c r="AR78">
-        <v>6.67573219994083</v>
+        <v>6.340353480260819</v>
       </c>
       <c r="AS78">
-        <v>42.51490652150475</v>
+        <v>47.1778669777466</v>
       </c>
       <c r="AT78">
-        <v>151.1782363720797</v>
+        <v>121.1692079006415</v>
       </c>
       <c r="AU78">
-        <v>151.1782363720797</v>
+        <v>121.1692079006415</v>
       </c>
       <c r="AV78">
-        <v>151.1782363720797</v>
+        <v>121.1692079006415</v>
       </c>
       <c r="AW78">
-        <v>9.796898133307696</v>
+        <v>9.171287022531033</v>
       </c>
       <c r="AX78">
-        <v>31.67221261365339</v>
+        <v>30.8258233175613</v>
       </c>
       <c r="AY78">
-        <v>2.20512321665883</v>
+        <v>2.15244241643697</v>
       </c>
       <c r="AZ78">
-        <v>100.3765526088476</v>
+        <v>94.26668654054404</v>
       </c>
       <c r="BA78">
-        <v>100.3765526088476</v>
+        <v>94.26668654054404</v>
       </c>
       <c r="BB78">
-        <v>100.3765526088476</v>
+        <v>94.26668654054404</v>
       </c>
       <c r="BC78">
-        <v>100.3765526088476</v>
+        <v>94.26668654054404</v>
       </c>
       <c r="BD78">
-        <v>100.3765526088476</v>
+        <v>94.26668654054404</v>
       </c>
       <c r="BE78">
-        <v>2.20512321665883</v>
+        <v>2.15244241643697</v>
       </c>
     </row>
     <row r="79" spans="1:57">
@@ -6238,73 +6238,73 @@
         <v>75</v>
       </c>
       <c r="AH79">
-        <v>11.2832838165015</v>
+        <v>10.65145417792723</v>
       </c>
       <c r="AI79">
-        <v>4.088546174857766</v>
+        <v>4.660319383302704</v>
       </c>
       <c r="AJ79">
-        <v>37.01303481577663</v>
+        <v>39.81580099688144</v>
       </c>
       <c r="AK79">
-        <v>4.088546174857766</v>
+        <v>4.660319383302704</v>
       </c>
       <c r="AL79">
-        <v>37.01303481577663</v>
+        <v>39.81580099688144</v>
       </c>
       <c r="AN79">
-        <v>2.479228200144135</v>
+        <v>2.638983073509298</v>
       </c>
       <c r="AO79">
-        <v>2.479228200144135</v>
+        <v>2.638983073509298</v>
       </c>
       <c r="AP79">
-        <v>2.493765170674306</v>
+        <v>2.937615607588086</v>
       </c>
       <c r="AQ79">
-        <v>1.196790882037021</v>
+        <v>1.239205213543028</v>
       </c>
       <c r="AR79">
-        <v>1.196790882037021</v>
+        <v>1.239205213543028</v>
       </c>
       <c r="AS79">
-        <v>57.29072296076454</v>
+        <v>64.8387075754907</v>
       </c>
       <c r="AT79">
-        <v>382.648740320392</v>
+        <v>415.808921625279</v>
       </c>
       <c r="AU79">
-        <v>382.648740320392</v>
+        <v>415.808921625279</v>
       </c>
       <c r="AV79">
-        <v>382.648740320392</v>
+        <v>415.808921625279</v>
       </c>
       <c r="AW79">
-        <v>6.730584502965212</v>
+        <v>7.183363182842732</v>
       </c>
       <c r="AX79">
-        <v>95.32857898697256</v>
+        <v>100.2953584484756</v>
       </c>
       <c r="AY79">
-        <v>4.416727090328932</v>
+        <v>4.522884311899542</v>
       </c>
       <c r="AZ79">
-        <v>201.1721370059848</v>
+        <v>203.228815502882</v>
       </c>
       <c r="BA79">
-        <v>201.1721370059848</v>
+        <v>203.228815502882</v>
       </c>
       <c r="BB79">
-        <v>201.1721370059848</v>
+        <v>203.228815502882</v>
       </c>
       <c r="BC79">
-        <v>201.1721370059848</v>
+        <v>203.228815502882</v>
       </c>
       <c r="BD79">
-        <v>201.1721370059848</v>
+        <v>203.228815502882</v>
       </c>
       <c r="BE79">
-        <v>4.416727090328932</v>
+        <v>4.522884311899542</v>
       </c>
     </row>
     <row r="80" spans="1:57">
@@ -6312,73 +6312,73 @@
         <v>76</v>
       </c>
       <c r="AH80">
-        <v>12.11434977805242</v>
+        <v>13.45798746185377</v>
       </c>
       <c r="AI80">
-        <v>13.48438005382195</v>
+        <v>14.08343166541308</v>
       </c>
       <c r="AJ80">
-        <v>238.3949724503886</v>
+        <v>243.6396059985738</v>
       </c>
       <c r="AK80">
-        <v>13.48438005382195</v>
+        <v>14.08343166541308</v>
       </c>
       <c r="AL80">
-        <v>238.3949724503886</v>
+        <v>243.6396059985738</v>
       </c>
       <c r="AN80">
-        <v>21.09457629527897</v>
+        <v>21.23328398842365</v>
       </c>
       <c r="AO80">
-        <v>21.09457629527897</v>
+        <v>21.23328398842365</v>
       </c>
       <c r="AP80">
-        <v>29.99180235628039</v>
+        <v>29.97947199227288</v>
       </c>
       <c r="AQ80">
-        <v>10.00633736718446</v>
+        <v>10.14648030120879</v>
       </c>
       <c r="AR80">
-        <v>10.00633736718446</v>
+        <v>10.14648030120879</v>
       </c>
       <c r="AS80">
-        <v>453.513553744331</v>
+        <v>456.9800567036122</v>
       </c>
       <c r="AT80">
-        <v>2402.161853535325</v>
+        <v>2217.601935847849</v>
       </c>
       <c r="AU80">
-        <v>2402.161853535325</v>
+        <v>2217.601935847849</v>
       </c>
       <c r="AV80">
-        <v>2402.161853535325</v>
+        <v>2217.601935847849</v>
       </c>
       <c r="AW80">
-        <v>20.51861240714788</v>
+        <v>20.47749817073345</v>
       </c>
       <c r="AX80">
-        <v>153.9303804054856</v>
+        <v>158.8606877215207</v>
       </c>
       <c r="AY80">
-        <v>7.195476815402507</v>
+        <v>7.524771695435047</v>
       </c>
       <c r="AZ80">
-        <v>440.5391899815799</v>
+        <v>471.0361390480996</v>
       </c>
       <c r="BA80">
-        <v>440.5391899815799</v>
+        <v>471.0361390480996</v>
       </c>
       <c r="BB80">
-        <v>440.5391899815799</v>
+        <v>471.0361390480996</v>
       </c>
       <c r="BC80">
-        <v>440.5391899815799</v>
+        <v>471.0361390480996</v>
       </c>
       <c r="BD80">
-        <v>440.5391899815799</v>
+        <v>471.0361390480996</v>
       </c>
       <c r="BE80">
-        <v>7.195476815402507</v>
+        <v>7.524771695435047</v>
       </c>
     </row>
     <row r="81" spans="1:81">
@@ -6386,73 +6386,73 @@
         <v>77</v>
       </c>
       <c r="AH81">
-        <v>2.714177616508678</v>
+        <v>3.037352387174033</v>
       </c>
       <c r="AI81">
-        <v>2.50873473623069</v>
+        <v>2.217408262763638</v>
       </c>
       <c r="AJ81">
-        <v>50.32512200158322</v>
+        <v>52.46461887568468</v>
       </c>
       <c r="AK81">
-        <v>2.50873473623069</v>
+        <v>2.217408262763638</v>
       </c>
       <c r="AL81">
-        <v>50.32512200158322</v>
+        <v>52.46461887568468</v>
       </c>
       <c r="AN81">
-        <v>2.694804817461409</v>
+        <v>2.566478029908613</v>
       </c>
       <c r="AO81">
-        <v>2.694804817461409</v>
+        <v>2.566478029908613</v>
       </c>
       <c r="AP81">
-        <v>5.961855987883173</v>
+        <v>6.34865314183291</v>
       </c>
       <c r="AQ81">
-        <v>3.61652621650137</v>
+        <v>3.550646647298708</v>
       </c>
       <c r="AR81">
-        <v>3.61652621650137</v>
+        <v>3.550646647298708</v>
       </c>
       <c r="AS81">
-        <v>37.5595741965808</v>
+        <v>35.47821828959975</v>
       </c>
       <c r="AT81">
-        <v>301.6063246752508</v>
+        <v>304.7823744788766</v>
       </c>
       <c r="AU81">
-        <v>301.6063246752508</v>
+        <v>304.7823744788766</v>
       </c>
       <c r="AV81">
-        <v>301.6063246752508</v>
+        <v>304.7823744788766</v>
       </c>
       <c r="AW81">
-        <v>5.515517091006041</v>
+        <v>5.122214941680432</v>
       </c>
       <c r="AX81">
-        <v>37.27662544269115</v>
+        <v>35.88583554206416</v>
       </c>
       <c r="AY81">
-        <v>1.983568638414144</v>
+        <v>2.002981155142188</v>
       </c>
       <c r="AZ81">
-        <v>81.64394999697805</v>
+        <v>80.71584402132035</v>
       </c>
       <c r="BA81">
-        <v>81.64394999697805</v>
+        <v>80.71584402132035</v>
       </c>
       <c r="BB81">
-        <v>81.64394999697805</v>
+        <v>80.71584402132035</v>
       </c>
       <c r="BC81">
-        <v>81.64394999697805</v>
+        <v>80.71584402132035</v>
       </c>
       <c r="BD81">
-        <v>81.64394999697805</v>
+        <v>80.71584402132035</v>
       </c>
       <c r="BE81">
-        <v>1.983568638414144</v>
+        <v>2.002981155142188</v>
       </c>
     </row>
     <row r="82" spans="1:81">

--- a/excel_files/output.xlsx
+++ b/excel_files/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5544" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5472" uniqueCount="85">
   <si>
     <t>AT</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Labour 233</t>
   </si>
   <si>
-    <t>Labour</t>
-  </si>
-  <si>
     <t>Capital</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>tax_com</t>
+  </si>
+  <si>
+    <t>Labour</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1848"/>
+  <dimension ref="A1:D1824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17750,7 +17750,7 @@
         <v>57</v>
       </c>
       <c r="C1225" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1225">
         <v>131530.1</v>
@@ -17764,7 +17764,7 @@
         <v>57</v>
       </c>
       <c r="C1226" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1226">
         <v>112199.01</v>
@@ -17792,7 +17792,7 @@
         <v>58</v>
       </c>
       <c r="C1228" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1228">
         <v>4774.3</v>
@@ -17806,7 +17806,7 @@
         <v>58</v>
       </c>
       <c r="C1229" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1229">
         <v>9930.33</v>
@@ -24781,7 +24781,7 @@
         <v>33</v>
       </c>
       <c r="D1727">
-        <v>606.71</v>
+        <v>5167.79</v>
       </c>
     </row>
     <row r="1728" spans="1:4">
@@ -24795,7 +24795,7 @@
         <v>34</v>
       </c>
       <c r="D1728">
-        <v>2.48</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="1729" spans="1:4">
@@ -24809,7 +24809,7 @@
         <v>35</v>
       </c>
       <c r="D1729">
-        <v>288.04</v>
+        <v>673.79</v>
       </c>
     </row>
     <row r="1730" spans="1:4">
@@ -24823,7 +24823,7 @@
         <v>36</v>
       </c>
       <c r="D1730">
-        <v>1467.42</v>
+        <v>1611.53</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -24837,7 +24837,7 @@
         <v>37</v>
       </c>
       <c r="D1731">
-        <v>25315.67</v>
+        <v>19997.65</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -24851,7 +24851,7 @@
         <v>38</v>
       </c>
       <c r="D1732">
-        <v>496.89</v>
+        <v>723.73</v>
       </c>
     </row>
     <row r="1733" spans="1:4">
@@ -24865,7 +24865,7 @@
         <v>39</v>
       </c>
       <c r="D1733">
-        <v>115.12</v>
+        <v>67.78</v>
       </c>
     </row>
     <row r="1734" spans="1:4">
@@ -24879,7 +24879,7 @@
         <v>40</v>
       </c>
       <c r="D1734">
-        <v>464.11</v>
+        <v>703.41</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -24893,7 +24893,7 @@
         <v>41</v>
       </c>
       <c r="D1735">
-        <v>1077.97</v>
+        <v>2397.43</v>
       </c>
     </row>
     <row r="1736" spans="1:4">
@@ -24907,7 +24907,7 @@
         <v>42</v>
       </c>
       <c r="D1736">
-        <v>238.76</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -24921,7 +24921,7 @@
         <v>43</v>
       </c>
       <c r="D1737">
-        <v>10.19</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="1738" spans="1:4">
@@ -24935,7 +24935,7 @@
         <v>44</v>
       </c>
       <c r="D1738">
-        <v>6546.59</v>
+        <v>5650.28</v>
       </c>
     </row>
     <row r="1739" spans="1:4">
@@ -24949,7 +24949,7 @@
         <v>45</v>
       </c>
       <c r="D1739">
-        <v>9171.24</v>
+        <v>7547.66</v>
       </c>
     </row>
     <row r="1740" spans="1:4">
@@ -24963,7 +24963,7 @@
         <v>46</v>
       </c>
       <c r="D1740">
-        <v>16888.18</v>
+        <v>13791.83</v>
       </c>
     </row>
     <row r="1741" spans="1:4">
@@ -24977,7 +24977,7 @@
         <v>47</v>
       </c>
       <c r="D1741">
-        <v>39974.96</v>
+        <v>47294.49</v>
       </c>
     </row>
     <row r="1742" spans="1:4">
@@ -24991,7 +24991,7 @@
         <v>48</v>
       </c>
       <c r="D1742">
-        <v>350.8</v>
+        <v>941.97</v>
       </c>
     </row>
     <row r="1743" spans="1:4">
@@ -25005,7 +25005,7 @@
         <v>49</v>
       </c>
       <c r="D1743">
-        <v>3612.7</v>
+        <v>1072.71</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -25019,7 +25019,7 @@
         <v>50</v>
       </c>
       <c r="D1744">
-        <v>172.44</v>
+        <v>208.05</v>
       </c>
     </row>
     <row r="1745" spans="1:4">
@@ -25033,7 +25033,7 @@
         <v>51</v>
       </c>
       <c r="D1745">
-        <v>1.93</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="1746" spans="1:4">
@@ -25047,7 +25047,7 @@
         <v>52</v>
       </c>
       <c r="D1746">
-        <v>14.36</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="1747" spans="1:4">
@@ -25061,7 +25061,7 @@
         <v>53</v>
       </c>
       <c r="D1747">
-        <v>507.79</v>
+        <v>397.37</v>
       </c>
     </row>
     <row r="1748" spans="1:4">
@@ -25075,7 +25075,7 @@
         <v>54</v>
       </c>
       <c r="D1748">
-        <v>23024.77</v>
+        <v>2884.17</v>
       </c>
     </row>
     <row r="1749" spans="1:4">
@@ -25089,7 +25089,7 @@
         <v>55</v>
       </c>
       <c r="D1749">
-        <v>1162.91</v>
+        <v>936.51</v>
       </c>
     </row>
     <row r="1750" spans="1:4">
@@ -25103,7 +25103,7 @@
         <v>56</v>
       </c>
       <c r="D1750">
-        <v>18.08</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="1751" spans="1:4">
@@ -25117,7 +25117,7 @@
         <v>33</v>
       </c>
       <c r="D1751">
-        <v>5167.79</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="1752" spans="1:4">
@@ -25128,10 +25128,10 @@
         <v>82</v>
       </c>
       <c r="C1752" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1752">
-        <v>7.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="1753" spans="1:4">
@@ -25142,10 +25142,10 @@
         <v>82</v>
       </c>
       <c r="C1753" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1753">
-        <v>673.79</v>
+        <v>50.76</v>
       </c>
     </row>
     <row r="1754" spans="1:4">
@@ -25156,10 +25156,10 @@
         <v>82</v>
       </c>
       <c r="C1754" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1754">
-        <v>1611.53</v>
+        <v>660.9299999999999</v>
       </c>
     </row>
     <row r="1755" spans="1:4">
@@ -25170,10 +25170,10 @@
         <v>82</v>
       </c>
       <c r="C1755" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1755">
-        <v>19997.65</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="1756" spans="1:4">
@@ -25184,10 +25184,10 @@
         <v>82</v>
       </c>
       <c r="C1756" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1756">
-        <v>723.73</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="1757" spans="1:4">
@@ -25198,10 +25198,10 @@
         <v>82</v>
       </c>
       <c r="C1757" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1757">
-        <v>67.78</v>
+        <v>30.73</v>
       </c>
     </row>
     <row r="1758" spans="1:4">
@@ -25212,10 +25212,10 @@
         <v>82</v>
       </c>
       <c r="C1758" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1758">
-        <v>703.41</v>
+        <v>96.58</v>
       </c>
     </row>
     <row r="1759" spans="1:4">
@@ -25226,10 +25226,10 @@
         <v>82</v>
       </c>
       <c r="C1759" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1759">
-        <v>2397.43</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="1760" spans="1:4">
@@ -25240,10 +25240,10 @@
         <v>82</v>
       </c>
       <c r="C1760" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1760">
-        <v>79.59999999999999</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="1761" spans="1:4">
@@ -25254,10 +25254,10 @@
         <v>82</v>
       </c>
       <c r="C1761" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1761">
-        <v>6.37</v>
+        <v>268.63</v>
       </c>
     </row>
     <row r="1762" spans="1:4">
@@ -25268,10 +25268,10 @@
         <v>82</v>
       </c>
       <c r="C1762" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1762">
-        <v>5650.28</v>
+        <v>397.03</v>
       </c>
     </row>
     <row r="1763" spans="1:4">
@@ -25282,10 +25282,10 @@
         <v>82</v>
       </c>
       <c r="C1763" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1763">
-        <v>7547.66</v>
+        <v>664.72</v>
       </c>
     </row>
     <row r="1764" spans="1:4">
@@ -25296,10 +25296,10 @@
         <v>82</v>
       </c>
       <c r="C1764" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1764">
-        <v>13791.83</v>
+        <v>1652.9</v>
       </c>
     </row>
     <row r="1765" spans="1:4">
@@ -25310,10 +25310,10 @@
         <v>82</v>
       </c>
       <c r="C1765" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1765">
-        <v>47294.49</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="1766" spans="1:4">
@@ -25324,10 +25324,10 @@
         <v>82</v>
       </c>
       <c r="C1766" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1766">
-        <v>941.97</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="1767" spans="1:4">
@@ -25338,10 +25338,10 @@
         <v>82</v>
       </c>
       <c r="C1767" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1767">
-        <v>1072.71</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="1768" spans="1:4">
@@ -25352,10 +25352,10 @@
         <v>82</v>
       </c>
       <c r="C1768" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D1768">
-        <v>208.05</v>
+        <v>820.11</v>
       </c>
     </row>
     <row r="1769" spans="1:4">
@@ -25366,10 +25366,10 @@
         <v>82</v>
       </c>
       <c r="C1769" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D1769">
-        <v>2.61</v>
+        <v>59.18</v>
       </c>
     </row>
     <row r="1770" spans="1:4">
@@ -25380,10 +25380,10 @@
         <v>82</v>
       </c>
       <c r="C1770" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1770">
-        <v>20.59</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -25391,13 +25391,13 @@
         <v>0</v>
       </c>
       <c r="B1771" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1771" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D1771">
-        <v>397.37</v>
+        <v>227.52</v>
       </c>
     </row>
     <row r="1772" spans="1:4">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="B1772" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1772" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D1772">
-        <v>2884.17</v>
+        <v>74.33</v>
       </c>
     </row>
     <row r="1773" spans="1:4">
@@ -25419,13 +25419,13 @@
         <v>0</v>
       </c>
       <c r="B1773" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1773" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1773">
-        <v>936.51</v>
+        <v>2319.47</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="B1774" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1774" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D1774">
-        <v>14.56</v>
+        <v>186.97</v>
       </c>
     </row>
     <row r="1775" spans="1:4">
@@ -25450,10 +25450,10 @@
         <v>83</v>
       </c>
       <c r="C1775" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D1775">
-        <v>7.28</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="1776" spans="1:4">
@@ -25464,10 +25464,10 @@
         <v>83</v>
       </c>
       <c r="C1776" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D1776">
-        <v>0.16</v>
+        <v>109.87</v>
       </c>
     </row>
     <row r="1777" spans="1:4">
@@ -25478,10 +25478,10 @@
         <v>83</v>
       </c>
       <c r="C1777" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D1777">
-        <v>50.76</v>
+        <v>99.19</v>
       </c>
     </row>
     <row r="1778" spans="1:4">
@@ -25492,10 +25492,10 @@
         <v>83</v>
       </c>
       <c r="C1778" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D1778">
-        <v>660.9299999999999</v>
+        <v>558.99</v>
       </c>
     </row>
     <row r="1779" spans="1:4">
@@ -25506,10 +25506,10 @@
         <v>83</v>
       </c>
       <c r="C1779" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D1779">
-        <v>15.33</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="1780" spans="1:4">
@@ -25520,10 +25520,10 @@
         <v>83</v>
       </c>
       <c r="C1780" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D1780">
-        <v>7.13</v>
+        <v>433.29</v>
       </c>
     </row>
     <row r="1781" spans="1:4">
@@ -25534,10 +25534,10 @@
         <v>83</v>
       </c>
       <c r="C1781" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D1781">
-        <v>30.73</v>
+        <v>580.78</v>
       </c>
     </row>
     <row r="1782" spans="1:4">
@@ -25548,10 +25548,10 @@
         <v>83</v>
       </c>
       <c r="C1782" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D1782">
-        <v>96.58</v>
+        <v>765.54</v>
       </c>
     </row>
     <row r="1783" spans="1:4">
@@ -25562,10 +25562,10 @@
         <v>83</v>
       </c>
       <c r="C1783" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D1783">
-        <v>13.3</v>
+        <v>3251.01</v>
       </c>
     </row>
     <row r="1784" spans="1:4">
@@ -25576,10 +25576,10 @@
         <v>83</v>
       </c>
       <c r="C1784" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D1784">
-        <v>0.71</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -25590,10 +25590,10 @@
         <v>83</v>
       </c>
       <c r="C1785" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D1785">
-        <v>268.63</v>
+        <v>216.04</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -25604,10 +25604,10 @@
         <v>83</v>
       </c>
       <c r="C1786" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D1786">
-        <v>397.03</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="1787" spans="1:4">
@@ -25618,10 +25618,10 @@
         <v>83</v>
       </c>
       <c r="C1787" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D1787">
-        <v>664.72</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="1788" spans="1:4">
@@ -25632,10 +25632,10 @@
         <v>83</v>
       </c>
       <c r="C1788" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D1788">
-        <v>1652.9</v>
+        <v>174.74</v>
       </c>
     </row>
     <row r="1789" spans="1:4">
@@ -25646,10 +25646,10 @@
         <v>83</v>
       </c>
       <c r="C1789" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D1789">
-        <v>0.09</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="1790" spans="1:4">
@@ -25660,10 +25660,10 @@
         <v>83</v>
       </c>
       <c r="C1790" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D1790">
-        <v>0.63</v>
+        <v>42.26</v>
       </c>
     </row>
     <row r="1791" spans="1:4">
@@ -25674,10 +25674,10 @@
         <v>83</v>
       </c>
       <c r="C1791" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D1791">
-        <v>27.2</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="1792" spans="1:4">
@@ -25688,10 +25688,10 @@
         <v>83</v>
       </c>
       <c r="C1792" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D1792">
-        <v>820.11</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="1793" spans="1:4">
@@ -25702,10 +25702,10 @@
         <v>83</v>
       </c>
       <c r="C1793" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D1793">
-        <v>59.18</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="1794" spans="1:4">
@@ -25716,10 +25716,10 @@
         <v>83</v>
       </c>
       <c r="C1794" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D1794">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="1795" spans="1:4">
@@ -25727,13 +25727,13 @@
         <v>0</v>
       </c>
       <c r="B1795" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1795" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1795">
-        <v>227.52</v>
+        <v>117.44</v>
       </c>
     </row>
     <row r="1796" spans="1:4">
@@ -25741,13 +25741,13 @@
         <v>0</v>
       </c>
       <c r="B1796" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1796" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1796">
-        <v>74.33</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="1797" spans="1:4">
@@ -25755,13 +25755,13 @@
         <v>0</v>
       </c>
       <c r="B1797" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1797" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D1797">
-        <v>2319.47</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="1798" spans="1:4">
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="B1798" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1798" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D1798">
-        <v>186.97</v>
+        <v>330.19</v>
       </c>
     </row>
     <row r="1799" spans="1:4">
@@ -25783,13 +25783,13 @@
         <v>0</v>
       </c>
       <c r="B1799" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1799" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D1799">
-        <v>5.96</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="1800" spans="1:4">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="B1800" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1800" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D1800">
-        <v>109.87</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -25811,13 +25811,13 @@
         <v>0</v>
       </c>
       <c r="B1801" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1801" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D1801">
-        <v>99.19</v>
+        <v>92.26000000000001</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -25825,13 +25825,13 @@
         <v>0</v>
       </c>
       <c r="B1802" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1802" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D1802">
-        <v>558.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1803" spans="1:4">
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="B1803" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1803" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D1803">
-        <v>41.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1804" spans="1:4">
@@ -25853,13 +25853,13 @@
         <v>0</v>
       </c>
       <c r="B1804" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1804" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1804">
-        <v>433.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1805" spans="1:4">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="B1805" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1805" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D1805">
-        <v>580.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1806" spans="1:4">
@@ -25881,13 +25881,13 @@
         <v>0</v>
       </c>
       <c r="B1806" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1806" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D1806">
-        <v>765.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1807" spans="1:4">
@@ -25895,13 +25895,13 @@
         <v>0</v>
       </c>
       <c r="B1807" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1807" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D1807">
-        <v>3251.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1808" spans="1:4">
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="B1808" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1808" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D1808">
-        <v>53.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1809" spans="1:4">
@@ -25923,13 +25923,13 @@
         <v>0</v>
       </c>
       <c r="B1809" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1809" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D1809">
-        <v>216.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1810" spans="1:4">
@@ -25937,13 +25937,13 @@
         <v>0</v>
       </c>
       <c r="B1810" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1810" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D1810">
-        <v>5.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1811" spans="1:4">
@@ -25951,13 +25951,13 @@
         <v>0</v>
       </c>
       <c r="B1811" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1811" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D1811">
-        <v>76.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1812" spans="1:4">
@@ -25965,13 +25965,13 @@
         <v>0</v>
       </c>
       <c r="B1812" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1812" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D1812">
-        <v>174.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1813" spans="1:4">
@@ -25979,13 +25979,13 @@
         <v>0</v>
       </c>
       <c r="B1813" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1813" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D1813">
-        <v>21.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1814" spans="1:4">
@@ -25993,13 +25993,13 @@
         <v>0</v>
       </c>
       <c r="B1814" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1814" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D1814">
-        <v>42.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1815" spans="1:4">
@@ -26007,13 +26007,13 @@
         <v>0</v>
       </c>
       <c r="B1815" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1815" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D1815">
-        <v>51.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26021,13 +26021,13 @@
         <v>0</v>
       </c>
       <c r="B1816" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1816" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D1816">
-        <v>19.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1817" spans="1:4">
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="B1817" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1817" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D1817">
-        <v>19.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1818" spans="1:4">
@@ -26049,13 +26049,13 @@
         <v>0</v>
       </c>
       <c r="B1818" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1818" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D1818">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819" spans="1:4">
@@ -26063,13 +26063,13 @@
         <v>0</v>
       </c>
       <c r="B1819" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1819" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D1819">
-        <v>117.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="B1820" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1820" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D1820">
-        <v>12.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1821" spans="1:4">
@@ -26091,13 +26091,13 @@
         <v>0</v>
       </c>
       <c r="B1821" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1821" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D1821">
-        <v>4.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26105,13 +26105,13 @@
         <v>0</v>
       </c>
       <c r="B1822" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1822" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D1822">
-        <v>330.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -26119,13 +26119,13 @@
         <v>0</v>
       </c>
       <c r="B1823" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1823" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D1823">
-        <v>33.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824" spans="1:4">
@@ -26133,348 +26133,12 @@
         <v>0</v>
       </c>
       <c r="B1824" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1824" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D1824">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:4">
-      <c r="A1825" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1825" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1825" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1825">
-        <v>92.26000000000001</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:4">
-      <c r="A1826" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1826" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1826" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1826">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:4">
-      <c r="A1827" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1827" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1827" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1827">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:4">
-      <c r="A1828" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1828" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1828" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1828">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:4">
-      <c r="A1829" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1829" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1829" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1829">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:4">
-      <c r="A1830" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1830" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1830" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1830">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:4">
-      <c r="A1831" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1831" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1831" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1831">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:4">
-      <c r="A1832" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1832" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1832" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1832">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:4">
-      <c r="A1833" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1833" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1833" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1833">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:4">
-      <c r="A1834" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1834" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1834" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1834">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:4">
-      <c r="A1835" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1835" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1835" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1835">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:4">
-      <c r="A1836" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1836" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1836" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1836">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:4">
-      <c r="A1837" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1837" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1837" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1837">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:4">
-      <c r="A1838" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1838" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1838" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1838">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:4">
-      <c r="A1839" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1839" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1839" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1839">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:4">
-      <c r="A1840" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1840" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1840" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1840">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:4">
-      <c r="A1841" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1841" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1841" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1841">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:4">
-      <c r="A1842" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1842" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1842" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1842">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:4">
-      <c r="A1843" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1843" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1843" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1843">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:4">
-      <c r="A1844" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1844" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1844" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1844">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:4">
-      <c r="A1845" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1845" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1845" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1845">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:4">
-      <c r="A1846" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1846" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1846" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1846">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:4">
-      <c r="A1847" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1847" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1847" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1847">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:4">
-      <c r="A1848" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1848" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1848" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1848">
         <v>0</v>
       </c>
     </row>

--- a/excel_files/output.xlsx
+++ b/excel_files/output.xlsx
@@ -18699,13 +18699,13 @@
         <v>0</v>
       </c>
       <c r="B1293" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1293" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D1293">
-        <v>219.64</v>
+        <v>0.2805412496626377</v>
       </c>
     </row>
     <row r="1294" spans="1:4">
@@ -18713,13 +18713,13 @@
         <v>0</v>
       </c>
       <c r="B1294" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1294" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D1294">
-        <v>0.67</v>
+        <v>7.885285692685284</v>
       </c>
     </row>
     <row r="1295" spans="1:4">
@@ -18730,10 +18730,10 @@
         <v>63</v>
       </c>
       <c r="C1295" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1295">
-        <v>0.2805412496626377</v>
+        <v>148.4871272200998</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -18744,10 +18744,10 @@
         <v>63</v>
       </c>
       <c r="C1296" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1296">
-        <v>7.885285692685284</v>
+        <v>5.5726630176045</v>
       </c>
     </row>
     <row r="1297" spans="1:4">
@@ -18758,10 +18758,10 @@
         <v>63</v>
       </c>
       <c r="C1297" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1297">
-        <v>148.4871272200998</v>
+        <v>0.1575916046649218</v>
       </c>
     </row>
     <row r="1298" spans="1:4">
@@ -18772,10 +18772,10 @@
         <v>63</v>
       </c>
       <c r="C1298" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1298">
-        <v>5.5726630176045</v>
+        <v>0.02118048725649714</v>
       </c>
     </row>
     <row r="1299" spans="1:4">
@@ -18786,10 +18786,10 @@
         <v>63</v>
       </c>
       <c r="C1299" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1299">
-        <v>0.1575916046649218</v>
+        <v>1.892416177466512</v>
       </c>
     </row>
     <row r="1300" spans="1:4">
@@ -18800,10 +18800,10 @@
         <v>63</v>
       </c>
       <c r="C1300" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1300">
-        <v>0.02118048725649714</v>
+        <v>39.64701881427317</v>
       </c>
     </row>
     <row r="1301" spans="1:4">
@@ -18814,10 +18814,10 @@
         <v>63</v>
       </c>
       <c r="C1301" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1301">
-        <v>1.892416177466512</v>
+        <v>3.849800481647253</v>
       </c>
     </row>
     <row r="1302" spans="1:4">
@@ -18828,10 +18828,10 @@
         <v>63</v>
       </c>
       <c r="C1302" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1302">
-        <v>39.64701881427317</v>
+        <v>310.6549927990883</v>
       </c>
     </row>
     <row r="1303" spans="1:4">
@@ -18842,10 +18842,10 @@
         <v>63</v>
       </c>
       <c r="C1303" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1303">
-        <v>3.849800481647253</v>
+        <v>208.9821668418311</v>
       </c>
     </row>
     <row r="1304" spans="1:4">
@@ -18856,10 +18856,10 @@
         <v>63</v>
       </c>
       <c r="C1304" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1304">
-        <v>310.6549927990883</v>
+        <v>143.5814315025508</v>
       </c>
     </row>
     <row r="1305" spans="1:4">
@@ -18870,10 +18870,10 @@
         <v>63</v>
       </c>
       <c r="C1305" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1305">
-        <v>208.9821668418311</v>
+        <v>50.87511955755763</v>
       </c>
     </row>
     <row r="1306" spans="1:4">
@@ -18884,10 +18884,10 @@
         <v>63</v>
       </c>
       <c r="C1306" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1306">
-        <v>143.5814315025508</v>
+        <v>0.06909482351038605</v>
       </c>
     </row>
     <row r="1307" spans="1:4">
@@ -18898,10 +18898,10 @@
         <v>63</v>
       </c>
       <c r="C1307" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1307">
-        <v>50.87511955755763</v>
+        <v>8.003716850578785</v>
       </c>
     </row>
     <row r="1308" spans="1:4">
@@ -18912,10 +18912,10 @@
         <v>63</v>
       </c>
       <c r="C1308" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1308">
-        <v>0.06909482351038605</v>
+        <v>36.13572898901999</v>
       </c>
     </row>
     <row r="1309" spans="1:4">
@@ -18926,10 +18926,10 @@
         <v>63</v>
       </c>
       <c r="C1309" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1309">
-        <v>8.003716850578785</v>
+        <v>15.55790344916284</v>
       </c>
     </row>
     <row r="1310" spans="1:4">
@@ -18940,10 +18940,10 @@
         <v>63</v>
       </c>
       <c r="C1310" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1310">
-        <v>36.13572898901999</v>
+        <v>3.859054631590843</v>
       </c>
     </row>
     <row r="1311" spans="1:4">
@@ -18954,10 +18954,10 @@
         <v>63</v>
       </c>
       <c r="C1311" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1311">
-        <v>15.55790344916284</v>
+        <v>7.71007420049049</v>
       </c>
     </row>
     <row r="1312" spans="1:4">
@@ -18968,10 +18968,10 @@
         <v>63</v>
       </c>
       <c r="C1312" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1312">
-        <v>3.859054631590843</v>
+        <v>487.9131948327273</v>
       </c>
     </row>
     <row r="1313" spans="1:4">
@@ -18982,10 +18982,10 @@
         <v>63</v>
       </c>
       <c r="C1313" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1313">
-        <v>7.71007420049049</v>
+        <v>22.76946020906791</v>
       </c>
     </row>
     <row r="1314" spans="1:4">
@@ -18996,10 +18996,10 @@
         <v>63</v>
       </c>
       <c r="C1314" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1314">
-        <v>487.9131948327273</v>
+        <v>4.469419333674014</v>
       </c>
     </row>
     <row r="1315" spans="1:4">
@@ -19010,10 +19010,10 @@
         <v>63</v>
       </c>
       <c r="C1315" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1315">
-        <v>22.76946020906791</v>
+        <v>0.03848132185637951</v>
       </c>
     </row>
     <row r="1316" spans="1:4">
@@ -19024,10 +19024,10 @@
         <v>63</v>
       </c>
       <c r="C1316" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1316">
-        <v>4.469419333674014</v>
+        <v>9.080781199447811</v>
       </c>
     </row>
     <row r="1317" spans="1:4">
@@ -19035,13 +19035,13 @@
         <v>0</v>
       </c>
       <c r="B1317" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1317" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1317">
-        <v>0.03848132185637951</v>
+        <v>1.768106563091278</v>
       </c>
     </row>
     <row r="1318" spans="1:4">
@@ -19049,13 +19049,13 @@
         <v>0</v>
       </c>
       <c r="B1318" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1318" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1318">
-        <v>9.080781199447811</v>
+        <v>83.68343935742975</v>
       </c>
     </row>
     <row r="1319" spans="1:4">
@@ -19066,10 +19066,10 @@
         <v>64</v>
       </c>
       <c r="C1319" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1319">
-        <v>1.768106563091278</v>
+        <v>685.0445204913802</v>
       </c>
     </row>
     <row r="1320" spans="1:4">
@@ -19080,10 +19080,10 @@
         <v>64</v>
       </c>
       <c r="C1320" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1320">
-        <v>83.68343935742975</v>
+        <v>35.7534589856118</v>
       </c>
     </row>
     <row r="1321" spans="1:4">
@@ -19094,10 +19094,10 @@
         <v>64</v>
       </c>
       <c r="C1321" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1321">
-        <v>685.0445204913802</v>
+        <v>1.011086612641811</v>
       </c>
     </row>
     <row r="1322" spans="1:4">
@@ -19108,10 +19108,10 @@
         <v>64</v>
       </c>
       <c r="C1322" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1322">
-        <v>35.7534589856118</v>
+        <v>0.1358911672979593</v>
       </c>
     </row>
     <row r="1323" spans="1:4">
@@ -19122,10 +19122,10 @@
         <v>64</v>
       </c>
       <c r="C1323" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1323">
-        <v>1.011086612641811</v>
+        <v>12.14148854345083</v>
       </c>
     </row>
     <row r="1324" spans="1:4">
@@ -19136,10 +19136,10 @@
         <v>64</v>
       </c>
       <c r="C1324" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1324">
-        <v>0.1358911672979593</v>
+        <v>254.3699585996568</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19150,10 +19150,10 @@
         <v>64</v>
       </c>
       <c r="C1325" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1325">
-        <v>12.14148854345083</v>
+        <v>24.69980387985706</v>
       </c>
     </row>
     <row r="1326" spans="1:4">
@@ -19164,10 +19164,10 @@
         <v>64</v>
       </c>
       <c r="C1326" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1326">
-        <v>254.3699585996568</v>
+        <v>898.8367927044629</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -19178,10 +19178,10 @@
         <v>64</v>
       </c>
       <c r="C1327" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1327">
-        <v>24.69980387985706</v>
+        <v>980.9430486914516</v>
       </c>
     </row>
     <row r="1328" spans="1:4">
@@ -19192,10 +19192,10 @@
         <v>64</v>
       </c>
       <c r="C1328" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1328">
-        <v>898.8367927044629</v>
+        <v>1709.778213279247</v>
       </c>
     </row>
     <row r="1329" spans="1:4">
@@ -19206,10 +19206,10 @@
         <v>64</v>
       </c>
       <c r="C1329" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1329">
-        <v>980.9430486914516</v>
+        <v>147.2000461976975</v>
       </c>
     </row>
     <row r="1330" spans="1:4">
@@ -19220,10 +19220,10 @@
         <v>64</v>
       </c>
       <c r="C1330" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1330">
-        <v>1709.778213279247</v>
+        <v>0.7332762183248996</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19234,10 +19234,10 @@
         <v>64</v>
       </c>
       <c r="C1331" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1331">
-        <v>147.2000461976975</v>
+        <v>21.19468657195568</v>
       </c>
     </row>
     <row r="1332" spans="1:4">
@@ -19248,10 +19248,10 @@
         <v>64</v>
       </c>
       <c r="C1332" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1332">
-        <v>0.7332762183248996</v>
+        <v>95.69122249945998</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -19262,10 +19262,10 @@
         <v>64</v>
       </c>
       <c r="C1333" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1333">
-        <v>21.19468657195568</v>
+        <v>41.19896961346269</v>
       </c>
     </row>
     <row r="1334" spans="1:4">
@@ -19276,10 +19276,10 @@
         <v>64</v>
       </c>
       <c r="C1334" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1334">
-        <v>95.69122249945998</v>
+        <v>10.21918377518654</v>
       </c>
     </row>
     <row r="1335" spans="1:4">
@@ -19290,10 +19290,10 @@
         <v>64</v>
       </c>
       <c r="C1335" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1335">
-        <v>41.19896961346269</v>
+        <v>48.59261449858546</v>
       </c>
     </row>
     <row r="1336" spans="1:4">
@@ -19304,10 +19304,10 @@
         <v>64</v>
       </c>
       <c r="C1336" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1336">
-        <v>10.21918377518654</v>
+        <v>3740.177990157008</v>
       </c>
     </row>
     <row r="1337" spans="1:4">
@@ -19318,10 +19318,10 @@
         <v>64</v>
       </c>
       <c r="C1337" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1337">
-        <v>48.59261449858546</v>
+        <v>143.5041445139051</v>
       </c>
     </row>
     <row r="1338" spans="1:4">
@@ -19332,10 +19332,10 @@
         <v>64</v>
       </c>
       <c r="C1338" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1338">
-        <v>3740.177990157008</v>
+        <v>28.16844106376171</v>
       </c>
     </row>
     <row r="1339" spans="1:4">
@@ -19346,10 +19346,10 @@
         <v>64</v>
       </c>
       <c r="C1339" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1339">
-        <v>143.5041445139051</v>
+        <v>0.2425278913974762</v>
       </c>
     </row>
     <row r="1340" spans="1:4">
@@ -19360,10 +19360,10 @@
         <v>64</v>
       </c>
       <c r="C1340" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1340">
-        <v>28.16844106376171</v>
+        <v>39.00234943673015</v>
       </c>
     </row>
     <row r="1341" spans="1:4">
@@ -19371,13 +19371,13 @@
         <v>0</v>
       </c>
       <c r="B1341" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1341" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1341">
-        <v>0.2425278913974762</v>
+        <v>0.2147289928793907</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -19385,13 +19385,13 @@
         <v>0</v>
       </c>
       <c r="B1342" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1342" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1342">
-        <v>39.00234943673015</v>
+        <v>6.672389215342701</v>
       </c>
     </row>
     <row r="1343" spans="1:4">
@@ -19402,10 +19402,10 @@
         <v>65</v>
       </c>
       <c r="C1343" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1343">
-        <v>0.2147289928793907</v>
+        <v>164.5935133838793</v>
       </c>
     </row>
     <row r="1344" spans="1:4">
@@ -19416,10 +19416,10 @@
         <v>65</v>
       </c>
       <c r="C1344" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1344">
-        <v>6.672389215342701</v>
+        <v>6.98601449447684</v>
       </c>
     </row>
     <row r="1345" spans="1:4">
@@ -19430,10 +19430,10 @@
         <v>65</v>
       </c>
       <c r="C1345" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1345">
-        <v>164.5935133838793</v>
+        <v>0.1975603460893035</v>
       </c>
     </row>
     <row r="1346" spans="1:4">
@@ -19444,10 +19444,10 @@
         <v>65</v>
       </c>
       <c r="C1346" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1346">
-        <v>6.98601449447684</v>
+        <v>0.02655233063735068</v>
       </c>
     </row>
     <row r="1347" spans="1:4">
@@ -19458,10 +19458,10 @@
         <v>65</v>
       </c>
       <c r="C1347" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1347">
-        <v>0.1975603460893035</v>
+        <v>2.372375075183809</v>
       </c>
     </row>
     <row r="1348" spans="1:4">
@@ -19472,10 +19472,10 @@
         <v>65</v>
       </c>
       <c r="C1348" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1348">
-        <v>0.02655233063735068</v>
+        <v>49.70238595521077</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -19486,10 +19486,10 @@
         <v>65</v>
       </c>
       <c r="C1349" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1349">
-        <v>2.372375075183809</v>
+        <v>4.826195641234517</v>
       </c>
     </row>
     <row r="1350" spans="1:4">
@@ -19500,10 +19500,10 @@
         <v>65</v>
       </c>
       <c r="C1350" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1350">
-        <v>49.70238595521077</v>
+        <v>194.4490864580497</v>
       </c>
     </row>
     <row r="1351" spans="1:4">
@@ -19514,10 +19514,10 @@
         <v>65</v>
       </c>
       <c r="C1351" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1351">
-        <v>4.826195641234517</v>
+        <v>205.5496603898332</v>
       </c>
     </row>
     <row r="1352" spans="1:4">
@@ -19528,10 +19528,10 @@
         <v>65</v>
       </c>
       <c r="C1352" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1352">
-        <v>194.4490864580497</v>
+        <v>303.95959487468</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -19542,10 +19542,10 @@
         <v>65</v>
       </c>
       <c r="C1353" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1353">
-        <v>205.5496603898332</v>
+        <v>31.84439571460243</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -19556,10 +19556,10 @@
         <v>65</v>
       </c>
       <c r="C1354" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1354">
-        <v>303.95959487468</v>
+        <v>0.05846681695431471</v>
       </c>
     </row>
     <row r="1355" spans="1:4">
@@ -19570,10 +19570,10 @@
         <v>65</v>
       </c>
       <c r="C1355" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1355">
-        <v>31.84439571460243</v>
+        <v>2.271599615886807</v>
       </c>
     </row>
     <row r="1356" spans="1:4">
@@ -19584,10 +19584,10 @@
         <v>65</v>
       </c>
       <c r="C1356" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1356">
-        <v>0.05846681695431471</v>
+        <v>10.25597352126613</v>
       </c>
     </row>
     <row r="1357" spans="1:4">
@@ -19598,10 +19598,10 @@
         <v>65</v>
       </c>
       <c r="C1357" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1357">
-        <v>2.271599615886807</v>
+        <v>4.415614415016026</v>
       </c>
     </row>
     <row r="1358" spans="1:4">
@@ -19612,10 +19612,10 @@
         <v>65</v>
       </c>
       <c r="C1358" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1358">
-        <v>10.25597352126613</v>
+        <v>1.095269508212805</v>
       </c>
     </row>
     <row r="1359" spans="1:4">
@@ -19626,10 +19626,10 @@
         <v>65</v>
       </c>
       <c r="C1359" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1359">
-        <v>4.415614415016026</v>
+        <v>5.901365557070822</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -19640,10 +19640,10 @@
         <v>65</v>
       </c>
       <c r="C1360" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1360">
-        <v>1.095269508212805</v>
+        <v>534.5636517096497</v>
       </c>
     </row>
     <row r="1361" spans="1:4">
@@ -19654,10 +19654,10 @@
         <v>65</v>
       </c>
       <c r="C1361" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1361">
-        <v>5.901365557070822</v>
+        <v>17.42796563778073</v>
       </c>
     </row>
     <row r="1362" spans="1:4">
@@ -19668,10 +19668,10 @@
         <v>65</v>
       </c>
       <c r="C1362" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1362">
-        <v>534.5636517096497</v>
+        <v>3.420936897620559</v>
       </c>
     </row>
     <row r="1363" spans="1:4">
@@ -19682,10 +19682,10 @@
         <v>65</v>
       </c>
       <c r="C1363" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1363">
-        <v>17.42796563778073</v>
+        <v>0.02945397689938545</v>
       </c>
     </row>
     <row r="1364" spans="1:4">
@@ -19696,10 +19696,10 @@
         <v>65</v>
       </c>
       <c r="C1364" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1364">
-        <v>3.420936897620559</v>
+        <v>4.833332477174699</v>
       </c>
     </row>
     <row r="1365" spans="1:4">
@@ -19707,13 +19707,13 @@
         <v>0</v>
       </c>
       <c r="B1365" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1365" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1365">
-        <v>0.02945397689938545</v>
+        <v>2.561910936832428</v>
       </c>
     </row>
     <row r="1366" spans="1:4">
@@ -19721,13 +19721,13 @@
         <v>0</v>
       </c>
       <c r="B1366" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1366" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1366">
-        <v>4.833332477174699</v>
+        <v>72.48562736645341</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -19738,10 +19738,10 @@
         <v>66</v>
       </c>
       <c r="C1367" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1367">
-        <v>2.561910936832428</v>
+        <v>1522.266185074523</v>
       </c>
     </row>
     <row r="1368" spans="1:4">
@@ -19752,10 +19752,10 @@
         <v>66</v>
       </c>
       <c r="C1368" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1368">
-        <v>72.48562736645341</v>
+        <v>31.77593788556755</v>
       </c>
     </row>
     <row r="1369" spans="1:4">
@@ -19766,10 +19766,10 @@
         <v>66</v>
       </c>
       <c r="C1369" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1369">
-        <v>1522.266185074523</v>
+        <v>0.8986046752333641</v>
       </c>
     </row>
     <row r="1370" spans="1:4">
@@ -19780,10 +19780,10 @@
         <v>66</v>
       </c>
       <c r="C1370" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1370">
-        <v>31.77593788556755</v>
+        <v>0.1207734695822</v>
       </c>
     </row>
     <row r="1371" spans="1:4">
@@ -19794,10 +19794,10 @@
         <v>66</v>
       </c>
       <c r="C1371" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1371">
-        <v>0.8986046752333641</v>
+        <v>10.79076533406973</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -19808,10 +19808,10 @@
         <v>66</v>
       </c>
       <c r="C1372" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1372">
-        <v>0.1207734695822</v>
+        <v>226.0716650567949</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -19822,10 +19822,10 @@
         <v>66</v>
       </c>
       <c r="C1373" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1373">
-        <v>10.79076533406973</v>
+        <v>21.95198607742786</v>
       </c>
     </row>
     <row r="1374" spans="1:4">
@@ -19836,10 +19836,10 @@
         <v>66</v>
       </c>
       <c r="C1374" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1374">
-        <v>226.0716650567949</v>
+        <v>4317.997197324037</v>
       </c>
     </row>
     <row r="1375" spans="1:4">
@@ -19850,10 +19850,10 @@
         <v>66</v>
       </c>
       <c r="C1375" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1375">
-        <v>21.95198607742786</v>
+        <v>1238.866613733321</v>
       </c>
     </row>
     <row r="1376" spans="1:4">
@@ -19864,10 +19864,10 @@
         <v>66</v>
       </c>
       <c r="C1376" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1376">
-        <v>4317.997197324037</v>
+        <v>764.8642296990752</v>
       </c>
     </row>
     <row r="1377" spans="1:4">
@@ -19878,10 +19878,10 @@
         <v>66</v>
       </c>
       <c r="C1377" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1377">
-        <v>1238.866613733321</v>
+        <v>707.1466055758298</v>
       </c>
     </row>
     <row r="1378" spans="1:4">
@@ -19892,10 +19892,10 @@
         <v>66</v>
       </c>
       <c r="C1378" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1378">
-        <v>764.8642296990752</v>
+        <v>0.6351553799211979</v>
       </c>
     </row>
     <row r="1379" spans="1:4">
@@ -19906,10 +19906,10 @@
         <v>66</v>
       </c>
       <c r="C1379" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1379">
-        <v>707.1466055758298</v>
+        <v>39.88683353602886</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -19920,10 +19920,10 @@
         <v>66</v>
       </c>
       <c r="C1380" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1380">
-        <v>0.6351553799211979</v>
+        <v>180.083807785362</v>
       </c>
     </row>
     <row r="1381" spans="1:4">
@@ -19934,10 +19934,10 @@
         <v>66</v>
       </c>
       <c r="C1381" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1381">
-        <v>39.88683353602886</v>
+        <v>77.53341561570764</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -19948,10 +19948,10 @@
         <v>66</v>
       </c>
       <c r="C1382" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1382">
-        <v>180.083807785362</v>
+        <v>19.23174852013588</v>
       </c>
     </row>
     <row r="1383" spans="1:4">
@@ -19962,10 +19962,10 @@
         <v>66</v>
       </c>
       <c r="C1383" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1383">
-        <v>77.53341561570764</v>
+        <v>70.40862419262528</v>
       </c>
     </row>
     <row r="1384" spans="1:4">
@@ -19976,10 +19976,10 @@
         <v>66</v>
       </c>
       <c r="C1384" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1384">
-        <v>19.23174852013588</v>
+        <v>3642.857942997813</v>
       </c>
     </row>
     <row r="1385" spans="1:4">
@@ -19990,10 +19990,10 @@
         <v>66</v>
       </c>
       <c r="C1385" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1385">
-        <v>70.40862419262528</v>
+        <v>207.9313798078895</v>
       </c>
     </row>
     <row r="1386" spans="1:4">
@@ -20004,10 +20004,10 @@
         <v>66</v>
       </c>
       <c r="C1386" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1386">
-        <v>3642.857942997813</v>
+        <v>40.81486870825291</v>
       </c>
     </row>
     <row r="1387" spans="1:4">
@@ -20018,10 +20018,10 @@
         <v>66</v>
       </c>
       <c r="C1387" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1387">
-        <v>207.9313798078895</v>
+        <v>0.3514125621318817</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20032,10 +20032,10 @@
         <v>66</v>
       </c>
       <c r="C1388" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1388">
-        <v>40.81486870825291</v>
+        <v>37.55503771480173</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20043,13 +20043,13 @@
         <v>0</v>
       </c>
       <c r="B1389" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1389" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1389">
-        <v>0.3514125621318817</v>
+        <v>6.281241650581359</v>
       </c>
     </row>
     <row r="1390" spans="1:4">
@@ -20057,13 +20057,13 @@
         <v>0</v>
       </c>
       <c r="B1390" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1390" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1390">
-        <v>37.55503771480173</v>
+        <v>475.9682146179676</v>
       </c>
     </row>
     <row r="1391" spans="1:4">
@@ -20074,10 +20074,10 @@
         <v>67</v>
       </c>
       <c r="C1391" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1391">
-        <v>6.281241650581359</v>
+        <v>1765.555594941229</v>
       </c>
     </row>
     <row r="1392" spans="1:4">
@@ -20088,10 +20088,10 @@
         <v>67</v>
       </c>
       <c r="C1392" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1392">
-        <v>475.9682146179676</v>
+        <v>200.2221941971779</v>
       </c>
     </row>
     <row r="1393" spans="1:4">
@@ -20102,10 +20102,10 @@
         <v>67</v>
       </c>
       <c r="C1393" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1393">
-        <v>1765.555594941229</v>
+        <v>5.662164888381958</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -20116,10 +20116,10 @@
         <v>67</v>
       </c>
       <c r="C1394" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1394">
-        <v>200.2221941971779</v>
+        <v>0.7610012698173523</v>
       </c>
     </row>
     <row r="1395" spans="1:4">
@@ -20130,10 +20130,10 @@
         <v>67</v>
       </c>
       <c r="C1395" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1395">
-        <v>5.662164888381958</v>
+        <v>67.99329480171204</v>
       </c>
     </row>
     <row r="1396" spans="1:4">
@@ -20144,10 +20144,10 @@
         <v>67</v>
       </c>
       <c r="C1396" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1396">
-        <v>0.7610012698173523</v>
+        <v>1424.491858792305</v>
       </c>
     </row>
     <row r="1397" spans="1:4">
@@ -20158,10 +20158,10 @@
         <v>67</v>
       </c>
       <c r="C1397" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1397">
-        <v>67.99329480171204</v>
+        <v>138.3208525657654</v>
       </c>
     </row>
     <row r="1398" spans="1:4">
@@ -20172,10 +20172,10 @@
         <v>67</v>
       </c>
       <c r="C1398" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1398">
-        <v>1424.491858792305</v>
+        <v>4219.175886601805</v>
       </c>
     </row>
     <row r="1399" spans="1:4">
@@ -20186,10 +20186,10 @@
         <v>67</v>
       </c>
       <c r="C1399" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1399">
-        <v>138.3208525657654</v>
+        <v>4181.752004363238</v>
       </c>
     </row>
     <row r="1400" spans="1:4">
@@ -20200,10 +20200,10 @@
         <v>67</v>
       </c>
       <c r="C1400" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1400">
-        <v>4219.175886601805</v>
+        <v>3262.299318645</v>
       </c>
     </row>
     <row r="1401" spans="1:4">
@@ -20214,10 +20214,10 @@
         <v>67</v>
       </c>
       <c r="C1401" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1401">
-        <v>4181.752004363238</v>
+        <v>690.9629094680399</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20228,10 +20228,10 @@
         <v>67</v>
       </c>
       <c r="C1402" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1402">
-        <v>3262.299318645</v>
+        <v>4.170671941041946</v>
       </c>
     </row>
     <row r="1403" spans="1:4">
@@ -20242,10 +20242,10 @@
         <v>67</v>
       </c>
       <c r="C1403" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1403">
-        <v>690.9629094680399</v>
+        <v>66.89919401288033</v>
       </c>
     </row>
     <row r="1404" spans="1:4">
@@ -20256,10 +20256,10 @@
         <v>67</v>
       </c>
       <c r="C1404" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1404">
-        <v>4.170671941041946</v>
+        <v>302.0410628667474</v>
       </c>
     </row>
     <row r="1405" spans="1:4">
@@ -20270,10 +20270,10 @@
         <v>67</v>
       </c>
       <c r="C1405" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1405">
-        <v>66.89919401288033</v>
+        <v>130.0409822973609</v>
       </c>
     </row>
     <row r="1406" spans="1:4">
@@ -20284,10 +20284,10 @@
         <v>67</v>
       </c>
       <c r="C1406" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1406">
-        <v>302.0410628667474</v>
+        <v>32.25596923589706</v>
       </c>
     </row>
     <row r="1407" spans="1:4">
@@ -20298,10 +20298,10 @@
         <v>67</v>
       </c>
       <c r="C1407" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1407">
-        <v>130.0409822973609</v>
+        <v>172.6264471104741</v>
       </c>
     </row>
     <row r="1408" spans="1:4">
@@ -20312,10 +20312,10 @@
         <v>67</v>
       </c>
       <c r="C1408" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1408">
-        <v>32.25596923589706</v>
+        <v>7203.553055930734</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -20326,10 +20326,10 @@
         <v>67</v>
       </c>
       <c r="C1409" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1409">
-        <v>172.6264471104741</v>
+        <v>509.8019702929259</v>
       </c>
     </row>
     <row r="1410" spans="1:4">
@@ -20340,10 +20340,10 @@
         <v>67</v>
       </c>
       <c r="C1410" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1410">
-        <v>7203.553055930734</v>
+        <v>100.0690732872486</v>
       </c>
     </row>
     <row r="1411" spans="1:4">
@@ -20354,10 +20354,10 @@
         <v>67</v>
       </c>
       <c r="C1411" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1411">
-        <v>509.8019702929259</v>
+        <v>0.8615862441062927</v>
       </c>
     </row>
     <row r="1412" spans="1:4">
@@ -20368,10 +20368,10 @@
         <v>67</v>
       </c>
       <c r="C1412" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1412">
-        <v>100.0690732872486</v>
+        <v>124.2538613151014</v>
       </c>
     </row>
     <row r="1413" spans="1:4">
@@ -20379,13 +20379,13 @@
         <v>0</v>
       </c>
       <c r="B1413" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1413" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1413">
-        <v>0.8615862441062927</v>
+        <v>0.5319434970617294</v>
       </c>
     </row>
     <row r="1414" spans="1:4">
@@ -20393,13 +20393,13 @@
         <v>0</v>
       </c>
       <c r="B1414" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1414" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1414">
-        <v>124.2538613151014</v>
+        <v>44.54212610591203</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -20410,10 +20410,10 @@
         <v>68</v>
       </c>
       <c r="C1415" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1415">
-        <v>0.5319434970617294</v>
+        <v>66.28120514365146</v>
       </c>
     </row>
     <row r="1416" spans="1:4">
@@ -20424,10 +20424,10 @@
         <v>68</v>
       </c>
       <c r="C1416" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1416">
-        <v>44.54212610591203</v>
+        <v>23.16013136986643</v>
       </c>
     </row>
     <row r="1417" spans="1:4">
@@ -20438,10 +20438,10 @@
         <v>68</v>
       </c>
       <c r="C1417" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1417">
-        <v>66.28120514365146</v>
+        <v>0.654954777508974</v>
       </c>
     </row>
     <row r="1418" spans="1:4">
@@ -20452,10 +20452,10 @@
         <v>68</v>
       </c>
       <c r="C1418" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1418">
-        <v>23.16013136986643</v>
+        <v>0.08802665185183287</v>
       </c>
     </row>
     <row r="1419" spans="1:4">
@@ -20466,10 +20466,10 @@
         <v>68</v>
       </c>
       <c r="C1419" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1419">
-        <v>0.654954777508974</v>
+        <v>7.864930489808321</v>
       </c>
     </row>
     <row r="1420" spans="1:4">
@@ -20480,10 +20480,10 @@
         <v>68</v>
       </c>
       <c r="C1420" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1420">
-        <v>0.08802665185183287</v>
+        <v>164.7740337539464</v>
       </c>
     </row>
     <row r="1421" spans="1:4">
@@ -20494,10 +20494,10 @@
         <v>68</v>
       </c>
       <c r="C1421" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1421">
-        <v>7.864930489808321</v>
+        <v>15.99987019151449</v>
       </c>
     </row>
     <row r="1422" spans="1:4">
@@ -20508,10 +20508,10 @@
         <v>68</v>
       </c>
       <c r="C1422" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1422">
-        <v>164.7740337539464</v>
+        <v>361.6963411106169</v>
       </c>
     </row>
     <row r="1423" spans="1:4">
@@ -20522,10 +20522,10 @@
         <v>68</v>
       </c>
       <c r="C1423" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1423">
-        <v>15.99987019151449</v>
+        <v>274.9121890102327</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -20536,10 +20536,10 @@
         <v>68</v>
       </c>
       <c r="C1424" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1424">
-        <v>361.6963411106169</v>
+        <v>270.5712780687958</v>
       </c>
     </row>
     <row r="1425" spans="1:4">
@@ -20550,10 +20550,10 @@
         <v>68</v>
       </c>
       <c r="C1425" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1425">
-        <v>274.9121890102327</v>
+        <v>59.23402174139395</v>
       </c>
     </row>
     <row r="1426" spans="1:4">
@@ -20564,10 +20564,10 @@
         <v>68</v>
       </c>
       <c r="C1426" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1426">
-        <v>270.5712780687958</v>
+        <v>0.3903004230931401</v>
       </c>
     </row>
     <row r="1427" spans="1:4">
@@ -20578,10 +20578,10 @@
         <v>68</v>
       </c>
       <c r="C1427" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1427">
-        <v>59.23402174139395</v>
+        <v>0.5453710170276462</v>
       </c>
     </row>
     <row r="1428" spans="1:4">
@@ -20592,10 +20592,10 @@
         <v>68</v>
       </c>
       <c r="C1428" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1428">
-        <v>0.3903004230931401</v>
+        <v>2.462278418601491</v>
       </c>
     </row>
     <row r="1429" spans="1:4">
@@ -20606,10 +20606,10 @@
         <v>68</v>
       </c>
       <c r="C1429" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1429">
-        <v>0.5453710170276462</v>
+        <v>1.06011116900947</v>
       </c>
     </row>
     <row r="1430" spans="1:4">
@@ -20620,10 +20620,10 @@
         <v>68</v>
       </c>
       <c r="C1430" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1430">
-        <v>2.462278418601491</v>
+        <v>0.2629548981413246</v>
       </c>
     </row>
     <row r="1431" spans="1:4">
@@ -20634,10 +20634,10 @@
         <v>68</v>
       </c>
       <c r="C1431" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1431">
-        <v>1.06011116900947</v>
+        <v>14.61932545658201</v>
       </c>
     </row>
     <row r="1432" spans="1:4">
@@ -20648,10 +20648,10 @@
         <v>68</v>
       </c>
       <c r="C1432" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1432">
-        <v>0.2629548981413246</v>
+        <v>453.8135587781109</v>
       </c>
     </row>
     <row r="1433" spans="1:4">
@@ -20662,10 +20662,10 @@
         <v>68</v>
       </c>
       <c r="C1433" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1433">
-        <v>14.61932545658201</v>
+        <v>43.17392292357982</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
@@ -20676,10 +20676,10 @@
         <v>68</v>
       </c>
       <c r="C1434" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1434">
-        <v>453.8135587781109</v>
+        <v>8.474613102525474</v>
       </c>
     </row>
     <row r="1435" spans="1:4">
@@ -20690,10 +20690,10 @@
         <v>68</v>
       </c>
       <c r="C1435" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1435">
-        <v>43.17392292357982</v>
+        <v>0.07296570092439651</v>
       </c>
     </row>
     <row r="1436" spans="1:4">
@@ -20704,10 +20704,10 @@
         <v>68</v>
       </c>
       <c r="C1436" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1436">
-        <v>8.474613102525474</v>
+        <v>7.465713944602758</v>
       </c>
     </row>
     <row r="1437" spans="1:4">
@@ -20715,13 +20715,13 @@
         <v>0</v>
       </c>
       <c r="B1437" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1437" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1437">
-        <v>0.07296570092439651</v>
+        <v>0.6771316415071487</v>
       </c>
     </row>
     <row r="1438" spans="1:4">
@@ -20729,13 +20729,13 @@
         <v>0</v>
       </c>
       <c r="B1438" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1438" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1438">
-        <v>7.465713944602758</v>
+        <v>41.7766200498119</v>
       </c>
     </row>
     <row r="1439" spans="1:4">
@@ -20746,10 +20746,10 @@
         <v>69</v>
       </c>
       <c r="C1439" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1439">
-        <v>0.6771316415071487</v>
+        <v>1201.938556848988</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -20760,10 +20760,10 @@
         <v>69</v>
       </c>
       <c r="C1440" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1440">
-        <v>41.7766200498119</v>
+        <v>7.354923723693937</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -20774,10 +20774,10 @@
         <v>69</v>
       </c>
       <c r="C1441" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1441">
-        <v>1201.938556848988</v>
+        <v>0.207992880269885</v>
       </c>
     </row>
     <row r="1442" spans="1:4">
@@ -20788,10 +20788,10 @@
         <v>69</v>
       </c>
       <c r="C1442" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1442">
-        <v>7.354923723693937</v>
+        <v>0.02795447485521436</v>
       </c>
     </row>
     <row r="1443" spans="1:4">
@@ -20802,10 +20802,10 @@
         <v>69</v>
       </c>
       <c r="C1443" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1443">
-        <v>0.207992880269885</v>
+        <v>2.497652665302157</v>
       </c>
     </row>
     <row r="1444" spans="1:4">
@@ -20816,10 +20816,10 @@
         <v>69</v>
       </c>
       <c r="C1444" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1444">
-        <v>0.02795447485521436</v>
+        <v>52.32701104115694</v>
       </c>
     </row>
     <row r="1445" spans="1:4">
@@ -20830,10 +20830,10 @@
         <v>69</v>
       </c>
       <c r="C1445" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1445">
-        <v>2.497652665302157</v>
+        <v>5.081051699072122</v>
       </c>
     </row>
     <row r="1446" spans="1:4">
@@ -20844,10 +20844,10 @@
         <v>69</v>
       </c>
       <c r="C1446" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1446">
-        <v>52.32701104115694</v>
+        <v>1497.967850101888</v>
       </c>
     </row>
     <row r="1447" spans="1:4">
@@ -20858,10 +20858,10 @@
         <v>69</v>
       </c>
       <c r="C1447" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1447">
-        <v>5.081051699072122</v>
+        <v>264.9971357777342</v>
       </c>
     </row>
     <row r="1448" spans="1:4">
@@ -20872,10 +20872,10 @@
         <v>69</v>
       </c>
       <c r="C1448" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1448">
-        <v>1497.967850101888</v>
+        <v>394.9374168169498</v>
       </c>
     </row>
     <row r="1449" spans="1:4">
@@ -20886,10 +20886,10 @@
         <v>69</v>
       </c>
       <c r="C1449" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1449">
-        <v>264.9971357777342</v>
+        <v>245.3181028273329</v>
       </c>
     </row>
     <row r="1450" spans="1:4">
@@ -20900,10 +20900,10 @@
         <v>69</v>
       </c>
       <c r="C1450" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1450">
-        <v>394.9374168169498</v>
+        <v>0.3660676736012101</v>
       </c>
     </row>
     <row r="1451" spans="1:4">
@@ -20914,10 +20914,10 @@
         <v>69</v>
       </c>
       <c r="C1451" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1451">
-        <v>245.3181028273329</v>
+        <v>25.96378750443458</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -20928,10 +20928,10 @@
         <v>69</v>
       </c>
       <c r="C1452" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1452">
-        <v>0.3660676736012101</v>
+        <v>117.2230860117078</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -20942,10 +20942,10 @@
         <v>69</v>
       </c>
       <c r="C1453" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1453">
-        <v>25.96378750443458</v>
+        <v>50.46931403368712</v>
       </c>
     </row>
     <row r="1454" spans="1:4">
@@ -20956,10 +20956,10 @@
         <v>69</v>
       </c>
       <c r="C1454" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1454">
-        <v>117.2230860117078</v>
+        <v>12.51864306211472</v>
       </c>
     </row>
     <row r="1455" spans="1:4">
@@ -20970,10 +20970,10 @@
         <v>69</v>
       </c>
       <c r="C1455" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1455">
-        <v>50.46931403368712</v>
+        <v>18.60951003033668</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -20984,10 +20984,10 @@
         <v>69</v>
       </c>
       <c r="C1456" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1456">
-        <v>12.51864306211472</v>
+        <v>1048.782379767485</v>
       </c>
     </row>
     <row r="1457" spans="1:4">
@@ -20998,10 +20998,10 @@
         <v>69</v>
       </c>
       <c r="C1457" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1457">
-        <v>18.60951003033668</v>
+        <v>54.95777175776661</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21012,10 +21012,10 @@
         <v>69</v>
       </c>
       <c r="C1458" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1458">
-        <v>1048.782379767485</v>
+        <v>10.78766581967473</v>
       </c>
     </row>
     <row r="1459" spans="1:4">
@@ -21026,10 +21026,10 @@
         <v>69</v>
       </c>
       <c r="C1459" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1459">
-        <v>54.95777175776661</v>
+        <v>0.09288088887929917</v>
       </c>
     </row>
     <row r="1460" spans="1:4">
@@ -21040,10 +21040,10 @@
         <v>69</v>
       </c>
       <c r="C1460" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1460">
-        <v>10.78766581967473</v>
+        <v>30.19242259483785</v>
       </c>
     </row>
     <row r="1461" spans="1:4">
@@ -21051,13 +21051,13 @@
         <v>0</v>
       </c>
       <c r="B1461" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1461" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1461">
-        <v>0.09288088887929917</v>
+        <v>2.58648948431015</v>
       </c>
     </row>
     <row r="1462" spans="1:4">
@@ -21065,13 +21065,13 @@
         <v>0</v>
       </c>
       <c r="B1462" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1462" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1462">
-        <v>30.19242259483785</v>
+        <v>221.2992114840448</v>
       </c>
     </row>
     <row r="1463" spans="1:4">
@@ -21082,10 +21082,10 @@
         <v>70</v>
       </c>
       <c r="C1463" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1463">
-        <v>2.58648948431015</v>
+        <v>1141.580370125212</v>
       </c>
     </row>
     <row r="1464" spans="1:4">
@@ -21096,10 +21096,10 @@
         <v>70</v>
       </c>
       <c r="C1464" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1464">
-        <v>221.2992114840448</v>
+        <v>88.81929375499487</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -21110,10 +21110,10 @@
         <v>70</v>
       </c>
       <c r="C1465" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1465">
-        <v>1141.580370125212</v>
+        <v>2.511756943464279</v>
       </c>
     </row>
     <row r="1466" spans="1:4">
@@ -21124,10 +21124,10 @@
         <v>70</v>
       </c>
       <c r="C1466" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1466">
-        <v>88.81929375499487</v>
+        <v>0.3375829318165779</v>
       </c>
     </row>
     <row r="1467" spans="1:4">
@@ -21138,10 +21138,10 @@
         <v>70</v>
       </c>
       <c r="C1467" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1467">
-        <v>2.511756943464279</v>
+        <v>30.16207293391228</v>
       </c>
     </row>
     <row r="1468" spans="1:4">
@@ -21152,10 +21152,10 @@
         <v>70</v>
       </c>
       <c r="C1468" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1468">
-        <v>0.3375829318165779</v>
+        <v>631.9097708672285</v>
       </c>
     </row>
     <row r="1469" spans="1:4">
@@ -21166,10 +21166,10 @@
         <v>70</v>
       </c>
       <c r="C1469" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1469">
-        <v>30.16207293391228</v>
+        <v>61.35963340997696</v>
       </c>
     </row>
     <row r="1470" spans="1:4">
@@ -21180,10 +21180,10 @@
         <v>70</v>
       </c>
       <c r="C1470" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1470">
-        <v>631.9097708672285</v>
+        <v>1810.250185188949</v>
       </c>
     </row>
     <row r="1471" spans="1:4">
@@ -21194,10 +21194,10 @@
         <v>70</v>
       </c>
       <c r="C1471" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1471">
-        <v>61.35963340997696</v>
+        <v>1632.26494242087</v>
       </c>
     </row>
     <row r="1472" spans="1:4">
@@ -21208,10 +21208,10 @@
         <v>70</v>
       </c>
       <c r="C1472" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1472">
-        <v>1810.250185188949</v>
+        <v>1096.116207688451</v>
       </c>
     </row>
     <row r="1473" spans="1:4">
@@ -21222,10 +21222,10 @@
         <v>70</v>
       </c>
       <c r="C1473" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1473">
-        <v>1632.26494242087</v>
+        <v>296.4597277859971</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -21236,10 +21236,10 @@
         <v>70</v>
       </c>
       <c r="C1474" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1474">
-        <v>1096.116207688451</v>
+        <v>1.939134554713964</v>
       </c>
     </row>
     <row r="1475" spans="1:4">
@@ -21250,10 +21250,10 @@
         <v>70</v>
       </c>
       <c r="C1475" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1475">
-        <v>296.4597277859971</v>
+        <v>41.35229898512363</v>
       </c>
     </row>
     <row r="1476" spans="1:4">
@@ -21264,10 +21264,10 @@
         <v>70</v>
       </c>
       <c r="C1476" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1476">
-        <v>1.939134554713964</v>
+        <v>186.7001915605366</v>
       </c>
     </row>
     <row r="1477" spans="1:4">
@@ -21278,10 +21278,10 @@
         <v>70</v>
       </c>
       <c r="C1477" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1477">
-        <v>41.35229898512363</v>
+        <v>80.38203837320209</v>
       </c>
     </row>
     <row r="1478" spans="1:4">
@@ -21292,10 +21292,10 @@
         <v>70</v>
       </c>
       <c r="C1478" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1478">
-        <v>186.7001915605366</v>
+        <v>19.9383341395855</v>
       </c>
     </row>
     <row r="1479" spans="1:4">
@@ -21306,10 +21306,10 @@
         <v>70</v>
       </c>
       <c r="C1479" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1479">
-        <v>80.38203837320209</v>
+        <v>71.08411282405257</v>
       </c>
     </row>
     <row r="1480" spans="1:4">
@@ -21320,10 +21320,10 @@
         <v>70</v>
       </c>
       <c r="C1480" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1480">
-        <v>19.9383341395855</v>
+        <v>3033.633255725354</v>
       </c>
     </row>
     <row r="1481" spans="1:4">
@@ -21334,10 +21334,10 @@
         <v>70</v>
       </c>
       <c r="C1481" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1481">
-        <v>71.08411282405257</v>
+        <v>209.926238886416</v>
       </c>
     </row>
     <row r="1482" spans="1:4">
@@ -21348,10 +21348,10 @@
         <v>70</v>
       </c>
       <c r="C1482" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1482">
-        <v>3033.633255725354</v>
+        <v>41.20643977105617</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -21362,10 +21362,10 @@
         <v>70</v>
       </c>
       <c r="C1483" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1483">
-        <v>209.926238886416</v>
+        <v>0.3547839558124542</v>
       </c>
     </row>
     <row r="1484" spans="1:4">
@@ -21376,10 +21376,10 @@
         <v>70</v>
       </c>
       <c r="C1484" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1484">
-        <v>41.20643977105617</v>
+        <v>110.118174046725</v>
       </c>
     </row>
     <row r="1485" spans="1:4">
@@ -21387,13 +21387,13 @@
         <v>0</v>
       </c>
       <c r="B1485" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1485" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1485">
-        <v>0.3547839558124542</v>
+        <v>0.4168467298150062</v>
       </c>
     </row>
     <row r="1486" spans="1:4">
@@ -21401,13 +21401,13 @@
         <v>0</v>
       </c>
       <c r="B1486" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1486" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1486">
-        <v>110.118174046725</v>
+        <v>24.20453762721271</v>
       </c>
     </row>
     <row r="1487" spans="1:4">
@@ -21418,10 +21418,10 @@
         <v>71</v>
       </c>
       <c r="C1487" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1487">
-        <v>0.4168467298150062</v>
+        <v>65.17577188982861</v>
       </c>
     </row>
     <row r="1488" spans="1:4">
@@ -21432,10 +21432,10 @@
         <v>71</v>
       </c>
       <c r="C1488" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1488">
-        <v>24.20453762721271</v>
+        <v>17.10009311944246</v>
       </c>
     </row>
     <row r="1489" spans="1:4">
@@ -21446,10 +21446,10 @@
         <v>71</v>
       </c>
       <c r="C1489" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1489">
-        <v>65.17577188982861</v>
+        <v>0.4835804903507233</v>
       </c>
     </row>
     <row r="1490" spans="1:4">
@@ -21460,10 +21460,10 @@
         <v>71</v>
       </c>
       <c r="C1490" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1490">
-        <v>17.10009311944246</v>
+        <v>0.064993756711483</v>
       </c>
     </row>
     <row r="1491" spans="1:4">
@@ -21474,10 +21474,10 @@
         <v>71</v>
       </c>
       <c r="C1491" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1491">
-        <v>0.4835804903507233</v>
+        <v>5.807006946802139</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -21488,10 +21488,10 @@
         <v>71</v>
       </c>
       <c r="C1492" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1492">
-        <v>0.064993756711483</v>
+        <v>121.659556928277</v>
       </c>
     </row>
     <row r="1493" spans="1:4">
@@ -21502,10 +21502,10 @@
         <v>71</v>
       </c>
       <c r="C1493" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1493">
-        <v>5.807006946802139</v>
+        <v>11.81337298154831</v>
       </c>
     </row>
     <row r="1494" spans="1:4">
@@ -21516,10 +21516,10 @@
         <v>71</v>
       </c>
       <c r="C1494" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1494">
-        <v>121.659556928277</v>
+        <v>500.9913458746672</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -21530,10 +21530,10 @@
         <v>71</v>
       </c>
       <c r="C1495" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1495">
-        <v>11.81337298154831</v>
+        <v>197.7416861212812</v>
       </c>
     </row>
     <row r="1496" spans="1:4">
@@ -21544,10 +21544,10 @@
         <v>71</v>
       </c>
       <c r="C1496" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1496">
-        <v>500.9913458746672</v>
+        <v>109.6224819912761</v>
       </c>
     </row>
     <row r="1497" spans="1:4">
@@ -21558,10 +21558,10 @@
         <v>71</v>
       </c>
       <c r="C1497" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1497">
-        <v>197.7416861212812</v>
+        <v>82.04598416082561</v>
       </c>
     </row>
     <row r="1498" spans="1:4">
@@ -21572,10 +21572,10 @@
         <v>71</v>
       </c>
       <c r="C1498" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1498">
-        <v>109.6224819912761</v>
+        <v>0.212092284373939</v>
       </c>
     </row>
     <row r="1499" spans="1:4">
@@ -21586,10 +21586,10 @@
         <v>71</v>
       </c>
       <c r="C1499" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1499">
-        <v>82.04598416082561</v>
+        <v>1.5489558150433</v>
       </c>
     </row>
     <row r="1500" spans="1:4">
@@ -21600,10 +21600,10 @@
         <v>71</v>
       </c>
       <c r="C1500" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1500">
-        <v>0.212092284373939</v>
+        <v>6.993331797379069</v>
       </c>
     </row>
     <row r="1501" spans="1:4">
@@ -21614,10 +21614,10 @@
         <v>71</v>
       </c>
       <c r="C1501" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1501">
-        <v>1.5489558150433</v>
+        <v>3.010914237392135</v>
       </c>
     </row>
     <row r="1502" spans="1:4">
@@ -21628,10 +21628,10 @@
         <v>71</v>
       </c>
       <c r="C1502" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1502">
-        <v>6.993331797379069</v>
+        <v>0.7468411519005895</v>
       </c>
     </row>
     <row r="1503" spans="1:4">
@@ -21642,10 +21642,10 @@
         <v>71</v>
       </c>
       <c r="C1503" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1503">
-        <v>3.010914237392135</v>
+        <v>11.45613780850545</v>
       </c>
     </row>
     <row r="1504" spans="1:4">
@@ -21656,10 +21656,10 @@
         <v>71</v>
       </c>
       <c r="C1504" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1504">
-        <v>0.7468411519005895</v>
+        <v>197.7234072581678</v>
       </c>
     </row>
     <row r="1505" spans="1:4">
@@ -21670,10 +21670,10 @@
         <v>71</v>
       </c>
       <c r="C1505" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1505">
-        <v>11.45613780850545</v>
+        <v>33.83236881997436</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -21684,10 +21684,10 @@
         <v>71</v>
       </c>
       <c r="C1506" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1506">
-        <v>197.7234072581678</v>
+        <v>6.640958631411196</v>
       </c>
     </row>
     <row r="1507" spans="1:4">
@@ -21698,10 +21698,10 @@
         <v>71</v>
       </c>
       <c r="C1507" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1507">
-        <v>33.83236881997436</v>
+        <v>0.05717809125781059</v>
       </c>
     </row>
     <row r="1508" spans="1:4">
@@ -21712,10 +21712,10 @@
         <v>71</v>
       </c>
       <c r="C1508" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1508">
-        <v>6.640958631411196</v>
+        <v>32.38336895819754</v>
       </c>
     </row>
     <row r="1509" spans="1:4">
@@ -21723,13 +21723,13 @@
         <v>0</v>
       </c>
       <c r="B1509" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1509" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1509">
-        <v>0.05717809125781059</v>
+        <v>0.6190901815891265</v>
       </c>
     </row>
     <row r="1510" spans="1:4">
@@ -21737,13 +21737,13 @@
         <v>0</v>
       </c>
       <c r="B1510" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1510" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1510">
-        <v>32.38336895819754</v>
+        <v>7.678492456446402</v>
       </c>
     </row>
     <row r="1511" spans="1:4">
@@ -21754,10 +21754,10 @@
         <v>72</v>
       </c>
       <c r="C1511" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1511">
-        <v>0.6190901815891265</v>
+        <v>620.8711512560398</v>
       </c>
     </row>
     <row r="1512" spans="1:4">
@@ -21768,10 +21768,10 @@
         <v>72</v>
       </c>
       <c r="C1512" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1512">
-        <v>7.678492456446402</v>
+        <v>2.77342775136698</v>
       </c>
     </row>
     <row r="1513" spans="1:4">
@@ -21782,10 +21782,10 @@
         <v>72</v>
       </c>
       <c r="C1513" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1513">
-        <v>620.8711512560398</v>
+        <v>0.078430891726166</v>
       </c>
     </row>
     <row r="1514" spans="1:4">
@@ -21796,10 +21796,10 @@
         <v>72</v>
       </c>
       <c r="C1514" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1514">
-        <v>2.77342775136698</v>
+        <v>0.01054119923617691</v>
       </c>
     </row>
     <row r="1515" spans="1:4">
@@ -21810,10 +21810,10 @@
         <v>72</v>
       </c>
       <c r="C1515" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1515">
-        <v>0.078430891726166</v>
+        <v>0.9418261120654643</v>
       </c>
     </row>
     <row r="1516" spans="1:4">
@@ -21824,10 +21824,10 @@
         <v>72</v>
       </c>
       <c r="C1516" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1516">
-        <v>0.01054119923617691</v>
+        <v>19.73170491219498</v>
       </c>
     </row>
     <row r="1517" spans="1:4">
@@ -21838,10 +21838,10 @@
         <v>72</v>
       </c>
       <c r="C1517" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1517">
-        <v>0.9418261120654643</v>
+        <v>1.915985850803554</v>
       </c>
     </row>
     <row r="1518" spans="1:4">
@@ -21852,10 +21852,10 @@
         <v>72</v>
       </c>
       <c r="C1518" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1518">
-        <v>19.73170491219498</v>
+        <v>783.1074436363577</v>
       </c>
     </row>
     <row r="1519" spans="1:4">
@@ -21866,10 +21866,10 @@
         <v>72</v>
       </c>
       <c r="C1519" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1519">
-        <v>1.915985850803554</v>
+        <v>239.0882605608739</v>
       </c>
     </row>
     <row r="1520" spans="1:4">
@@ -21880,10 +21880,10 @@
         <v>72</v>
       </c>
       <c r="C1520" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1520">
-        <v>783.1074436363577</v>
+        <v>34.56079242959618</v>
       </c>
     </row>
     <row r="1521" spans="1:4">
@@ -21894,10 +21894,10 @@
         <v>72</v>
       </c>
       <c r="C1521" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1521">
-        <v>239.0882605608739</v>
+        <v>128.2473668375239</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -21908,10 +21908,10 @@
         <v>72</v>
       </c>
       <c r="C1522" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1522">
-        <v>34.56079242959618</v>
+        <v>0.06728279757779092</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -21922,10 +21922,10 @@
         <v>72</v>
       </c>
       <c r="C1523" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1523">
-        <v>128.2473668375239</v>
+        <v>1.519470537211746</v>
       </c>
     </row>
     <row r="1524" spans="1:4">
@@ -21936,10 +21936,10 @@
         <v>72</v>
       </c>
       <c r="C1524" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1524">
-        <v>0.06728279757779092</v>
+        <v>6.860209645661525</v>
       </c>
     </row>
     <row r="1525" spans="1:4">
@@ -21950,10 +21950,10 @@
         <v>72</v>
       </c>
       <c r="C1525" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1525">
-        <v>1.519470537211746</v>
+        <v>2.95359972786624</v>
       </c>
     </row>
     <row r="1526" spans="1:4">
@@ -21964,10 +21964,10 @@
         <v>72</v>
       </c>
       <c r="C1526" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1526">
-        <v>6.860209645661525</v>
+        <v>0.7326245947554708</v>
       </c>
     </row>
     <row r="1527" spans="1:4">
@@ -21978,10 +21978,10 @@
         <v>72</v>
       </c>
       <c r="C1527" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1527">
-        <v>2.95359972786624</v>
+        <v>17.0143650624901</v>
       </c>
     </row>
     <row r="1528" spans="1:4">
@@ -21992,10 +21992,10 @@
         <v>72</v>
       </c>
       <c r="C1528" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1528">
-        <v>0.7326245947554708</v>
+        <v>253.4536945028696</v>
       </c>
     </row>
     <row r="1529" spans="1:4">
@@ -22006,10 +22006,10 @@
         <v>72</v>
       </c>
       <c r="C1529" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1529">
-        <v>17.0143650624901</v>
+        <v>50.24697534665466</v>
       </c>
     </row>
     <row r="1530" spans="1:4">
@@ -22020,10 +22020,10 @@
         <v>72</v>
       </c>
       <c r="C1530" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1530">
-        <v>253.4536945028696</v>
+        <v>9.862983180582525</v>
       </c>
     </row>
     <row r="1531" spans="1:4">
@@ -22034,10 +22034,10 @@
         <v>72</v>
       </c>
       <c r="C1531" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1531">
-        <v>50.24697534665466</v>
+        <v>0.08491944968700409</v>
       </c>
     </row>
     <row r="1532" spans="1:4">
@@ -22048,10 +22048,10 @@
         <v>72</v>
       </c>
       <c r="C1532" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1532">
-        <v>9.862983180582525</v>
+        <v>2.143568943957798</v>
       </c>
     </row>
     <row r="1533" spans="1:4">
@@ -22059,13 +22059,13 @@
         <v>0</v>
       </c>
       <c r="B1533" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1533" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1533">
-        <v>0.08491944968700409</v>
+        <v>0.2077766221761703</v>
       </c>
     </row>
     <row r="1534" spans="1:4">
@@ -22073,13 +22073,13 @@
         <v>0</v>
       </c>
       <c r="B1534" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1534" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1534">
-        <v>2.143568943957798</v>
+        <v>19.33164606967941</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -22090,10 +22090,10 @@
         <v>73</v>
       </c>
       <c r="C1535" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1535">
-        <v>0.2077766221761703</v>
+        <v>2548.658398752213</v>
       </c>
     </row>
     <row r="1536" spans="1:4">
@@ -22104,10 +22104,10 @@
         <v>73</v>
       </c>
       <c r="C1536" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1536">
-        <v>19.33164606967941</v>
+        <v>8.552413978669792</v>
       </c>
     </row>
     <row r="1537" spans="1:4">
@@ -22118,10 +22118,10 @@
         <v>73</v>
       </c>
       <c r="C1537" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1537">
-        <v>2548.658398752213</v>
+        <v>0.241857194378972</v>
       </c>
     </row>
     <row r="1538" spans="1:4">
@@ -22132,10 +22132,10 @@
         <v>73</v>
       </c>
       <c r="C1538" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1538">
-        <v>8.552413978669792</v>
+        <v>0.03250587640330195</v>
       </c>
     </row>
     <row r="1539" spans="1:4">
@@ -22146,10 +22146,10 @@
         <v>73</v>
       </c>
       <c r="C1539" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1539">
-        <v>0.241857194378972</v>
+        <v>2.904307423308492</v>
       </c>
     </row>
     <row r="1540" spans="1:4">
@@ -22160,10 +22160,10 @@
         <v>73</v>
       </c>
       <c r="C1540" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1540">
-        <v>0.03250587640330195</v>
+        <v>60.84662159699946</v>
       </c>
     </row>
     <row r="1541" spans="1:4">
@@ -22174,10 +22174,10 @@
         <v>73</v>
       </c>
       <c r="C1541" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1541">
-        <v>2.904307423308492</v>
+        <v>5.908321990817785</v>
       </c>
     </row>
     <row r="1542" spans="1:4">
@@ -22188,10 +22188,10 @@
         <v>73</v>
       </c>
       <c r="C1542" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1542">
-        <v>60.84662159699946</v>
+        <v>2760.832374842763</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22202,10 +22202,10 @@
         <v>73</v>
       </c>
       <c r="C1543" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1543">
-        <v>5.908321990817785</v>
+        <v>1060.855111912191</v>
       </c>
     </row>
     <row r="1544" spans="1:4">
@@ -22216,10 +22216,10 @@
         <v>73</v>
       </c>
       <c r="C1544" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1544">
-        <v>2760.832374842763</v>
+        <v>143.0788223701715</v>
       </c>
     </row>
     <row r="1545" spans="1:4">
@@ -22230,10 +22230,10 @@
         <v>73</v>
       </c>
       <c r="C1545" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1545">
-        <v>1060.855111912191</v>
+        <v>452.1339762897044</v>
       </c>
     </row>
     <row r="1546" spans="1:4">
@@ -22244,10 +22244,10 @@
         <v>73</v>
       </c>
       <c r="C1546" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1546">
-        <v>143.0788223701715</v>
+        <v>0.1693935673870146</v>
       </c>
     </row>
     <row r="1547" spans="1:4">
@@ -22258,10 +22258,10 @@
         <v>73</v>
       </c>
       <c r="C1547" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1547">
-        <v>452.1339762897044</v>
+        <v>3.056359846964478</v>
       </c>
     </row>
     <row r="1548" spans="1:4">
@@ -22272,10 +22272,10 @@
         <v>73</v>
       </c>
       <c r="C1548" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1548">
-        <v>0.1693935673870146</v>
+        <v>13.79906275855377</v>
       </c>
     </row>
     <row r="1549" spans="1:4">
@@ -22286,10 +22286,10 @@
         <v>73</v>
       </c>
       <c r="C1549" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1549">
-        <v>3.056359846964478</v>
+        <v>5.941058672200889</v>
       </c>
     </row>
     <row r="1550" spans="1:4">
@@ -22300,10 +22300,10 @@
         <v>73</v>
       </c>
       <c r="C1550" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1550">
-        <v>13.79906275855377</v>
+        <v>1.473647786825895</v>
       </c>
     </row>
     <row r="1551" spans="1:4">
@@ -22314,10 +22314,10 @@
         <v>73</v>
       </c>
       <c r="C1551" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1551">
-        <v>5.941058672200889</v>
+        <v>5.710294568203389</v>
       </c>
     </row>
     <row r="1552" spans="1:4">
@@ -22328,10 +22328,10 @@
         <v>73</v>
       </c>
       <c r="C1552" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1552">
-        <v>1.473647786825895</v>
+        <v>733.3855139585212</v>
       </c>
     </row>
     <row r="1553" spans="1:4">
@@ -22342,10 +22342,10 @@
         <v>73</v>
       </c>
       <c r="C1553" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1553">
-        <v>5.710294568203389</v>
+        <v>16.86369308151305</v>
       </c>
     </row>
     <row r="1554" spans="1:4">
@@ -22356,10 +22356,10 @@
         <v>73</v>
       </c>
       <c r="C1554" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1554">
-        <v>733.3855139585212</v>
+        <v>3.310175788253546</v>
       </c>
     </row>
     <row r="1555" spans="1:4">
@@ -22370,10 +22370,10 @@
         <v>73</v>
       </c>
       <c r="C1555" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1555">
-        <v>16.86369308151305</v>
+        <v>0.02850033313035965</v>
       </c>
     </row>
     <row r="1556" spans="1:4">
@@ -22384,10 +22384,10 @@
         <v>73</v>
       </c>
       <c r="C1556" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1556">
-        <v>3.310175788253546</v>
+        <v>9.443485511187465</v>
       </c>
     </row>
     <row r="1557" spans="1:4">
@@ -22395,13 +22395,13 @@
         <v>0</v>
       </c>
       <c r="B1557" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1557" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1557">
-        <v>0.02850033313035965</v>
+        <v>0.01692672065459191</v>
       </c>
     </row>
     <row r="1558" spans="1:4">
@@ -22409,13 +22409,13 @@
         <v>0</v>
       </c>
       <c r="B1558" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1558" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1558">
-        <v>9.443485511187465</v>
+        <v>1.01093158813077</v>
       </c>
     </row>
     <row r="1559" spans="1:4">
@@ -22426,10 +22426,10 @@
         <v>74</v>
       </c>
       <c r="C1559" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1559">
-        <v>0.01692672065459191</v>
+        <v>89.54823136337568</v>
       </c>
     </row>
     <row r="1560" spans="1:4">
@@ -22440,10 +22440,10 @@
         <v>74</v>
       </c>
       <c r="C1560" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1560">
-        <v>1.01093158813077</v>
+        <v>1.398052516656462</v>
       </c>
     </row>
     <row r="1561" spans="1:4">
@@ -22454,10 +22454,10 @@
         <v>74</v>
       </c>
       <c r="C1561" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1561">
-        <v>89.54823136337568</v>
+        <v>0.03953609590418636</v>
       </c>
     </row>
     <row r="1562" spans="1:4">
@@ -22468,10 +22468,10 @@
         <v>74</v>
       </c>
       <c r="C1562" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1562">
-        <v>1.398052516656462</v>
+        <v>0.005313695340882987</v>
       </c>
     </row>
     <row r="1563" spans="1:4">
@@ -22482,10 +22482,10 @@
         <v>74</v>
       </c>
       <c r="C1563" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1563">
-        <v>0.03953609590418636</v>
+        <v>0.4747635360527784</v>
       </c>
     </row>
     <row r="1564" spans="1:4">
@@ -22496,10 +22496,10 @@
         <v>74</v>
       </c>
       <c r="C1564" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1564">
-        <v>0.005313695340882987</v>
+        <v>9.946521843527444</v>
       </c>
     </row>
     <row r="1565" spans="1:4">
@@ -22510,10 +22510,10 @@
         <v>74</v>
       </c>
       <c r="C1565" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1565">
-        <v>0.4747635360527784</v>
+        <v>0.9658260754309594</v>
       </c>
     </row>
     <row r="1566" spans="1:4">
@@ -22524,10 +22524,10 @@
         <v>74</v>
       </c>
       <c r="C1566" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1566">
-        <v>9.946521843527444</v>
+        <v>641.6956392610073</v>
       </c>
     </row>
     <row r="1567" spans="1:4">
@@ -22538,10 +22538,10 @@
         <v>74</v>
       </c>
       <c r="C1567" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1567">
-        <v>0.9658260754309594</v>
+        <v>204.0517401610501</v>
       </c>
     </row>
     <row r="1568" spans="1:4">
@@ -22552,10 +22552,10 @@
         <v>74</v>
       </c>
       <c r="C1568" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1568">
-        <v>641.6956392610073</v>
+        <v>15.33399977086578</v>
       </c>
     </row>
     <row r="1569" spans="1:4">
@@ -22566,10 +22566,10 @@
         <v>74</v>
       </c>
       <c r="C1569" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1569">
-        <v>204.0517401610501</v>
+        <v>105.08874192819</v>
       </c>
     </row>
     <row r="1570" spans="1:4">
@@ -22580,10 +22580,10 @@
         <v>74</v>
       </c>
       <c r="C1570" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1570">
-        <v>15.33399977086578</v>
+        <v>0.008858289018971845</v>
       </c>
     </row>
     <row r="1571" spans="1:4">
@@ -22594,10 +22594,10 @@
         <v>74</v>
       </c>
       <c r="C1571" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1571">
-        <v>105.08874192819</v>
+        <v>0.8618525585718453</v>
       </c>
     </row>
     <row r="1572" spans="1:4">
@@ -22608,10 +22608,10 @@
         <v>74</v>
       </c>
       <c r="C1572" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1572">
-        <v>0.008858289018971845</v>
+        <v>3.89115095729474</v>
       </c>
     </row>
     <row r="1573" spans="1:4">
@@ -22622,10 +22622,10 @@
         <v>74</v>
       </c>
       <c r="C1573" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1573">
-        <v>0.8618525585718453</v>
+        <v>1.675299007198773</v>
       </c>
     </row>
     <row r="1574" spans="1:4">
@@ -22636,10 +22636,10 @@
         <v>74</v>
       </c>
       <c r="C1574" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1574">
-        <v>3.89115095729474</v>
+        <v>0.4155489468201995</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -22650,10 +22650,10 @@
         <v>74</v>
       </c>
       <c r="C1575" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1575">
-        <v>1.675299007198773</v>
+        <v>0.4651945921493461</v>
       </c>
     </row>
     <row r="1576" spans="1:4">
@@ -22664,10 +22664,10 @@
         <v>74</v>
       </c>
       <c r="C1576" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1576">
-        <v>0.4155489468201995</v>
+        <v>91.4160932489764</v>
       </c>
     </row>
     <row r="1577" spans="1:4">
@@ -22678,10 +22678,10 @@
         <v>74</v>
       </c>
       <c r="C1577" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1577">
-        <v>0.4651945921493461</v>
+        <v>1.373816837553168</v>
       </c>
     </row>
     <row r="1578" spans="1:4">
@@ -22692,10 +22692,10 @@
         <v>74</v>
       </c>
       <c r="C1578" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1578">
-        <v>91.4160932489764</v>
+        <v>0.2696666270657443</v>
       </c>
     </row>
     <row r="1579" spans="1:4">
@@ -22706,10 +22706,10 @@
         <v>74</v>
       </c>
       <c r="C1579" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1579">
-        <v>1.373816837553168</v>
+        <v>0.002321806815452874</v>
       </c>
     </row>
     <row r="1580" spans="1:4">
@@ -22720,10 +22720,10 @@
         <v>74</v>
       </c>
       <c r="C1580" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1580">
-        <v>0.2696666270657443</v>
+        <v>1.279217587162275</v>
       </c>
     </row>
     <row r="1581" spans="1:4">
@@ -22731,13 +22731,13 @@
         <v>0</v>
       </c>
       <c r="B1581" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1581" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1581">
-        <v>0.002321806815452874</v>
+        <v>0.4346640214323997</v>
       </c>
     </row>
     <row r="1582" spans="1:4">
@@ -22745,13 +22745,13 @@
         <v>0</v>
       </c>
       <c r="B1582" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1582" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1582">
-        <v>1.279217587162275</v>
+        <v>32.92150660298765</v>
       </c>
     </row>
     <row r="1583" spans="1:4">
@@ -22762,10 +22762,10 @@
         <v>75</v>
       </c>
       <c r="C1583" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1583">
-        <v>0.4346640214323997</v>
+        <v>2809.15835214898</v>
       </c>
     </row>
     <row r="1584" spans="1:4">
@@ -22776,10 +22776,10 @@
         <v>75</v>
       </c>
       <c r="C1584" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1584">
-        <v>32.92150660298765</v>
+        <v>11.93474722756073</v>
       </c>
     </row>
     <row r="1585" spans="1:4">
@@ -22790,10 +22790,10 @@
         <v>75</v>
       </c>
       <c r="C1585" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1585">
-        <v>2809.15835214898</v>
+        <v>0.3375075723975897</v>
       </c>
     </row>
     <row r="1586" spans="1:4">
@@ -22804,10 +22804,10 @@
         <v>75</v>
       </c>
       <c r="C1586" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1586">
-        <v>11.93474722756073</v>
+        <v>0.04536139378324151</v>
       </c>
     </row>
     <row r="1587" spans="1:4">
@@ -22818,10 +22818,10 @@
         <v>75</v>
       </c>
       <c r="C1587" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1587">
-        <v>0.3375075723975897</v>
+        <v>4.052911266312003</v>
       </c>
     </row>
     <row r="1588" spans="1:4">
@@ -22832,10 +22832,10 @@
         <v>75</v>
       </c>
       <c r="C1588" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1588">
-        <v>0.04536139378324151</v>
+        <v>84.91041830088943</v>
       </c>
     </row>
     <row r="1589" spans="1:4">
@@ -22846,10 +22846,10 @@
         <v>75</v>
       </c>
       <c r="C1589" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1589">
-        <v>4.052911266312003</v>
+        <v>8.244962144643068</v>
       </c>
     </row>
     <row r="1590" spans="1:4">
@@ -22860,10 +22860,10 @@
         <v>75</v>
       </c>
       <c r="C1590" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1590">
-        <v>84.91041830088943</v>
+        <v>5326.669896160364</v>
       </c>
     </row>
     <row r="1591" spans="1:4">
@@ -22874,10 +22874,10 @@
         <v>75</v>
       </c>
       <c r="C1591" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1591">
-        <v>8.244962144643068</v>
+        <v>917.5510306361318</v>
       </c>
     </row>
     <row r="1592" spans="1:4">
@@ -22888,10 +22888,10 @@
         <v>75</v>
       </c>
       <c r="C1592" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1592">
-        <v>5326.669896160364</v>
+        <v>145.587221519798</v>
       </c>
     </row>
     <row r="1593" spans="1:4">
@@ -22902,10 +22902,10 @@
         <v>75</v>
       </c>
       <c r="C1593" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1593">
-        <v>917.5510306361318</v>
+        <v>872.334178083092</v>
       </c>
     </row>
     <row r="1594" spans="1:4">
@@ -22916,10 +22916,10 @@
         <v>75</v>
       </c>
       <c r="C1594" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1594">
-        <v>145.587221519798</v>
+        <v>0.2884747334569692</v>
       </c>
     </row>
     <row r="1595" spans="1:4">
@@ -22930,10 +22930,10 @@
         <v>75</v>
       </c>
       <c r="C1595" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1595">
-        <v>872.334178083092</v>
+        <v>7.313303727135062</v>
       </c>
     </row>
     <row r="1596" spans="1:4">
@@ -22944,10 +22944,10 @@
         <v>75</v>
       </c>
       <c r="C1596" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1596">
-        <v>0.2884747334569692</v>
+        <v>33.0186045348458</v>
       </c>
     </row>
     <row r="1597" spans="1:4">
@@ -22958,10 +22958,10 @@
         <v>75</v>
       </c>
       <c r="C1597" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1597">
-        <v>7.313303727135062</v>
+        <v>14.21585438432172</v>
       </c>
     </row>
     <row r="1598" spans="1:4">
@@ -22972,10 +22972,10 @@
         <v>75</v>
       </c>
       <c r="C1598" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1598">
-        <v>33.0186045348458</v>
+        <v>3.526166548281908</v>
       </c>
     </row>
     <row r="1599" spans="1:4">
@@ -22986,10 +22986,10 @@
         <v>75</v>
       </c>
       <c r="C1599" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1599">
-        <v>14.21585438432172</v>
+        <v>11.94580783238635</v>
       </c>
     </row>
     <row r="1600" spans="1:4">
@@ -23000,10 +23000,10 @@
         <v>75</v>
       </c>
       <c r="C1600" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1600">
-        <v>3.526166548281908</v>
+        <v>842.3532864267379</v>
       </c>
     </row>
     <row r="1601" spans="1:4">
@@ -23014,10 +23014,10 @@
         <v>75</v>
       </c>
       <c r="C1601" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1601">
-        <v>11.94580783238635</v>
+        <v>35.2784667218104</v>
       </c>
     </row>
     <row r="1602" spans="1:4">
@@ -23028,10 +23028,10 @@
         <v>75</v>
       </c>
       <c r="C1602" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1602">
-        <v>842.3532864267379</v>
+        <v>6.924813314899803</v>
       </c>
     </row>
     <row r="1603" spans="1:4">
@@ -23042,10 +23042,10 @@
         <v>75</v>
       </c>
       <c r="C1603" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1603">
-        <v>35.2784667218104</v>
+        <v>0.05962205603718758</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23056,10 +23056,10 @@
         <v>75</v>
       </c>
       <c r="C1604" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1604">
-        <v>6.924813314899803</v>
+        <v>13.76570633649826</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23067,13 +23067,13 @@
         <v>0</v>
       </c>
       <c r="B1605" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1605" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1605">
-        <v>0.05962205603718758</v>
+        <v>0.6604932337999343</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -23081,13 +23081,13 @@
         <v>0</v>
       </c>
       <c r="B1606" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1606" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1606">
-        <v>13.76570633649826</v>
+        <v>78.86875276856125</v>
       </c>
     </row>
     <row r="1607" spans="1:4">
@@ -23098,10 +23098,10 @@
         <v>76</v>
       </c>
       <c r="C1607" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1607">
-        <v>0.6604932337999343</v>
+        <v>6279.253726415336</v>
       </c>
     </row>
     <row r="1608" spans="1:4">
@@ -23112,10 +23112,10 @@
         <v>76</v>
       </c>
       <c r="C1608" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1608">
-        <v>78.86875276856125</v>
+        <v>42.50943517364562</v>
       </c>
     </row>
     <row r="1609" spans="1:4">
@@ -23126,10 +23126,10 @@
         <v>76</v>
       </c>
       <c r="C1609" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1609">
-        <v>6279.253726415336</v>
+        <v>1.202141611874104</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23140,10 +23140,10 @@
         <v>76</v>
       </c>
       <c r="C1610" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1610">
-        <v>42.50943517364562</v>
+        <v>0.1615691720694303</v>
       </c>
     </row>
     <row r="1611" spans="1:4">
@@ -23154,10 +23154,10 @@
         <v>76</v>
       </c>
       <c r="C1611" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1611">
-        <v>1.202141611874104</v>
+        <v>14.4357450941205</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23168,10 +23168,10 @@
         <v>76</v>
       </c>
       <c r="C1612" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1612">
-        <v>0.1615691720694303</v>
+        <v>302.4357243187725</v>
       </c>
     </row>
     <row r="1613" spans="1:4">
@@ -23182,10 +23182,10 @@
         <v>76</v>
       </c>
       <c r="C1613" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1613">
-        <v>14.4357450941205</v>
+        <v>29.36708060204983</v>
       </c>
     </row>
     <row r="1614" spans="1:4">
@@ -23196,10 +23196,10 @@
         <v>76</v>
       </c>
       <c r="C1614" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1614">
-        <v>302.4357243187725</v>
+        <v>9481.711720966101</v>
       </c>
     </row>
     <row r="1615" spans="1:4">
@@ -23210,10 +23210,10 @@
         <v>76</v>
       </c>
       <c r="C1615" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1615">
-        <v>29.36708060204983</v>
+        <v>3411.166361664832</v>
       </c>
     </row>
     <row r="1616" spans="1:4">
@@ -23224,10 +23224,10 @@
         <v>76</v>
       </c>
       <c r="C1616" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1616">
-        <v>9481.711720966101</v>
+        <v>482.9890976572037</v>
       </c>
     </row>
     <row r="1617" spans="1:4">
@@ -23238,10 +23238,10 @@
         <v>76</v>
       </c>
       <c r="C1617" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1617">
-        <v>3411.166361664832</v>
+        <v>1552.794027445167</v>
       </c>
     </row>
     <row r="1618" spans="1:4">
@@ -23252,10 +23252,10 @@
         <v>76</v>
       </c>
       <c r="C1618" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1618">
-        <v>482.9890976572037</v>
+        <v>0.6910875224322081</v>
       </c>
     </row>
     <row r="1619" spans="1:4">
@@ -23266,10 +23266,10 @@
         <v>76</v>
       </c>
       <c r="C1619" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1619">
-        <v>1552.794027445167</v>
+        <v>8.953256646394729</v>
       </c>
     </row>
     <row r="1620" spans="1:4">
@@ -23280,10 +23280,10 @@
         <v>76</v>
       </c>
       <c r="C1620" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1620">
-        <v>0.6910875224322081</v>
+        <v>40.42277629047632</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -23294,10 +23294,10 @@
         <v>76</v>
       </c>
       <c r="C1621" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1621">
-        <v>8.953256646394729</v>
+        <v>17.40365196079016</v>
       </c>
     </row>
     <row r="1622" spans="1:4">
@@ -23308,10 +23308,10 @@
         <v>76</v>
       </c>
       <c r="C1622" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1622">
-        <v>40.42277629047632</v>
+        <v>4.316882665157318</v>
       </c>
     </row>
     <row r="1623" spans="1:4">
@@ -23322,10 +23322,10 @@
         <v>76</v>
       </c>
       <c r="C1623" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1623">
-        <v>17.40365196079016</v>
+        <v>18.15223910082132</v>
       </c>
     </row>
     <row r="1624" spans="1:4">
@@ -23336,10 +23336,10 @@
         <v>76</v>
       </c>
       <c r="C1624" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1624">
-        <v>4.316882665157318</v>
+        <v>1875.004528113529</v>
       </c>
     </row>
     <row r="1625" spans="1:4">
@@ -23350,10 +23350,10 @@
         <v>76</v>
       </c>
       <c r="C1625" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1625">
-        <v>18.15223910082132</v>
+        <v>53.60735515169799</v>
       </c>
     </row>
     <row r="1626" spans="1:4">
@@ -23364,10 +23364,10 @@
         <v>76</v>
       </c>
       <c r="C1626" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1626">
-        <v>1875.004528113529</v>
+        <v>10.52259242609143</v>
       </c>
     </row>
     <row r="1627" spans="1:4">
@@ -23378,10 +23378,10 @@
         <v>76</v>
       </c>
       <c r="C1627" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1627">
-        <v>53.60735515169799</v>
+        <v>0.09059862941503524</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -23392,10 +23392,10 @@
         <v>76</v>
       </c>
       <c r="C1628" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1628">
-        <v>10.52259242609143</v>
+        <v>90.54593503564597</v>
       </c>
     </row>
     <row r="1629" spans="1:4">
@@ -23403,13 +23403,13 @@
         <v>0</v>
       </c>
       <c r="B1629" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1629" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1629">
-        <v>0.09059862941503524</v>
+        <v>0.01313217438757419</v>
       </c>
     </row>
     <row r="1630" spans="1:4">
@@ -23417,13 +23417,13 @@
         <v>0</v>
       </c>
       <c r="B1630" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1630" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1630">
-        <v>90.54593503564597</v>
+        <v>11.41441327671521</v>
       </c>
     </row>
     <row r="1631" spans="1:4">
@@ -23434,10 +23434,10 @@
         <v>77</v>
       </c>
       <c r="C1631" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1631">
-        <v>0.01313217438757419</v>
+        <v>520.2550029047393</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -23448,10 +23448,10 @@
         <v>77</v>
       </c>
       <c r="C1632" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1632">
-        <v>11.41441327671521</v>
+        <v>5.380637249648571</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -23462,10 +23462,10 @@
         <v>77</v>
       </c>
       <c r="C1633" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1633">
-        <v>520.2550029047393</v>
+        <v>0.1521612298488617</v>
       </c>
     </row>
     <row r="1634" spans="1:4">
@@ -23476,10 +23476,10 @@
         <v>77</v>
       </c>
       <c r="C1634" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1634">
-        <v>5.380637249648571</v>
+        <v>0.02045063883066177</v>
       </c>
     </row>
     <row r="1635" spans="1:4">
@@ -23490,10 +23490,10 @@
         <v>77</v>
       </c>
       <c r="C1635" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1635">
-        <v>0.1521612298488617</v>
+        <v>1.827206300497055</v>
       </c>
     </row>
     <row r="1636" spans="1:4">
@@ -23504,10 +23504,10 @@
         <v>77</v>
       </c>
       <c r="C1636" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1636">
-        <v>0.02045063883066177</v>
+        <v>38.28084088265896</v>
       </c>
     </row>
     <row r="1637" spans="1:4">
@@ -23518,10 +23518,10 @@
         <v>77</v>
       </c>
       <c r="C1637" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1637">
-        <v>1.827206300497055</v>
+        <v>3.717142021656036</v>
       </c>
     </row>
     <row r="1638" spans="1:4">
@@ -23532,10 +23532,10 @@
         <v>77</v>
       </c>
       <c r="C1638" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1638">
-        <v>38.28084088265896</v>
+        <v>762.4521733358503</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -23546,10 +23546,10 @@
         <v>77</v>
       </c>
       <c r="C1639" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1639">
-        <v>3.717142021656036</v>
+        <v>327.7482867578417</v>
       </c>
     </row>
     <row r="1640" spans="1:4">
@@ -23560,10 +23560,10 @@
         <v>77</v>
       </c>
       <c r="C1640" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1640">
-        <v>762.4521733358503</v>
+        <v>53.30709920519963</v>
       </c>
     </row>
     <row r="1641" spans="1:4">
@@ -23574,10 +23574,10 @@
         <v>77</v>
       </c>
       <c r="C1641" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1641">
-        <v>327.7482867578417</v>
+        <v>124.8647096442059</v>
       </c>
     </row>
     <row r="1642" spans="1:4">
@@ -23588,10 +23588,10 @@
         <v>77</v>
       </c>
       <c r="C1642" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1642">
-        <v>53.30709920519963</v>
+        <v>0.1000188073795289</v>
       </c>
     </row>
     <row r="1643" spans="1:4">
@@ -23602,10 +23602,10 @@
         <v>77</v>
       </c>
       <c r="C1643" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1643">
-        <v>124.8647096442059</v>
+        <v>0.9355303975008428</v>
       </c>
     </row>
     <row r="1644" spans="1:4">
@@ -23616,10 +23616,10 @@
         <v>77</v>
       </c>
       <c r="C1644" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1644">
-        <v>0.1000188073795289</v>
+        <v>4.223796710479073</v>
       </c>
     </row>
     <row r="1645" spans="1:4">
@@ -23630,10 +23630,10 @@
         <v>77</v>
       </c>
       <c r="C1645" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1645">
-        <v>0.9355303975008428</v>
+        <v>1.818516555470415</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -23644,10 +23644,10 @@
         <v>77</v>
       </c>
       <c r="C1646" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1646">
-        <v>4.223796710479073</v>
+        <v>0.4510732926800847</v>
       </c>
     </row>
     <row r="1647" spans="1:4">
@@ -23658,10 +23658,10 @@
         <v>77</v>
       </c>
       <c r="C1647" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1647">
-        <v>1.818516555470415</v>
+        <v>0.3609096311638131</v>
       </c>
     </row>
     <row r="1648" spans="1:4">
@@ -23672,10 +23672,10 @@
         <v>77</v>
       </c>
       <c r="C1648" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1648">
-        <v>0.4510732926800847</v>
+        <v>339.1001994778588</v>
       </c>
     </row>
     <row r="1649" spans="1:4">
@@ -23686,10 +23686,10 @@
         <v>77</v>
       </c>
       <c r="C1649" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1649">
-        <v>0.3609096311638131</v>
+        <v>1.065841556405649</v>
       </c>
     </row>
     <row r="1650" spans="1:4">
@@ -23700,10 +23700,10 @@
         <v>77</v>
       </c>
       <c r="C1650" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1650">
-        <v>339.1001994778588</v>
+        <v>0.2092141322232783</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -23714,10 +23714,10 @@
         <v>77</v>
       </c>
       <c r="C1651" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1651">
-        <v>1.065841556405649</v>
+        <v>0.001801315955817699</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -23728,10 +23728,10 @@
         <v>77</v>
       </c>
       <c r="C1652" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1652">
-        <v>0.2092141322232783</v>
+        <v>8.944783892566338</v>
       </c>
     </row>
     <row r="1653" spans="1:4">
@@ -23739,13 +23739,13 @@
         <v>0</v>
       </c>
       <c r="B1653" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1653" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1653">
-        <v>0.001801315955817699</v>
+        <v>0.3174140718579292</v>
       </c>
     </row>
     <row r="1654" spans="1:4">
@@ -23753,13 +23753,13 @@
         <v>0</v>
       </c>
       <c r="B1654" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1654" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1654">
-        <v>8.944783892566338</v>
+        <v>7.374014577912167</v>
       </c>
     </row>
     <row r="1655" spans="1:4">
@@ -23770,10 +23770,10 @@
         <v>78</v>
       </c>
       <c r="C1655" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1655">
-        <v>0.3174140718579292</v>
+        <v>1093.201459354349</v>
       </c>
     </row>
     <row r="1656" spans="1:4">
@@ -23784,10 +23784,10 @@
         <v>78</v>
       </c>
       <c r="C1656" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1656">
-        <v>7.374014577912167</v>
+        <v>1.383797164463904</v>
       </c>
     </row>
     <row r="1657" spans="1:4">
@@ -23798,10 +23798,10 @@
         <v>78</v>
       </c>
       <c r="C1657" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1657">
-        <v>1093.201459354349</v>
+        <v>0.03913296299986541</v>
       </c>
     </row>
     <row r="1658" spans="1:4">
@@ -23812,10 +23812,10 @@
         <v>78</v>
       </c>
       <c r="C1658" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1658">
-        <v>1.383797164463904</v>
+        <v>0.005259513829369098</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -23826,10 +23826,10 @@
         <v>78</v>
       </c>
       <c r="C1659" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1659">
-        <v>0.03913296299986541</v>
+        <v>0.4699225724022835</v>
       </c>
     </row>
     <row r="1660" spans="1:4">
@@ -23840,10 +23840,10 @@
         <v>78</v>
       </c>
       <c r="C1660" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1660">
-        <v>0.005259513829369098</v>
+        <v>9.845101353037171</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -23854,10 +23854,10 @@
         <v>78</v>
       </c>
       <c r="C1661" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1661">
-        <v>0.4699225724022835</v>
+        <v>0.9559779540635646</v>
       </c>
     </row>
     <row r="1662" spans="1:4">
@@ -23868,10 +23868,10 @@
         <v>78</v>
       </c>
       <c r="C1662" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1662">
-        <v>9.845101353037171</v>
+        <v>1643.76470364213</v>
       </c>
     </row>
     <row r="1663" spans="1:4">
@@ -23882,10 +23882,10 @@
         <v>78</v>
       </c>
       <c r="C1663" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1663">
-        <v>0.9559779540635646</v>
+        <v>153.8857488817163</v>
       </c>
     </row>
     <row r="1664" spans="1:4">
@@ -23896,10 +23896,10 @@
         <v>78</v>
       </c>
       <c r="C1664" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1664">
-        <v>1643.76470364213</v>
+        <v>28.52401208532974</v>
       </c>
     </row>
     <row r="1665" spans="1:4">
@@ -23910,10 +23910,10 @@
         <v>78</v>
       </c>
       <c r="C1665" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1665">
-        <v>153.8857488817163</v>
+        <v>269.1948552598059</v>
       </c>
     </row>
     <row r="1666" spans="1:4">
@@ -23924,10 +23924,10 @@
         <v>78</v>
       </c>
       <c r="C1666" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1666">
-        <v>28.52401208532974</v>
+        <v>0.06461480987258256</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -23938,10 +23938,10 @@
         <v>78</v>
       </c>
       <c r="C1667" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1667">
-        <v>269.1948552598059</v>
+        <v>2.475802731513977</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -23952,10 +23952,10 @@
         <v>78</v>
       </c>
       <c r="C1668" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1668">
-        <v>0.06461480987258256</v>
+        <v>11.17792373299599</v>
       </c>
     </row>
     <row r="1669" spans="1:4">
@@ -23966,10 +23966,10 @@
         <v>78</v>
       </c>
       <c r="C1669" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1669">
-        <v>2.475802731513977</v>
+        <v>4.812551540136337</v>
       </c>
     </row>
     <row r="1670" spans="1:4">
@@ -23980,10 +23980,10 @@
         <v>78</v>
       </c>
       <c r="C1670" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1670">
-        <v>11.17792373299599</v>
+        <v>1.19372763633728</v>
       </c>
     </row>
     <row r="1671" spans="1:4">
@@ -23994,10 +23994,10 @@
         <v>78</v>
       </c>
       <c r="C1671" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1671">
-        <v>4.812551540136337</v>
+        <v>8.72344458879903</v>
       </c>
     </row>
     <row r="1672" spans="1:4">
@@ -24008,10 +24008,10 @@
         <v>78</v>
       </c>
       <c r="C1672" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1672">
-        <v>1.19372763633728</v>
+        <v>155.6591944781365</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24022,10 +24022,10 @@
         <v>78</v>
       </c>
       <c r="C1673" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1673">
-        <v>8.72344458879903</v>
+        <v>25.76215471934527</v>
       </c>
     </row>
     <row r="1674" spans="1:4">
@@ -24036,10 +24036,10 @@
         <v>78</v>
       </c>
       <c r="C1674" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1674">
-        <v>155.6591944781365</v>
+        <v>5.056855600550771</v>
       </c>
     </row>
     <row r="1675" spans="1:4">
@@ -24050,10 +24050,10 @@
         <v>78</v>
       </c>
       <c r="C1675" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1675">
-        <v>25.76215471934527</v>
+        <v>0.04353909835219383</v>
       </c>
     </row>
     <row r="1676" spans="1:4">
@@ -24064,10 +24064,10 @@
         <v>78</v>
       </c>
       <c r="C1676" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1676">
-        <v>5.056855600550771</v>
+        <v>12.82436211751774</v>
       </c>
     </row>
     <row r="1677" spans="1:4">
@@ -24075,13 +24075,13 @@
         <v>0</v>
       </c>
       <c r="B1677" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1677" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1677">
-        <v>0.04353909835219383</v>
+        <v>0.4010489580035209</v>
       </c>
     </row>
     <row r="1678" spans="1:4">
@@ -24089,13 +24089,13 @@
         <v>0</v>
       </c>
       <c r="B1678" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1678" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1678">
-        <v>12.82436211751774</v>
+        <v>22.28418738421053</v>
       </c>
     </row>
     <row r="1679" spans="1:4">
@@ -24106,10 +24106,10 @@
         <v>79</v>
       </c>
       <c r="C1679" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1679">
-        <v>0.4010489580035209</v>
+        <v>1818.771127334684</v>
       </c>
     </row>
     <row r="1680" spans="1:4">
@@ -24120,10 +24120,10 @@
         <v>79</v>
       </c>
       <c r="C1680" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1680">
-        <v>22.28418738421053</v>
+        <v>14.12217045275495</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24134,10 +24134,10 @@
         <v>79</v>
       </c>
       <c r="C1681" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1681">
-        <v>1818.771127334684</v>
+        <v>0.3993666037172079</v>
       </c>
     </row>
     <row r="1682" spans="1:4">
@@ -24148,10 +24148,10 @@
         <v>79</v>
       </c>
       <c r="C1682" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1682">
-        <v>14.12217045275495</v>
+        <v>0.05367531651630997</v>
       </c>
     </row>
     <row r="1683" spans="1:4">
@@ -24162,10 +24162,10 @@
         <v>79</v>
       </c>
       <c r="C1683" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1683">
-        <v>0.3993666037172079</v>
+        <v>4.795736569985747</v>
       </c>
     </row>
     <row r="1684" spans="1:4">
@@ -24176,10 +24176,10 @@
         <v>79</v>
       </c>
       <c r="C1684" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1684">
-        <v>0.05367531651630997</v>
+        <v>100.4729616468772</v>
       </c>
     </row>
     <row r="1685" spans="1:4">
@@ -24190,10 +24190,10 @@
         <v>79</v>
       </c>
       <c r="C1685" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1685">
-        <v>4.795736569985747</v>
+        <v>9.756114525347948</v>
       </c>
     </row>
     <row r="1686" spans="1:4">
@@ -24204,10 +24204,10 @@
         <v>79</v>
       </c>
       <c r="C1686" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1686">
-        <v>100.4729616468772</v>
+        <v>3809.856282393932</v>
       </c>
     </row>
     <row r="1687" spans="1:4">
@@ -24218,10 +24218,10 @@
         <v>79</v>
       </c>
       <c r="C1687" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1687">
-        <v>9.756114525347948</v>
+        <v>1238.166262063831</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -24232,10 +24232,10 @@
         <v>79</v>
       </c>
       <c r="C1688" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1688">
-        <v>3809.856282393932</v>
+        <v>174.5432439375669</v>
       </c>
     </row>
     <row r="1689" spans="1:4">
@@ -24246,10 +24246,10 @@
         <v>79</v>
       </c>
       <c r="C1689" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1689">
-        <v>1238.166262063831</v>
+        <v>623.9297560212016</v>
       </c>
     </row>
     <row r="1690" spans="1:4">
@@ -24260,10 +24260,10 @@
         <v>79</v>
       </c>
       <c r="C1690" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1690">
-        <v>174.5432439375669</v>
+        <v>0.1952652135118842</v>
       </c>
     </row>
     <row r="1691" spans="1:4">
@@ -24274,10 +24274,10 @@
         <v>79</v>
       </c>
       <c r="C1691" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1691">
-        <v>623.9297560212016</v>
+        <v>5.71364157281816</v>
       </c>
     </row>
     <row r="1692" spans="1:4">
@@ -24288,10 +24288,10 @@
         <v>79</v>
       </c>
       <c r="C1692" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1692">
-        <v>0.1952652135118842</v>
+        <v>25.7963402841799</v>
       </c>
     </row>
     <row r="1693" spans="1:4">
@@ -24302,10 +24302,10 @@
         <v>79</v>
       </c>
       <c r="C1693" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1693">
-        <v>5.71364157281816</v>
+        <v>11.10637539939955</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -24316,10 +24316,10 @@
         <v>79</v>
       </c>
       <c r="C1694" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1694">
-        <v>25.7963402841799</v>
+        <v>2.754876938611269</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -24330,10 +24330,10 @@
         <v>79</v>
       </c>
       <c r="C1695" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1695">
-        <v>11.10637539939955</v>
+        <v>11.02196995256469</v>
       </c>
     </row>
     <row r="1696" spans="1:4">
@@ -24344,10 +24344,10 @@
         <v>79</v>
       </c>
       <c r="C1696" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1696">
-        <v>2.754876938611269</v>
+        <v>555.0634294584579</v>
       </c>
     </row>
     <row r="1697" spans="1:4">
@@ -24358,10 +24358,10 @@
         <v>79</v>
       </c>
       <c r="C1697" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1697">
-        <v>11.02196995256469</v>
+        <v>32.55018041778356</v>
       </c>
     </row>
     <row r="1698" spans="1:4">
@@ -24372,10 +24372,10 @@
         <v>79</v>
       </c>
       <c r="C1698" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1698">
-        <v>555.0634294584579</v>
+        <v>6.389277757927776</v>
       </c>
     </row>
     <row r="1699" spans="1:4">
@@ -24386,10 +24386,10 @@
         <v>79</v>
       </c>
       <c r="C1699" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1699">
-        <v>32.55018041778356</v>
+        <v>0.05501114025712013</v>
       </c>
     </row>
     <row r="1700" spans="1:4">
@@ -24400,10 +24400,10 @@
         <v>79</v>
       </c>
       <c r="C1700" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1700">
-        <v>6.389277757927776</v>
+        <v>53.83316581934691</v>
       </c>
     </row>
     <row r="1701" spans="1:4">
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="B1701" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1701" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D1701">
-        <v>0.05501114025712013</v>
+        <v>0.09051331140100956</v>
       </c>
     </row>
     <row r="1702" spans="1:4">
@@ -24425,13 +24425,13 @@
         <v>0</v>
       </c>
       <c r="B1702" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1702" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D1702">
-        <v>53.83316581934691</v>
+        <v>3.508600915505085</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -24442,10 +24442,10 @@
         <v>80</v>
       </c>
       <c r="C1703" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1703">
-        <v>0.09051331140100956</v>
+        <v>484.1295445253327</v>
       </c>
     </row>
     <row r="1704" spans="1:4">
@@ -24456,10 +24456,10 @@
         <v>80</v>
       </c>
       <c r="C1704" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1704">
-        <v>3.508600915505085</v>
+        <v>2.990605099298991</v>
       </c>
     </row>
     <row r="1705" spans="1:4">
@@ -24470,10 +24470,10 @@
         <v>80</v>
       </c>
       <c r="C1705" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1705">
-        <v>484.1295445253327</v>
+        <v>0.08457253830507397</v>
       </c>
     </row>
     <row r="1706" spans="1:4">
@@ -24484,10 +24484,10 @@
         <v>80</v>
       </c>
       <c r="C1706" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1706">
-        <v>2.990605099298991</v>
+        <v>0.01136664337944239</v>
       </c>
     </row>
     <row r="1707" spans="1:4">
@@ -24498,10 +24498,10 @@
         <v>80</v>
       </c>
       <c r="C1707" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1707">
-        <v>0.08457253830507397</v>
+        <v>1.015577193964273</v>
       </c>
     </row>
     <row r="1708" spans="1:4">
@@ -24512,10 +24512,10 @@
         <v>80</v>
       </c>
       <c r="C1708" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1708">
-        <v>0.01136664337944239</v>
+        <v>21.27682514865883</v>
       </c>
     </row>
     <row r="1709" spans="1:4">
@@ -24526,10 +24526,10 @@
         <v>80</v>
       </c>
       <c r="C1709" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1709">
-        <v>1.015577193964273</v>
+        <v>2.06601994689554</v>
       </c>
     </row>
     <row r="1710" spans="1:4">
@@ -24540,10 +24540,10 @@
         <v>80</v>
       </c>
       <c r="C1710" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1710">
-        <v>21.27682514865883</v>
+        <v>652.8496222281456</v>
       </c>
     </row>
     <row r="1711" spans="1:4">
@@ -24554,10 +24554,10 @@
         <v>80</v>
       </c>
       <c r="C1711" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1711">
-        <v>2.06601994689554</v>
+        <v>149.6577971967682</v>
       </c>
     </row>
     <row r="1712" spans="1:4">
@@ -24568,10 +24568,10 @@
         <v>80</v>
       </c>
       <c r="C1712" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1712">
-        <v>652.8496222281456</v>
+        <v>37.58561639836058</v>
       </c>
     </row>
     <row r="1713" spans="1:4">
@@ -24582,10 +24582,10 @@
         <v>80</v>
       </c>
       <c r="C1713" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1713">
-        <v>149.6577971967682</v>
+        <v>106.9153992494941</v>
       </c>
     </row>
     <row r="1714" spans="1:4">
@@ -24596,10 +24596,10 @@
         <v>80</v>
       </c>
       <c r="C1714" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1714">
-        <v>37.58561639836058</v>
+        <v>0.03074411891633645</v>
       </c>
     </row>
     <row r="1715" spans="1:4">
@@ -24610,10 +24610,10 @@
         <v>80</v>
       </c>
       <c r="C1715" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1715">
-        <v>106.9153992494941</v>
+        <v>0.2643354601692408</v>
       </c>
     </row>
     <row r="1716" spans="1:4">
@@ -24624,10 +24624,10 @@
         <v>80</v>
       </c>
       <c r="C1716" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1716">
-        <v>0.03074411891633645</v>
+        <v>1.193439839163329</v>
       </c>
     </row>
     <row r="1717" spans="1:4">
@@ -24638,10 +24638,10 @@
         <v>80</v>
       </c>
       <c r="C1717" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1717">
-        <v>0.2643354601692408</v>
+        <v>0.5138244698406197</v>
       </c>
     </row>
     <row r="1718" spans="1:4">
@@ -24652,10 +24652,10 @@
         <v>80</v>
       </c>
       <c r="C1718" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1718">
-        <v>1.193439839163329</v>
+        <v>0.1274514080025256</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -24666,10 +24666,10 @@
         <v>80</v>
       </c>
       <c r="C1719" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1719">
-        <v>0.5138244698406197</v>
+        <v>2.487564120688476</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -24680,10 +24680,10 @@
         <v>80</v>
       </c>
       <c r="C1720" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1720">
-        <v>0.1274514080025256</v>
+        <v>127.2157646401925</v>
       </c>
     </row>
     <row r="1721" spans="1:4">
@@ -24694,10 +24694,10 @@
         <v>80</v>
       </c>
       <c r="C1721" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1721">
-        <v>2.487564120688476</v>
+        <v>7.346296649118885</v>
       </c>
     </row>
     <row r="1722" spans="1:4">
@@ -24708,10 +24708,10 @@
         <v>80</v>
       </c>
       <c r="C1722" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1722">
-        <v>127.2157646401925</v>
+        <v>1.442005211059004</v>
       </c>
     </row>
     <row r="1723" spans="1:4">
@@ -24722,10 +24722,10 @@
         <v>80</v>
       </c>
       <c r="C1723" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1723">
-        <v>7.346296649118885</v>
+        <v>0.01241554271429777</v>
       </c>
     </row>
     <row r="1724" spans="1:4">
@@ -24736,10 +24736,10 @@
         <v>80</v>
       </c>
       <c r="C1724" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1724">
-        <v>1.442005211059004</v>
+        <v>19.04474451061338</v>
       </c>
     </row>
     <row r="1725" spans="1:4">
@@ -24747,13 +24747,13 @@
         <v>0</v>
       </c>
       <c r="B1725" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C1725" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1725">
-        <v>0.01241554271429777</v>
+        <v>219.64</v>
       </c>
     </row>
     <row r="1726" spans="1:4">
@@ -24761,13 +24761,13 @@
         <v>0</v>
       </c>
       <c r="B1726" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C1726" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1726">
-        <v>19.04474451061338</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="1727" spans="1:4">
